--- a/ms/Updated model output 17-4-20.xlsx
+++ b/ms/Updated model output 17-4-20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenharrison/Documents/GitHub/sex_meta/ms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A5B6619-2A8B-2747-8394-747FB89FC229}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15FCFF0-7E53-6B47-BBFA-55A2939B29A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="460" windowWidth="38200" windowHeight="19700" activeTab="2" xr2:uid="{5BDBDF95-A114-D34B-9842-3CB243171EE0}"/>
+    <workbookView xWindow="100" yWindow="460" windowWidth="38200" windowHeight="19700" activeTab="1" xr2:uid="{5BDBDF95-A114-D34B-9842-3CB243171EE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Intercept models" sheetId="1" r:id="rId1"/>
@@ -3333,7 +3333,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF86D62B-22BF-1846-B677-968C777627E8}">
   <dimension ref="A1:AS39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
@@ -6055,7 +6055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{939D7292-2723-1340-8BB4-AEA2E39AEC34}">
   <dimension ref="A1:AN79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>

--- a/ms/Updated model output 17-4-20.xlsx
+++ b/ms/Updated model output 17-4-20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenharrison/Documents/GitHub/sex_meta/ms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2F80DB-65C0-6D4B-8146-0A0CDF266507}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BE062B-3A94-5C43-8A32-41D41C436232}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17960" yWindow="460" windowWidth="38200" windowHeight="19700" activeTab="3" xr2:uid="{5BDBDF95-A114-D34B-9842-3CB243171EE0}"/>
+    <workbookView xWindow="160" yWindow="460" windowWidth="38200" windowHeight="19700" activeTab="3" xr2:uid="{5BDBDF95-A114-D34B-9842-3CB243171EE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Intercept models" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2501" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2504" uniqueCount="547">
   <si>
     <t xml:space="preserve">Intercept only models are our most simple multilevel mixed models to compare SMD (means) and lnCVR (variance) for males and females, in each taxo group. </t>
   </si>
@@ -1663,6 +1663,12 @@
   </si>
   <si>
     <t>-6.11, 10.68</t>
+  </si>
+  <si>
+    <t>p=0.017</t>
+  </si>
+  <si>
+    <t>p=0.004</t>
   </si>
 </sst>
 </file>
@@ -2149,7 +2155,7 @@
   <dimension ref="A1:AI60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Y24" sqref="Y24"/>
+      <selection activeCell="AG37" sqref="AG37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3272,6 +3278,9 @@
       <c r="AG22" t="s">
         <v>18</v>
       </c>
+      <c r="AH22">
+        <v>11</v>
+      </c>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -3361,6 +3370,9 @@
       <c r="AG23" s="5" t="s">
         <v>91</v>
       </c>
+      <c r="AH23" s="5">
+        <v>10</v>
+      </c>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -3419,6 +3431,9 @@
       </c>
       <c r="AE24">
         <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -3948,7 +3963,7 @@
   <dimension ref="A1:AS39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4109,8 +4124,8 @@
       <c r="B8" s="4">
         <v>2.79</v>
       </c>
-      <c r="C8" s="4">
-        <v>1.7000000000000001E-2</v>
+      <c r="C8" s="4" t="s">
+        <v>545</v>
       </c>
       <c r="D8" t="s">
         <v>115</v>
@@ -4130,8 +4145,8 @@
       <c r="T8" s="4">
         <v>3.53</v>
       </c>
-      <c r="U8" s="4">
-        <v>4.0000000000000001E-3</v>
+      <c r="U8" s="4" t="s">
+        <v>546</v>
       </c>
       <c r="V8" s="4"/>
       <c r="AB8" s="5" t="s">
@@ -6670,7 +6685,7 @@
   <dimension ref="A1:AN79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6833,8 +6848,8 @@
       <c r="J8" s="5">
         <v>0.57999999999999996</v>
       </c>
-      <c r="K8" s="5">
-        <v>0.75</v>
+      <c r="K8" s="5" t="s">
+        <v>223</v>
       </c>
       <c r="Q8" s="5" t="s">
         <v>59</v>
@@ -12144,6 +12159,7 @@
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
     <col min="17" max="17" width="14.33203125" customWidth="1"/>
     <col min="25" max="25" width="14.83203125" customWidth="1"/>
     <col min="33" max="33" width="14.5" customWidth="1"/>

--- a/ms/Updated model output 17-4-20.xlsx
+++ b/ms/Updated model output 17-4-20.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenharrison/Documents/GitHub/sex_meta/ms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BE062B-3A94-5C43-8A32-41D41C436232}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA3E8D6-B5A3-8444-9E83-828FC8FF7AE4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="460" windowWidth="38200" windowHeight="19700" activeTab="3" xr2:uid="{5BDBDF95-A114-D34B-9842-3CB243171EE0}"/>
+    <workbookView xWindow="19060" yWindow="1000" windowWidth="38200" windowHeight="19700" activeTab="4" xr2:uid="{5BDBDF95-A114-D34B-9842-3CB243171EE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Intercept models" sheetId="1" r:id="rId1"/>
     <sheet name="MLMR mod 1 - Personality" sheetId="2" r:id="rId2"/>
     <sheet name="MLMR mod 2a - SSD factor only" sheetId="3" r:id="rId3"/>
     <sheet name="MLMR mod 2b - SSD interactions" sheetId="4" r:id="rId4"/>
+    <sheet name="MLMR mod 2c - SSD subset" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2504" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4253" uniqueCount="624">
   <si>
     <t xml:space="preserve">Intercept only models are our most simple multilevel mixed models to compare SMD (means) and lnCVR (variance) for males and females, in each taxo group. </t>
   </si>
@@ -1669,6 +1671,237 @@
   </si>
   <si>
     <t>p=0.004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Same SSD models but only for traits with 10 or more species </t>
+  </si>
+  <si>
+    <t>-0.002, 0.54</t>
+  </si>
+  <si>
+    <t>-0.08, 0.35</t>
+  </si>
+  <si>
+    <t>-0.07, 0.32</t>
+  </si>
+  <si>
+    <t>-0.18, 0.19</t>
+  </si>
+  <si>
+    <t>-2.89, -1.07</t>
+  </si>
+  <si>
+    <t>2.12, 4.86</t>
+  </si>
+  <si>
+    <t>0.95, 2.92</t>
+  </si>
+  <si>
+    <t>0.94, 2.94</t>
+  </si>
+  <si>
+    <t>p=0.96</t>
+  </si>
+  <si>
+    <t>-0.21, 0.35</t>
+  </si>
+  <si>
+    <t>-0.17, 0.38</t>
+  </si>
+  <si>
+    <t>-0.22, 0.32</t>
+  </si>
+  <si>
+    <t>-0.23, 0.30</t>
+  </si>
+  <si>
+    <t>-0.40, 0.90</t>
+  </si>
+  <si>
+    <t>-1.13, 0.89</t>
+  </si>
+  <si>
+    <t>-0.92, 0.53</t>
+  </si>
+  <si>
+    <t>-0.76, 0.70</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>-0.48, -0.06</t>
+  </si>
+  <si>
+    <t>0.26, 0.83</t>
+  </si>
+  <si>
+    <t>-0.03, 0.26</t>
+  </si>
+  <si>
+    <t>-0.16, 0.15</t>
+  </si>
+  <si>
+    <t>-0.74, -0.27</t>
+  </si>
+  <si>
+    <t>0.54, 1.25</t>
+  </si>
+  <si>
+    <t>0.24, 0.75</t>
+  </si>
+  <si>
+    <t>-0.12, 0.39</t>
+  </si>
+  <si>
+    <t>-0.16, 0.43</t>
+  </si>
+  <si>
+    <t>-0.15, 0.34</t>
+  </si>
+  <si>
+    <t>-0.10, 0.23</t>
+  </si>
+  <si>
+    <t>-0.29, 0.23</t>
+  </si>
+  <si>
+    <t>-0.24, 0.14</t>
+  </si>
+  <si>
+    <t>-0.19, 0.18</t>
+  </si>
+  <si>
+    <t>p=0.89</t>
+  </si>
+  <si>
+    <t>-0.67, 0.41</t>
+  </si>
+  <si>
+    <t>-0.57, 0.51</t>
+  </si>
+  <si>
+    <t>Activity:SSD</t>
+  </si>
+  <si>
+    <t>-0.14, 0.23</t>
+  </si>
+  <si>
+    <t>-0.27, 0.13</t>
+  </si>
+  <si>
+    <t>p=0.015</t>
+  </si>
+  <si>
+    <t>p=0.49</t>
+  </si>
+  <si>
+    <t>-0.25, 0.05</t>
+  </si>
+  <si>
+    <t>-0.13, 0.11</t>
+  </si>
+  <si>
+    <t>-0.18, 0.10</t>
+  </si>
+  <si>
+    <t>-0.14, 0.17</t>
+  </si>
+  <si>
+    <t>-0.66, 0.42</t>
+  </si>
+  <si>
+    <t>-0.58, 0.51</t>
+  </si>
+  <si>
+    <t>-0.72, 1.24</t>
+  </si>
+  <si>
+    <t>-1.43, 0.69</t>
+  </si>
+  <si>
+    <t>p=0.02</t>
+  </si>
+  <si>
+    <t>p=0.249</t>
+  </si>
+  <si>
+    <t>-0.25, 0.03</t>
+  </si>
+  <si>
+    <t>-0.14, 0.10</t>
+  </si>
+  <si>
+    <t>-0.93, 0.54</t>
+  </si>
+  <si>
+    <t>-0.75, 0.93</t>
+  </si>
+  <si>
+    <t>p=0.006</t>
+  </si>
+  <si>
+    <t>-0.37, 0.38</t>
+  </si>
+  <si>
+    <t>-0.10, 0.66</t>
+  </si>
+  <si>
+    <t>-2.02, 0.32</t>
+  </si>
+  <si>
+    <t>0.25, 1.90</t>
+  </si>
+  <si>
+    <t>-0.29, 0.02</t>
+  </si>
+  <si>
+    <t>-0.09, 0.17</t>
+  </si>
+  <si>
+    <t>-0.58, 0.63</t>
+  </si>
+  <si>
+    <t>-0.49, 0.86</t>
+  </si>
+  <si>
+    <t>-0.23, 0.49</t>
+  </si>
+  <si>
+    <t>-0.11, 0.61</t>
+  </si>
+  <si>
+    <t>-0.39, 0.06</t>
+  </si>
+  <si>
+    <t>0.05, 0.37</t>
+  </si>
+  <si>
+    <t>-0.11, 0.12</t>
+  </si>
+  <si>
+    <t>-0.10, 0.17</t>
+  </si>
+  <si>
+    <t>-0.71, 0.36</t>
+  </si>
+  <si>
+    <t>* because there is only 1 pers level (boldness), this is just SSD moderating boldness dataset</t>
+  </si>
+  <si>
+    <t>p=0.52</t>
+  </si>
+  <si>
+    <t>-0.01, 0.12</t>
+  </si>
+  <si>
+    <t>p&lt;0.52</t>
+  </si>
+  <si>
+    <t>-0.005, 0.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD </t>
   </si>
 </sst>
 </file>
@@ -12151,8 +12384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F4A7D2-5CA0-1747-899D-B4E5A2FB552D}">
   <dimension ref="A1:AN96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AK94" sqref="AK94"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19611,4 +19844,7492 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52E1601E-514F-6C4E-8014-9481A0BF4F36}">
+  <dimension ref="A1:AN96"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" customWidth="1"/>
+    <col min="17" max="17" width="14.83203125" customWidth="1"/>
+    <col min="25" max="25" width="16" customWidth="1"/>
+    <col min="33" max="33" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="10"/>
+      <c r="AJ4" s="10"/>
+      <c r="AK4" s="10"/>
+      <c r="AL4" s="10"/>
+      <c r="AM4" s="10"/>
+      <c r="AN4" s="10"/>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG5" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>1594.61</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6">
+        <v>803.02</v>
+      </c>
+      <c r="K6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R6">
+        <v>1590.2</v>
+      </c>
+      <c r="S6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z6">
+        <v>1755.79</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH6" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="AI6" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5"/>
+      <c r="AM6" s="5"/>
+      <c r="AN6" s="5"/>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="I7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="R7" s="4">
+        <v>3.65</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="Y7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z7" s="4">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="AA7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH7" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="AI7" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="5"/>
+      <c r="AN7" s="5"/>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="7"/>
+      <c r="AG8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH8" s="22"/>
+      <c r="AI8" s="22"/>
+      <c r="AJ8" s="22"/>
+      <c r="AK8" s="22"/>
+      <c r="AL8" s="22"/>
+      <c r="AM8" s="22"/>
+      <c r="AN8" s="22"/>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="9"/>
+      <c r="AG9" s="8"/>
+      <c r="AH9" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI9" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ9" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK9" s="40"/>
+      <c r="AL9" s="40"/>
+      <c r="AM9" s="40"/>
+      <c r="AN9" s="40"/>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>1.7</v>
+      </c>
+      <c r="C10">
+        <v>1.3</v>
+      </c>
+      <c r="D10" s="5">
+        <v>24</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10">
+        <v>0.06</v>
+      </c>
+      <c r="K10">
+        <v>0.25</v>
+      </c>
+      <c r="L10">
+        <v>36</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>16</v>
+      </c>
+      <c r="R10">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="S10">
+        <v>1.06</v>
+      </c>
+      <c r="T10" s="5">
+        <v>37</v>
+      </c>
+      <c r="U10" s="4"/>
+      <c r="Y10" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z10">
+        <v>0.09</v>
+      </c>
+      <c r="AA10">
+        <v>0.3</v>
+      </c>
+      <c r="AB10">
+        <v>55</v>
+      </c>
+      <c r="AG10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH10" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="AI10" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="AJ10" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="5"/>
+      <c r="AM10" s="5"/>
+      <c r="AN10" s="5"/>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>300</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D11">
+        <v>96</v>
+      </c>
+      <c r="I11" t="s">
+        <v>300</v>
+      </c>
+      <c r="J11">
+        <v>0.13</v>
+      </c>
+      <c r="K11">
+        <v>0.37</v>
+      </c>
+      <c r="L11">
+        <v>20</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>300</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="T11">
+        <v>34</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>300</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AB11">
+        <v>40</v>
+      </c>
+      <c r="AG11" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="AH11" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="AI11" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="AJ11" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="5"/>
+      <c r="AM11" s="5"/>
+      <c r="AN11" s="5"/>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C12">
+        <v>0.26</v>
+      </c>
+      <c r="D12">
+        <v>264</v>
+      </c>
+      <c r="I12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12">
+        <v>0.12</v>
+      </c>
+      <c r="K12">
+        <v>0.35</v>
+      </c>
+      <c r="L12">
+        <v>267</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12">
+        <v>0.08</v>
+      </c>
+      <c r="S12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="T12">
+        <v>382</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z12">
+        <v>0.16</v>
+      </c>
+      <c r="AA12">
+        <v>0.4</v>
+      </c>
+      <c r="AB12">
+        <v>570</v>
+      </c>
+      <c r="AG12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH12" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="AI12" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="AJ12" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="5"/>
+      <c r="AM12" s="5"/>
+      <c r="AN12" s="40"/>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="7"/>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="7"/>
+      <c r="AF13" s="7"/>
+      <c r="AG13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH13" s="22"/>
+      <c r="AI13" s="22"/>
+      <c r="AJ13" s="22"/>
+      <c r="AK13" s="22"/>
+      <c r="AL13" s="22"/>
+      <c r="AM13" s="22"/>
+      <c r="AN13" s="5"/>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S14" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="T14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="V14" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="W14" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="X14" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA14" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD14" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="AE14" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF14" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="AG14" s="40"/>
+      <c r="AH14" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI14" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK14" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL14" s="40" t="s">
+        <v>335</v>
+      </c>
+      <c r="AM14" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN14" s="40" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>336</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>336</v>
+      </c>
+      <c r="D15" t="s">
+        <v>336</v>
+      </c>
+      <c r="E15" t="s">
+        <v>336</v>
+      </c>
+      <c r="F15" t="s">
+        <v>336</v>
+      </c>
+      <c r="G15" t="s">
+        <v>336</v>
+      </c>
+      <c r="H15" t="s">
+        <v>336</v>
+      </c>
+      <c r="I15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J15" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="K15" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="L15" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="M15" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="N15" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="O15" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="P15" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="R15" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="S15" s="25" t="s">
+        <v>611</v>
+      </c>
+      <c r="T15" s="5">
+        <v>0.71</v>
+      </c>
+      <c r="U15" s="5">
+        <v>0.48</v>
+      </c>
+      <c r="V15" s="5">
+        <v>22</v>
+      </c>
+      <c r="W15" s="5">
+        <v>19</v>
+      </c>
+      <c r="X15" s="5">
+        <v>204</v>
+      </c>
+      <c r="Y15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z15" s="4">
+        <v>-0.27</v>
+      </c>
+      <c r="AA15" s="27" t="s">
+        <v>566</v>
+      </c>
+      <c r="AB15" s="4">
+        <v>-2.52</v>
+      </c>
+      <c r="AC15" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="AD15" s="4">
+        <v>14</v>
+      </c>
+      <c r="AE15" s="4">
+        <v>12</v>
+      </c>
+      <c r="AF15" s="4">
+        <v>84</v>
+      </c>
+      <c r="AG15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH15" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AI15" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ15" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AK15" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AL15" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AM15" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AN15" s="23" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="G16" t="s">
+        <v>336</v>
+      </c>
+      <c r="H16" t="s">
+        <v>336</v>
+      </c>
+      <c r="I16" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16">
+        <v>-0.13</v>
+      </c>
+      <c r="K16" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="L16">
+        <v>-0.49</v>
+      </c>
+      <c r="M16">
+        <v>0.63</v>
+      </c>
+      <c r="N16">
+        <v>93</v>
+      </c>
+      <c r="O16">
+        <v>13</v>
+      </c>
+      <c r="P16">
+        <v>93</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="S16" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="T16" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="U16" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="V16" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="W16" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="X16" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z16" s="4">
+        <v>0.54</v>
+      </c>
+      <c r="AA16" s="27" t="s">
+        <v>567</v>
+      </c>
+      <c r="AB16" s="4">
+        <v>3.74</v>
+      </c>
+      <c r="AC16" s="4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="AD16" s="4">
+        <v>15</v>
+      </c>
+      <c r="AE16" s="4">
+        <v>13</v>
+      </c>
+      <c r="AF16" s="4">
+        <v>85</v>
+      </c>
+      <c r="AG16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH16" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AI16" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ16" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AK16" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AL16" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AM16" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AN16" s="23" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
+        <v>336</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>336</v>
+      </c>
+      <c r="D17" t="s">
+        <v>336</v>
+      </c>
+      <c r="E17" t="s">
+        <v>336</v>
+      </c>
+      <c r="F17" t="s">
+        <v>336</v>
+      </c>
+      <c r="G17" t="s">
+        <v>336</v>
+      </c>
+      <c r="H17" t="s">
+        <v>336</v>
+      </c>
+      <c r="I17" t="s">
+        <v>42</v>
+      </c>
+      <c r="J17">
+        <v>-0.03</v>
+      </c>
+      <c r="K17" s="24" t="s">
+        <v>582</v>
+      </c>
+      <c r="L17">
+        <v>-0.11</v>
+      </c>
+      <c r="M17">
+        <v>0.91</v>
+      </c>
+      <c r="N17">
+        <v>174</v>
+      </c>
+      <c r="O17">
+        <v>12</v>
+      </c>
+      <c r="P17">
+        <v>174</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R17" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="S17" s="25" t="s">
+        <v>612</v>
+      </c>
+      <c r="T17" s="5">
+        <v>1.35</v>
+      </c>
+      <c r="U17" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="V17" s="5">
+        <v>27</v>
+      </c>
+      <c r="W17" s="5">
+        <v>26</v>
+      </c>
+      <c r="X17" s="5">
+        <v>178</v>
+      </c>
+      <c r="Y17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z17" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="AA17" s="25" t="s">
+        <v>568</v>
+      </c>
+      <c r="AB17" s="5">
+        <v>1.51</v>
+      </c>
+      <c r="AC17" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="AD17" s="5">
+        <v>26</v>
+      </c>
+      <c r="AE17" s="5">
+        <v>26</v>
+      </c>
+      <c r="AF17">
+        <v>178</v>
+      </c>
+      <c r="AG17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH17" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AI17" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ17" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AK17" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AL17" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AM17" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AN17" s="23" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="G18" t="s">
+        <v>336</v>
+      </c>
+      <c r="H18" t="s">
+        <v>336</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J18" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="K18" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="L18" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="M18" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="N18" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="O18" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="P18" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="S18" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="T18" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="U18" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="V18" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="W18" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="X18" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z18" s="5">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="AA18" s="25" t="s">
+        <v>569</v>
+      </c>
+      <c r="AB18" s="5">
+        <v>-0.04</v>
+      </c>
+      <c r="AC18" s="5">
+        <v>0.97</v>
+      </c>
+      <c r="AD18" s="5">
+        <v>19</v>
+      </c>
+      <c r="AE18" s="5">
+        <v>16</v>
+      </c>
+      <c r="AF18">
+        <v>223</v>
+      </c>
+      <c r="AG18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH18" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AI18" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ18" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AK18" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AL18" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AM18" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AN18" s="23" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="H19" t="s">
+        <v>336</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J19" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="K19" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="L19" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="M19" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="N19" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="O19" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="P19" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="S19" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="T19" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="U19" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="V19" s="5">
+        <v>2</v>
+      </c>
+      <c r="W19" s="5">
+        <v>2</v>
+      </c>
+      <c r="X19" s="5">
+        <v>9</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z19" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="AA19" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB19" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="AC19" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="AD19" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="AE19" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>336</v>
+      </c>
+      <c r="AG19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH19" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AI19" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ19" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AK19" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AL19" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AM19" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AN19" s="23" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="23">
+        <v>-0.17</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>617</v>
+      </c>
+      <c r="D20" s="23">
+        <v>-0.63</v>
+      </c>
+      <c r="E20" s="23">
+        <v>0.53</v>
+      </c>
+      <c r="F20" s="19">
+        <v>21</v>
+      </c>
+      <c r="G20" s="19">
+        <v>76</v>
+      </c>
+      <c r="H20" s="19">
+        <v>234</v>
+      </c>
+      <c r="I20" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="J20" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="K20" s="30" t="s">
+        <v>584</v>
+      </c>
+      <c r="L20" s="23">
+        <v>0.52</v>
+      </c>
+      <c r="M20" s="23">
+        <v>0.6</v>
+      </c>
+      <c r="N20" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="O20" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="P20" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q20" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="R20" s="30">
+        <v>-0.16</v>
+      </c>
+      <c r="S20" s="30" t="s">
+        <v>613</v>
+      </c>
+      <c r="T20" s="23">
+        <v>-1.43</v>
+      </c>
+      <c r="U20" s="23">
+        <v>0.15</v>
+      </c>
+      <c r="V20" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="W20" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="X20" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y20" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z20" s="20">
+        <v>-0.51</v>
+      </c>
+      <c r="AA20" s="31" t="s">
+        <v>570</v>
+      </c>
+      <c r="AB20" s="20">
+        <v>-4.26</v>
+      </c>
+      <c r="AC20" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="AD20" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="AE20" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="AF20" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="AG20" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH20" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AI20" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ20" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AK20" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AL20" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AM20" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AN20" s="23" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A21" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>336</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>583</v>
+      </c>
+      <c r="J21" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="K21" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="L21" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="M21" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="N21" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="O21" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="P21" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q21" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="R21" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="S21" s="37" t="s">
+        <v>336</v>
+      </c>
+      <c r="T21" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="U21" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="V21" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="W21" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="X21" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y21" s="38" t="s">
+        <v>343</v>
+      </c>
+      <c r="Z21" s="4">
+        <v>0.89</v>
+      </c>
+      <c r="AA21" s="27" t="s">
+        <v>571</v>
+      </c>
+      <c r="AB21" s="4">
+        <v>4.99</v>
+      </c>
+      <c r="AC21" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="AD21" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="AE21" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="AF21" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="AG21" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="AH21" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AI21" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ21" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AK21" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AL21" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AM21" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AN21" s="23" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A22" s="13" t="s">
+        <v>583</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>336</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="J22" s="13">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="K22" s="37" t="s">
+        <v>585</v>
+      </c>
+      <c r="L22" s="13">
+        <v>-0.69</v>
+      </c>
+      <c r="M22" s="13">
+        <v>0.49</v>
+      </c>
+      <c r="N22" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="O22" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="P22" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q22" s="38" t="s">
+        <v>344</v>
+      </c>
+      <c r="R22" s="38">
+        <v>0.21</v>
+      </c>
+      <c r="S22" s="44" t="s">
+        <v>614</v>
+      </c>
+      <c r="T22" s="38">
+        <v>2.56</v>
+      </c>
+      <c r="U22" s="38">
+        <v>0.01</v>
+      </c>
+      <c r="V22" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="W22" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="X22" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y22" s="38" t="s">
+        <v>344</v>
+      </c>
+      <c r="Z22" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="AA22" s="44" t="s">
+        <v>572</v>
+      </c>
+      <c r="AB22" s="4">
+        <v>3.86</v>
+      </c>
+      <c r="AC22" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="AD22" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="AE22" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="AF22" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="AG22" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="AH22" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AI22" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ22" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AK22" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AL22" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AM22" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AN22" s="23" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A23" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>336</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="J23" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="K23" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="L23" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="M23" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="N23" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="O23" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="P23" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q23" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="R23" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="S23" s="37" t="s">
+        <v>336</v>
+      </c>
+      <c r="T23" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="U23" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="V23" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="W23" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="X23" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y23" s="38" t="s">
+        <v>345</v>
+      </c>
+      <c r="Z23" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="AA23" s="44" t="s">
+        <v>572</v>
+      </c>
+      <c r="AB23" s="4">
+        <v>3.82</v>
+      </c>
+      <c r="AC23" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="AD23" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="AE23" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="AF23" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="AG23" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="AH23" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AI23" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ23" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AK23" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AL23" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AM23" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AN23" s="23" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="24" spans="1:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>336</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="L24" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="M24" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="N24" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="O24" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="P24" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q24" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="R24" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="S24" s="26" t="s">
+        <v>336</v>
+      </c>
+      <c r="T24" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="U24" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="V24" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="W24" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="X24" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y24" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="Z24" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="AA24" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB24" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="AC24" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="AD24" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="AE24" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="AF24" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="AG24" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="AH24" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="AI24" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ24" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="AK24" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="AL24" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="AM24" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="AN24" s="15" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG25" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26">
+        <v>261.23</v>
+      </c>
+      <c r="C26" t="s">
+        <v>619</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J26">
+        <v>315.08</v>
+      </c>
+      <c r="K26" t="s">
+        <v>586</v>
+      </c>
+      <c r="Q26" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R26">
+        <v>1000.22</v>
+      </c>
+      <c r="S26" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y26" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z26">
+        <v>916.28</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG26" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH26" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="AI26" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="AJ26" s="5"/>
+      <c r="AK26" s="5"/>
+      <c r="AL26" s="5"/>
+      <c r="AM26" s="5"/>
+      <c r="AN26" s="5"/>
+    </row>
+    <row r="27" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="I27" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J27">
+        <v>0.85</v>
+      </c>
+      <c r="K27" t="s">
+        <v>587</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="R27" s="4">
+        <v>2.84</v>
+      </c>
+      <c r="S27" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="Y27" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z27">
+        <v>0.31</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>556</v>
+      </c>
+      <c r="AG27" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH27" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="AI27" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="AJ27" s="5"/>
+      <c r="AK27" s="5"/>
+      <c r="AL27" s="5"/>
+      <c r="AM27" s="5"/>
+      <c r="AN27" s="5"/>
+    </row>
+    <row r="28" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="7"/>
+      <c r="Y28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z28" s="7"/>
+      <c r="AA28" s="7"/>
+      <c r="AB28" s="7"/>
+      <c r="AC28" s="7"/>
+      <c r="AD28" s="7"/>
+      <c r="AE28" s="7"/>
+      <c r="AF28" s="7"/>
+      <c r="AG28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH28" s="22"/>
+      <c r="AI28" s="22"/>
+      <c r="AJ28" s="22"/>
+      <c r="AK28" s="22"/>
+      <c r="AL28" s="22"/>
+      <c r="AM28" s="22"/>
+      <c r="AN28" s="22"/>
+    </row>
+    <row r="29" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A29" s="8"/>
+      <c r="B29" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S29" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="T29" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="9"/>
+      <c r="Y29" s="8"/>
+      <c r="Z29" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA29" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB29" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC29" s="9"/>
+      <c r="AD29" s="9"/>
+      <c r="AE29" s="9"/>
+      <c r="AF29" s="9"/>
+      <c r="AG29" s="8"/>
+      <c r="AH29" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI29" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ29" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK29" s="40"/>
+      <c r="AL29" s="40"/>
+      <c r="AM29" s="40"/>
+      <c r="AN29" s="40"/>
+    </row>
+    <row r="30" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>1E-3</v>
+      </c>
+      <c r="D30" s="5">
+        <v>24</v>
+      </c>
+      <c r="I30" t="s">
+        <v>16</v>
+      </c>
+      <c r="J30">
+        <v>0.03</v>
+      </c>
+      <c r="K30">
+        <v>0.17</v>
+      </c>
+      <c r="L30">
+        <v>36</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>16</v>
+      </c>
+      <c r="R30">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="S30">
+        <v>0.26</v>
+      </c>
+      <c r="T30" s="5">
+        <v>37</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z30">
+        <v>0.04</v>
+      </c>
+      <c r="AA30">
+        <v>0.2</v>
+      </c>
+      <c r="AB30">
+        <v>55</v>
+      </c>
+      <c r="AG30" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH30" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="AI30" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="AJ30" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="AK30" s="5"/>
+      <c r="AL30" s="5"/>
+      <c r="AM30" s="5"/>
+      <c r="AN30" s="5"/>
+    </row>
+    <row r="31" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>300</v>
+      </c>
+      <c r="B31">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C31">
+        <v>0.06</v>
+      </c>
+      <c r="D31">
+        <v>96</v>
+      </c>
+      <c r="I31" t="s">
+        <v>300</v>
+      </c>
+      <c r="J31">
+        <v>1E-3</v>
+      </c>
+      <c r="K31">
+        <v>0.04</v>
+      </c>
+      <c r="L31">
+        <v>20</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>300</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>2E-3</v>
+      </c>
+      <c r="T31">
+        <v>34</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>300</v>
+      </c>
+      <c r="Z31">
+        <v>0.02</v>
+      </c>
+      <c r="AA31">
+        <v>0.15</v>
+      </c>
+      <c r="AB31">
+        <v>40</v>
+      </c>
+      <c r="AG31" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="AH31" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="AI31" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="AJ31" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="AK31" s="5"/>
+      <c r="AL31" s="5"/>
+      <c r="AM31" s="5"/>
+      <c r="AN31" s="5"/>
+    </row>
+    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>264</v>
+      </c>
+      <c r="I32" t="s">
+        <v>19</v>
+      </c>
+      <c r="J32">
+        <v>0.02</v>
+      </c>
+      <c r="K32">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L32">
+        <v>267</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>19</v>
+      </c>
+      <c r="R32">
+        <v>0.06</v>
+      </c>
+      <c r="S32">
+        <v>0.24</v>
+      </c>
+      <c r="T32">
+        <v>382</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z32">
+        <v>0.04</v>
+      </c>
+      <c r="AA32">
+        <v>0.2</v>
+      </c>
+      <c r="AB32">
+        <v>570</v>
+      </c>
+      <c r="AG32" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH32" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="AI32" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="AJ32" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="AK32" s="5"/>
+      <c r="AL32" s="5"/>
+      <c r="AM32" s="5"/>
+      <c r="AN32" s="5"/>
+    </row>
+    <row r="33" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="7"/>
+      <c r="W33" s="7"/>
+      <c r="X33" s="7"/>
+      <c r="Y33" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z33" s="7"/>
+      <c r="AA33" s="7"/>
+      <c r="AB33" s="7"/>
+      <c r="AC33" s="7"/>
+      <c r="AD33" s="7"/>
+      <c r="AE33" s="7"/>
+      <c r="AF33" s="7"/>
+      <c r="AG33" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH33" s="22"/>
+      <c r="AI33" s="22"/>
+      <c r="AJ33" s="22"/>
+      <c r="AK33" s="22"/>
+      <c r="AL33" s="22"/>
+      <c r="AM33" s="22"/>
+      <c r="AN33" s="22"/>
+    </row>
+    <row r="34" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L34" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M34" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N34" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="O34" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="P34" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S34" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="T34" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U34" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="V34" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="W34" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="X34" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y34" s="9"/>
+      <c r="Z34" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA34" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB34" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC34" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD34" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="AE34" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF34" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="AG34" s="40"/>
+      <c r="AH34" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI34" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ34" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK34" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL34" s="40" t="s">
+        <v>335</v>
+      </c>
+      <c r="AM34" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN34" s="40" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="35" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" t="s">
+        <v>336</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>336</v>
+      </c>
+      <c r="D35" t="s">
+        <v>336</v>
+      </c>
+      <c r="E35" t="s">
+        <v>336</v>
+      </c>
+      <c r="F35" t="s">
+        <v>336</v>
+      </c>
+      <c r="G35" t="s">
+        <v>336</v>
+      </c>
+      <c r="H35" t="s">
+        <v>336</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J35" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="K35" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="L35" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="M35" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="N35" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="O35" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="P35" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q35" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="R35" s="18">
+        <v>-0.16</v>
+      </c>
+      <c r="S35" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="T35" s="18">
+        <v>-2.59</v>
+      </c>
+      <c r="U35" s="18">
+        <v>0.01</v>
+      </c>
+      <c r="V35" s="4">
+        <v>22</v>
+      </c>
+      <c r="W35" s="4">
+        <v>19</v>
+      </c>
+      <c r="X35" s="4">
+        <v>204</v>
+      </c>
+      <c r="Y35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z35" s="7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AA35" s="29" t="s">
+        <v>573</v>
+      </c>
+      <c r="AB35" s="7">
+        <v>1.05</v>
+      </c>
+      <c r="AC35" s="7">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AD35" s="5">
+        <v>14</v>
+      </c>
+      <c r="AE35">
+        <v>12</v>
+      </c>
+      <c r="AF35">
+        <v>84</v>
+      </c>
+      <c r="AG35" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH35" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AI35" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ35" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AK35" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AL35" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AM35" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AN35" s="23" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="36" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A36" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="G36" t="s">
+        <v>336</v>
+      </c>
+      <c r="H36" t="s">
+        <v>336</v>
+      </c>
+      <c r="I36" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="J36">
+        <v>-0.1</v>
+      </c>
+      <c r="K36" s="24" t="s">
+        <v>588</v>
+      </c>
+      <c r="L36">
+        <v>-1.34</v>
+      </c>
+      <c r="M36">
+        <v>0.18</v>
+      </c>
+      <c r="N36">
+        <v>93</v>
+      </c>
+      <c r="O36">
+        <v>13</v>
+      </c>
+      <c r="P36">
+        <v>93</v>
+      </c>
+      <c r="Q36" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="R36" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="S36" s="30" t="s">
+        <v>336</v>
+      </c>
+      <c r="T36" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="U36" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="V36" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="W36" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="X36" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y36" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z36" s="19">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AA36" s="33" t="s">
+        <v>574</v>
+      </c>
+      <c r="AB36" s="19">
+        <v>0.92</v>
+      </c>
+      <c r="AC36" s="19">
+        <v>0.36</v>
+      </c>
+      <c r="AD36" s="5">
+        <v>15</v>
+      </c>
+      <c r="AE36" s="5">
+        <v>13</v>
+      </c>
+      <c r="AF36">
+        <v>85</v>
+      </c>
+      <c r="AG36" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH36" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AI36" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ36" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AK36" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AL36" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AM36" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AN36" s="23" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="37" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A37" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" t="s">
+        <v>336</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>336</v>
+      </c>
+      <c r="D37" t="s">
+        <v>336</v>
+      </c>
+      <c r="E37" t="s">
+        <v>336</v>
+      </c>
+      <c r="F37" t="s">
+        <v>336</v>
+      </c>
+      <c r="G37" t="s">
+        <v>336</v>
+      </c>
+      <c r="H37" t="s">
+        <v>336</v>
+      </c>
+      <c r="I37" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="J37">
+        <v>-0.01</v>
+      </c>
+      <c r="K37" s="24" t="s">
+        <v>589</v>
+      </c>
+      <c r="L37">
+        <v>-0.19</v>
+      </c>
+      <c r="M37">
+        <v>0.85</v>
+      </c>
+      <c r="N37">
+        <v>174</v>
+      </c>
+      <c r="O37">
+        <v>12</v>
+      </c>
+      <c r="P37">
+        <v>174</v>
+      </c>
+      <c r="Q37" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="R37" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="S37" s="30" t="s">
+        <v>615</v>
+      </c>
+      <c r="T37" s="23">
+        <v>0.12</v>
+      </c>
+      <c r="U37" s="23">
+        <v>0.91</v>
+      </c>
+      <c r="V37" s="5">
+        <v>27</v>
+      </c>
+      <c r="W37" s="5">
+        <v>26</v>
+      </c>
+      <c r="X37" s="5">
+        <v>178</v>
+      </c>
+      <c r="Y37" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z37" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="AA37" s="33" t="s">
+        <v>512</v>
+      </c>
+      <c r="AB37" s="19">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AC37" s="19">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AD37" s="5">
+        <v>26</v>
+      </c>
+      <c r="AE37" s="5">
+        <v>26</v>
+      </c>
+      <c r="AF37">
+        <v>178</v>
+      </c>
+      <c r="AG37" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH37" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AI37" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ37" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AK37" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AL37" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AM37" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AN37" s="23" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="38" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A38" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="G38" t="s">
+        <v>336</v>
+      </c>
+      <c r="H38" t="s">
+        <v>336</v>
+      </c>
+      <c r="I38" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="J38" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="K38" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="L38" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="M38" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="N38" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="O38" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="P38" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q38" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="R38" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="S38" s="30" t="s">
+        <v>336</v>
+      </c>
+      <c r="T38" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="U38" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="V38" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="W38" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="X38" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y38" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z38" s="19">
+        <v>0.09</v>
+      </c>
+      <c r="AA38" s="33" t="s">
+        <v>575</v>
+      </c>
+      <c r="AB38" s="19">
+        <v>0.75</v>
+      </c>
+      <c r="AC38" s="19">
+        <v>0.45</v>
+      </c>
+      <c r="AD38" s="5">
+        <v>19</v>
+      </c>
+      <c r="AE38" s="5">
+        <v>16</v>
+      </c>
+      <c r="AF38">
+        <v>223</v>
+      </c>
+      <c r="AG38" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH38" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AI38" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ38" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AK38" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AL38" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AM38" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AN38" s="23" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="39" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A39" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="H39" t="s">
+        <v>336</v>
+      </c>
+      <c r="I39" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="J39" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="K39" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="L39" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="M39" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="N39" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="O39" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="P39" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q39" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="R39" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="S39" s="30" t="s">
+        <v>336</v>
+      </c>
+      <c r="T39" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="U39" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="V39" s="5">
+        <v>2</v>
+      </c>
+      <c r="W39" s="5">
+        <v>2</v>
+      </c>
+      <c r="X39" s="5">
+        <v>9</v>
+      </c>
+      <c r="Y39" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z39" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="AA39" s="33" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB39" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="AC39" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="AD39" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="AE39" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>336</v>
+      </c>
+      <c r="AG39" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH39" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AI39" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ39" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AK39" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AL39" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AM39" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AN39" s="23" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="40" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" s="20">
+        <v>0.06</v>
+      </c>
+      <c r="C40" s="31" t="s">
+        <v>620</v>
+      </c>
+      <c r="D40" s="20">
+        <v>1.8</v>
+      </c>
+      <c r="E40" s="20">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F40" s="20">
+        <v>21</v>
+      </c>
+      <c r="G40" s="20">
+        <v>76</v>
+      </c>
+      <c r="H40" s="20">
+        <v>234</v>
+      </c>
+      <c r="I40" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="J40" s="23">
+        <v>-0.04</v>
+      </c>
+      <c r="K40" s="30" t="s">
+        <v>590</v>
+      </c>
+      <c r="L40" s="23">
+        <v>-0.52</v>
+      </c>
+      <c r="M40" s="23">
+        <v>0.6</v>
+      </c>
+      <c r="N40" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="O40" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="P40" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q40" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="R40" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="S40" s="30" t="s">
+        <v>615</v>
+      </c>
+      <c r="T40" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="U40" s="23">
+        <v>0.92</v>
+      </c>
+      <c r="V40" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="W40" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="X40" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y40" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z40" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="AA40" s="33" t="s">
+        <v>576</v>
+      </c>
+      <c r="AB40" s="19">
+        <v>0.76</v>
+      </c>
+      <c r="AC40" s="19">
+        <v>0.45</v>
+      </c>
+      <c r="AD40" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AE40" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="AF40" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="AG40" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH40" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AI40" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ40" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AK40" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AL40" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AM40" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AN40" s="23" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="41" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A41" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="C41" s="37" t="s">
+        <v>336</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="F41" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="G41" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="H41" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="I41" s="13" t="s">
+        <v>583</v>
+      </c>
+      <c r="J41" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="K41" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="L41" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="M41" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="N41" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="O41" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="P41" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q41" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="R41" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="S41" s="37" t="s">
+        <v>336</v>
+      </c>
+      <c r="T41" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="U41" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="V41" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="W41" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="X41" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y41" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="Z41" s="5">
+        <v>-0.03</v>
+      </c>
+      <c r="AA41" s="25" t="s">
+        <v>577</v>
+      </c>
+      <c r="AB41" s="5">
+        <v>-0.23</v>
+      </c>
+      <c r="AC41" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="AD41" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AE41" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AF41" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AG41" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="AH41" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AI41" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ41" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AK41" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AL41" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AM41" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AN41" s="23" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="42" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A42" s="13" t="s">
+        <v>583</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="C42" s="37" t="s">
+        <v>336</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="F42" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="G42" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="H42" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="I42" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="J42" s="13">
+        <v>0.02</v>
+      </c>
+      <c r="K42" s="37" t="s">
+        <v>591</v>
+      </c>
+      <c r="L42" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="M42" s="13">
+        <v>0.84</v>
+      </c>
+      <c r="N42" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="O42" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="P42" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q42" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="R42" s="13">
+        <v>0.04</v>
+      </c>
+      <c r="S42" s="37" t="s">
+        <v>616</v>
+      </c>
+      <c r="T42" s="13">
+        <v>0.53</v>
+      </c>
+      <c r="U42" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="V42" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="W42" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="X42" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y42" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="Z42" s="5">
+        <v>-0.05</v>
+      </c>
+      <c r="AA42" s="37" t="s">
+        <v>578</v>
+      </c>
+      <c r="AB42" s="5">
+        <v>-0.53</v>
+      </c>
+      <c r="AC42" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="AD42" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AE42" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AF42" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AG42" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="AH42" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AI42" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ42" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AK42" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AL42" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AM42" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AN42" s="23" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="43" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A43" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="C43" s="37" t="s">
+        <v>336</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="F43" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="G43" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="H43" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="I43" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="J43" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="K43" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="L43" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="M43" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="N43" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="O43" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="P43" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q43" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="R43" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="S43" s="37" t="s">
+        <v>336</v>
+      </c>
+      <c r="T43" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="U43" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="V43" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="W43" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="X43" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y43" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="Z43" s="5">
+        <v>-0.01</v>
+      </c>
+      <c r="AA43" s="37" t="s">
+        <v>579</v>
+      </c>
+      <c r="AB43" s="5">
+        <v>-0.08</v>
+      </c>
+      <c r="AC43" s="5">
+        <v>0.93</v>
+      </c>
+      <c r="AD43" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AE43" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AF43" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AG43" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="AH43" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AI43" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ43" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AK43" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AL43" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AM43" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AN43" s="23" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="44" spans="1:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>336</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="G44" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="H44" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="I44" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="J44" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="K44" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="L44" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="M44" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="N44" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="O44" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="P44" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q44" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="R44" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="S44" s="26" t="s">
+        <v>336</v>
+      </c>
+      <c r="T44" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="U44" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="V44" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="W44" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="X44" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y44" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="Z44" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="AA44" s="26" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB44" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="AC44" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="AD44" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="AE44" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="AF44" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="AG44" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="AH44" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="AI44" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ44" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="AK44" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="AL44" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="AM44" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="AN44" s="15" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="45" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="46" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="49" spans="1:40" ht="19" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B49" s="1"/>
+    </row>
+    <row r="50" spans="1:40" s="19" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>547</v>
+      </c>
+      <c r="B50"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="45"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="45"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="45"/>
+      <c r="K50" s="45"/>
+      <c r="L50" s="45"/>
+      <c r="M50" s="45"/>
+      <c r="N50" s="45"/>
+      <c r="O50" s="45"/>
+      <c r="P50" s="45"/>
+      <c r="Q50" s="42"/>
+      <c r="R50" s="45"/>
+      <c r="S50" s="45"/>
+      <c r="T50" s="45"/>
+      <c r="U50" s="45"/>
+      <c r="V50" s="45"/>
+      <c r="W50" s="45"/>
+      <c r="X50" s="45"/>
+      <c r="Y50" s="42"/>
+      <c r="Z50" s="45"/>
+      <c r="AA50" s="45"/>
+      <c r="AB50" s="45"/>
+      <c r="AC50" s="45"/>
+      <c r="AD50" s="45"/>
+      <c r="AE50" s="45"/>
+      <c r="AF50" s="45"/>
+      <c r="AG50" s="42"/>
+      <c r="AH50" s="45"/>
+      <c r="AI50" s="45"/>
+      <c r="AJ50" s="45"/>
+      <c r="AK50" s="45"/>
+      <c r="AL50" s="45"/>
+      <c r="AM50" s="45"/>
+      <c r="AN50" s="45"/>
+    </row>
+    <row r="51" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>33</v>
+      </c>
+      <c r="B51"/>
+      <c r="I51" s="20"/>
+      <c r="Q51" s="20"/>
+      <c r="Y51" s="20"/>
+      <c r="AG51" s="20"/>
+    </row>
+    <row r="52" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="21" t="s">
+        <v>450</v>
+      </c>
+      <c r="B52"/>
+      <c r="I52" s="23"/>
+      <c r="Q52" s="23"/>
+      <c r="Y52" s="23"/>
+      <c r="AG52" s="23"/>
+    </row>
+    <row r="53" spans="1:40" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="10"/>
+      <c r="Q53" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R53" s="10"/>
+      <c r="S53" s="10"/>
+      <c r="T53" s="10"/>
+      <c r="U53" s="10"/>
+      <c r="V53" s="10"/>
+      <c r="W53" s="10"/>
+      <c r="X53" s="10"/>
+      <c r="Y53" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z53" s="10"/>
+      <c r="AA53" s="10"/>
+      <c r="AB53" s="10"/>
+      <c r="AC53" s="10"/>
+      <c r="AD53" s="10"/>
+      <c r="AE53" s="10"/>
+      <c r="AF53" s="10"/>
+      <c r="AG53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH53" s="10"/>
+      <c r="AI53" s="10"/>
+      <c r="AJ53" s="10"/>
+      <c r="AK53" s="10"/>
+      <c r="AL53" s="10"/>
+      <c r="AM53" s="10"/>
+      <c r="AN53" s="10"/>
+    </row>
+    <row r="54" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q54" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y54" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG54" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" s="5">
+        <v>1594.62</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J55" s="5">
+        <v>803.02</v>
+      </c>
+      <c r="K55" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q55" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R55" s="5">
+        <v>1590.2</v>
+      </c>
+      <c r="S55" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y55" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z55" s="5">
+        <v>1755.79</v>
+      </c>
+      <c r="AA55" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG55" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH55" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="AI55" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="56" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J56" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="Q56" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="R56" s="5">
+        <v>3.65</v>
+      </c>
+      <c r="S56" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="Y56" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z56" s="5">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="AA56" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG56" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH56" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="AI56" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="57" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J57" s="22"/>
+      <c r="K57" s="22"/>
+      <c r="L57" s="22"/>
+      <c r="M57" s="22"/>
+      <c r="N57" s="22"/>
+      <c r="O57" s="22"/>
+      <c r="P57" s="22"/>
+      <c r="Q57" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="R57" s="22"/>
+      <c r="S57" s="22"/>
+      <c r="T57" s="22"/>
+      <c r="U57" s="22"/>
+      <c r="V57" s="22"/>
+      <c r="W57" s="22"/>
+      <c r="X57" s="22"/>
+      <c r="Y57" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z57" s="22"/>
+      <c r="AA57" s="22"/>
+      <c r="AB57" s="22"/>
+      <c r="AC57" s="22"/>
+      <c r="AD57" s="22"/>
+      <c r="AE57" s="22"/>
+      <c r="AF57" s="22"/>
+      <c r="AG57" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH57" s="22"/>
+      <c r="AI57" s="22"/>
+      <c r="AJ57" s="22"/>
+      <c r="AK57" s="22"/>
+      <c r="AL57" s="22"/>
+      <c r="AM57" s="22"/>
+      <c r="AN57" s="22"/>
+    </row>
+    <row r="58" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="8"/>
+      <c r="B58" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="E58" s="40"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="40"/>
+      <c r="H58" s="40"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="K58" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="L58" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="M58" s="40"/>
+      <c r="N58" s="40"/>
+      <c r="O58" s="40"/>
+      <c r="P58" s="40"/>
+      <c r="Q58" s="8"/>
+      <c r="R58" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="S58" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="T58" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="U58" s="40"/>
+      <c r="V58" s="40"/>
+      <c r="W58" s="40"/>
+      <c r="X58" s="40"/>
+      <c r="Y58" s="8"/>
+      <c r="Z58" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA58" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB58" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC58" s="40"/>
+      <c r="AD58" s="40"/>
+      <c r="AE58" s="40"/>
+      <c r="AF58" s="40"/>
+      <c r="AG58" s="8"/>
+      <c r="AH58" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI58" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ58" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK58" s="40"/>
+      <c r="AL58" s="40"/>
+      <c r="AM58" s="40"/>
+      <c r="AN58" s="40"/>
+    </row>
+    <row r="59" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59" s="5">
+        <v>1.7</v>
+      </c>
+      <c r="C59" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="D59" s="5">
+        <v>24</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J59" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="K59" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="L59" s="5">
+        <v>36</v>
+      </c>
+      <c r="Q59" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R59" s="5">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="S59" s="5">
+        <v>1.06</v>
+      </c>
+      <c r="T59" s="5">
+        <v>37</v>
+      </c>
+      <c r="Y59" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z59" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="AA59" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AB59" s="5">
+        <v>55</v>
+      </c>
+      <c r="AG59" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH59" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="AI59" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="AJ59" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="60" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B60" s="5">
+        <v>0</v>
+      </c>
+      <c r="C60" s="5">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D60" s="5">
+        <v>96</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="J60" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="K60" s="5">
+        <v>0.37</v>
+      </c>
+      <c r="L60" s="5">
+        <v>20</v>
+      </c>
+      <c r="Q60" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="R60" s="5">
+        <v>0</v>
+      </c>
+      <c r="S60" s="5">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="T60" s="5">
+        <v>34</v>
+      </c>
+      <c r="Y60" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="Z60" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AB60" s="5">
+        <v>40</v>
+      </c>
+      <c r="AG60" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="AH60" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="AI60" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="AJ60" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="61" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B61" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C61" s="5">
+        <v>0.26</v>
+      </c>
+      <c r="D61" s="5">
+        <v>264</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J61" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="K61" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="L61" s="5">
+        <v>267</v>
+      </c>
+      <c r="Q61" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="R61" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="S61" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="T61" s="5">
+        <v>382</v>
+      </c>
+      <c r="Y61" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z61" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="AA61" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="AB61" s="5">
+        <v>570</v>
+      </c>
+      <c r="AG61" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH61" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="AI61" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="AJ61" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="AN61" s="40"/>
+    </row>
+    <row r="62" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J62" s="22"/>
+      <c r="K62" s="22"/>
+      <c r="L62" s="22"/>
+      <c r="M62" s="22"/>
+      <c r="N62" s="22"/>
+      <c r="O62" s="22"/>
+      <c r="P62" s="22"/>
+      <c r="Q62" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="R62" s="22"/>
+      <c r="S62" s="22"/>
+      <c r="T62" s="22"/>
+      <c r="U62" s="22"/>
+      <c r="V62" s="22"/>
+      <c r="W62" s="22"/>
+      <c r="X62" s="22"/>
+      <c r="Y62" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z62" s="22"/>
+      <c r="AA62" s="22"/>
+      <c r="AB62" s="22"/>
+      <c r="AC62" s="22"/>
+      <c r="AD62" s="22"/>
+      <c r="AE62" s="22"/>
+      <c r="AF62" s="22"/>
+      <c r="AG62" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH62" s="22"/>
+      <c r="AI62" s="22"/>
+      <c r="AJ62" s="22"/>
+      <c r="AK62" s="22"/>
+      <c r="AL62" s="22"/>
+      <c r="AM62" s="22"/>
+    </row>
+    <row r="63" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="40"/>
+      <c r="B63" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E63" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F63" s="40" t="s">
+        <v>335</v>
+      </c>
+      <c r="G63" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="H63" s="40" t="s">
+        <v>334</v>
+      </c>
+      <c r="I63" s="40"/>
+      <c r="J63" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="K63" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="L63" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M63" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="N63" s="40" t="s">
+        <v>335</v>
+      </c>
+      <c r="O63" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="P63" s="40" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q63" s="40"/>
+      <c r="R63" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="S63" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="T63" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U63" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="V63" s="40" t="s">
+        <v>335</v>
+      </c>
+      <c r="W63" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="X63" s="40" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y63" s="40"/>
+      <c r="Z63" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA63" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB63" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC63" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD63" s="40" t="s">
+        <v>335</v>
+      </c>
+      <c r="AE63" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF63" s="40" t="s">
+        <v>334</v>
+      </c>
+      <c r="AG63" s="40"/>
+      <c r="AH63" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI63" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ63" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK63" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL63" s="40" t="s">
+        <v>335</v>
+      </c>
+      <c r="AM63" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN63" s="40" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="64" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C64" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="I64" t="s">
+        <v>40</v>
+      </c>
+      <c r="J64" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="K64" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="L64" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="M64" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="N64" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="O64" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="P64" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q64" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="R64" s="5">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="S64" s="25" t="s">
+        <v>603</v>
+      </c>
+      <c r="T64" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="U64" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="V64" s="5">
+        <v>22</v>
+      </c>
+      <c r="W64" s="5">
+        <v>19</v>
+      </c>
+      <c r="X64" s="5">
+        <v>204</v>
+      </c>
+      <c r="Y64" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z64" s="4">
+        <v>0.27</v>
+      </c>
+      <c r="AA64" s="27" t="s">
+        <v>548</v>
+      </c>
+      <c r="AB64" s="4">
+        <v>1.95</v>
+      </c>
+      <c r="AC64" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="AD64" s="4">
+        <v>14</v>
+      </c>
+      <c r="AE64" s="4">
+        <v>12</v>
+      </c>
+      <c r="AF64" s="4">
+        <v>84</v>
+      </c>
+      <c r="AG64" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH64" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AI64" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ64" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AK64" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AL64" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AM64" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AN64" s="23" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="65" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C65" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="I65" t="s">
+        <v>41</v>
+      </c>
+      <c r="J65">
+        <v>-0.12</v>
+      </c>
+      <c r="K65" s="24" t="s">
+        <v>592</v>
+      </c>
+      <c r="L65">
+        <v>-0.44</v>
+      </c>
+      <c r="M65">
+        <v>0.66</v>
+      </c>
+      <c r="N65">
+        <v>93</v>
+      </c>
+      <c r="O65">
+        <v>13</v>
+      </c>
+      <c r="P65">
+        <v>93</v>
+      </c>
+      <c r="Q65" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="R65" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="S65" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="T65" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="U65" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="V65" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="W65" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="X65" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y65" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z65" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="AA65" s="25" t="s">
+        <v>549</v>
+      </c>
+      <c r="AB65" s="5">
+        <v>1.25</v>
+      </c>
+      <c r="AC65" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="AD65" s="5">
+        <v>15</v>
+      </c>
+      <c r="AE65" s="5">
+        <v>13</v>
+      </c>
+      <c r="AF65" s="5">
+        <v>85</v>
+      </c>
+      <c r="AG65" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH65" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AI65" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ65" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AK65" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AL65" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AM65" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AN65" s="23" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="66" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C66" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="I66" t="s">
+        <v>42</v>
+      </c>
+      <c r="J66">
+        <v>-0.04</v>
+      </c>
+      <c r="K66" s="24" t="s">
+        <v>593</v>
+      </c>
+      <c r="L66">
+        <v>-0.13</v>
+      </c>
+      <c r="M66">
+        <v>0.9</v>
+      </c>
+      <c r="N66">
+        <v>174</v>
+      </c>
+      <c r="O66">
+        <v>12</v>
+      </c>
+      <c r="P66">
+        <v>174</v>
+      </c>
+      <c r="Q66" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R66" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="S66" s="25" t="s">
+        <v>604</v>
+      </c>
+      <c r="T66" s="5">
+        <v>1.46</v>
+      </c>
+      <c r="U66" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="V66" s="5">
+        <v>27</v>
+      </c>
+      <c r="W66" s="5">
+        <v>26</v>
+      </c>
+      <c r="X66" s="5">
+        <v>178</v>
+      </c>
+      <c r="Y66" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z66" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="AA66" s="25" t="s">
+        <v>550</v>
+      </c>
+      <c r="AB66" s="5">
+        <v>1.26</v>
+      </c>
+      <c r="AC66" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="AD66" s="5">
+        <v>26</v>
+      </c>
+      <c r="AE66" s="5">
+        <v>26</v>
+      </c>
+      <c r="AF66" s="5">
+        <v>178</v>
+      </c>
+      <c r="AG66" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH66" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AI66" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ66" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AK66" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AL66" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AM66" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AN66" s="23" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="67" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C67" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J67" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="K67" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="L67" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="M67" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="N67" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="O67" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="P67" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q67" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R67" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="S67" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="T67" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="U67" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="V67" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="W67" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="X67" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y67" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z67" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="AA67" s="25" t="s">
+        <v>551</v>
+      </c>
+      <c r="AB67" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="AC67" s="5">
+        <v>0.94</v>
+      </c>
+      <c r="AD67" s="5">
+        <v>19</v>
+      </c>
+      <c r="AE67" s="5">
+        <v>16</v>
+      </c>
+      <c r="AF67" s="5">
+        <v>223</v>
+      </c>
+      <c r="AG67" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH67" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AI67" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ67" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AK67" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AL67" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AM67" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AN67" s="23" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="68" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C68" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J68" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="K68" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="L68" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="M68" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="N68" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="O68" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="P68" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q68" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="R68" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="S68" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="T68" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="U68" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="V68" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="W68" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="X68" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y68" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z68" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="AA68" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB68" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="AC68" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="AD68" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="AE68" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="AF68" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="AG68" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH68" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AI68" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ68" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AK68" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AL68" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AM68" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AN68" s="23" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="69" spans="1:40" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B69" s="23">
+        <v>-0.17</v>
+      </c>
+      <c r="C69" s="30" t="s">
+        <v>617</v>
+      </c>
+      <c r="D69" s="23">
+        <v>-0.63</v>
+      </c>
+      <c r="E69" s="23">
+        <v>0.53</v>
+      </c>
+      <c r="F69" s="23">
+        <v>21</v>
+      </c>
+      <c r="G69" s="23">
+        <v>76</v>
+      </c>
+      <c r="H69" s="23">
+        <v>234</v>
+      </c>
+      <c r="I69" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="J69" s="23">
+        <v>0.26</v>
+      </c>
+      <c r="K69" s="30" t="s">
+        <v>594</v>
+      </c>
+      <c r="L69" s="23">
+        <v>0.52</v>
+      </c>
+      <c r="M69" s="23">
+        <v>0.6</v>
+      </c>
+      <c r="N69" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="O69" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="P69" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q69" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="R69" s="23">
+        <v>-0.85</v>
+      </c>
+      <c r="S69" s="30" t="s">
+        <v>605</v>
+      </c>
+      <c r="T69" s="23">
+        <v>-1.43</v>
+      </c>
+      <c r="U69" s="23">
+        <v>0.15</v>
+      </c>
+      <c r="V69" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="W69" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="X69" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y69" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z69" s="20">
+        <v>-1.98</v>
+      </c>
+      <c r="AA69" s="31" t="s">
+        <v>552</v>
+      </c>
+      <c r="AB69" s="20">
+        <v>-4.26</v>
+      </c>
+      <c r="AC69" s="20" t="s">
+        <v>389</v>
+      </c>
+      <c r="AD69" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="AE69" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="AF69" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="AG69" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH69" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AI69" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ69" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AK69" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AL69" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AM69" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AN69" s="23" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="70" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="C70" s="37" t="s">
+        <v>336</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="F70" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="G70" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="H70" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="I70" s="13" t="s">
+        <v>583</v>
+      </c>
+      <c r="J70" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="K70" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="L70" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="M70" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="N70" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="O70" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="P70" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q70" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="R70" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="S70" s="37" t="s">
+        <v>336</v>
+      </c>
+      <c r="T70" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="U70" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="V70" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="W70" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="X70" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y70" s="38" t="s">
+        <v>343</v>
+      </c>
+      <c r="Z70" s="4">
+        <v>3.49</v>
+      </c>
+      <c r="AA70" s="27" t="s">
+        <v>553</v>
+      </c>
+      <c r="AB70" s="4">
+        <v>4.99</v>
+      </c>
+      <c r="AC70" s="20" t="s">
+        <v>389</v>
+      </c>
+      <c r="AD70" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="AE70" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="AF70" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="AG70" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="AH70" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AI70" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ70" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AK70" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AL70" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AM70" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AN70" s="23" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="71" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="13" t="s">
+        <v>583</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="C71" s="37" t="s">
+        <v>336</v>
+      </c>
+      <c r="D71" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="F71" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="G71" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="H71" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="I71" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="J71" s="13">
+        <v>-0.37</v>
+      </c>
+      <c r="K71" s="37" t="s">
+        <v>595</v>
+      </c>
+      <c r="L71" s="13">
+        <v>-0.69</v>
+      </c>
+      <c r="M71" s="13">
+        <v>0.49</v>
+      </c>
+      <c r="N71" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="O71" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="P71" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q71" s="38" t="s">
+        <v>344</v>
+      </c>
+      <c r="R71" s="38">
+        <v>1.07</v>
+      </c>
+      <c r="S71" s="44" t="s">
+        <v>606</v>
+      </c>
+      <c r="T71" s="38">
+        <v>2.56</v>
+      </c>
+      <c r="U71" s="38">
+        <v>0.01</v>
+      </c>
+      <c r="V71" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="W71" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="X71" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y71" s="38" t="s">
+        <v>344</v>
+      </c>
+      <c r="Z71" s="4">
+        <v>1.94</v>
+      </c>
+      <c r="AA71" s="44" t="s">
+        <v>554</v>
+      </c>
+      <c r="AB71" s="4">
+        <v>3.86</v>
+      </c>
+      <c r="AC71" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="AD71" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="AE71" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="AF71" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="AG71" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="AH71" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AI71" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ71" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AK71" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AL71" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AM71" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AN71" s="23" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="72" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="C72" s="37" t="s">
+        <v>336</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="F72" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="G72" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="H72" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="I72" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="J72" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="K72" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="L72" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="M72" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="N72" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="O72" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="P72" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q72" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="R72" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="S72" s="37" t="s">
+        <v>336</v>
+      </c>
+      <c r="T72" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="U72" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="V72" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="W72" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="X72" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y72" s="38" t="s">
+        <v>345</v>
+      </c>
+      <c r="Z72" s="4">
+        <v>1.94</v>
+      </c>
+      <c r="AA72" s="44" t="s">
+        <v>555</v>
+      </c>
+      <c r="AB72" s="4">
+        <v>3.82</v>
+      </c>
+      <c r="AC72" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="AD72" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="AE72" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="AF72" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="AG72" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="AH72" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AI72" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ72" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AK72" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AL72" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AM72" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AN72" s="23" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="73" spans="1:40" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="C73" s="26" t="s">
+        <v>336</v>
+      </c>
+      <c r="D73" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="E73" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="F73" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="G73" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="H73" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="I73" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="J73" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="K73" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="L73" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="M73" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="N73" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="O73" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="P73" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q73" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="R73" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="S73" s="26" t="s">
+        <v>336</v>
+      </c>
+      <c r="T73" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="U73" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="V73" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="W73" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="X73" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y73" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="Z73" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="AA73" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB73" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="AC73" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="AD73" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="AE73" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="AF73" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="AG73" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="AH73" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="AI73" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ73" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="AK73" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="AL73" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="AM73" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="AN73" s="15" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="74" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A74" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q74" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y74" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG74" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" s="5">
+        <v>261.23</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J75" s="5">
+        <v>315.08</v>
+      </c>
+      <c r="K75" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="Q75" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R75" s="5">
+        <v>1000.22</v>
+      </c>
+      <c r="S75" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y75" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z75" s="5">
+        <v>916.28</v>
+      </c>
+      <c r="AA75" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG75" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH75" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="AI75" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="76" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J76" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="K76" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="Q76" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="R76" s="5">
+        <v>2.84</v>
+      </c>
+      <c r="S76" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="Y76" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z76" s="5">
+        <v>0.31</v>
+      </c>
+      <c r="AA76" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="AG76" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH76" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="AI76" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="77" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B77" s="22"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="22"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="22"/>
+      <c r="I77" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J77" s="22"/>
+      <c r="K77" s="22"/>
+      <c r="L77" s="22"/>
+      <c r="M77" s="22"/>
+      <c r="N77" s="22"/>
+      <c r="O77" s="22"/>
+      <c r="P77" s="22"/>
+      <c r="Q77" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="R77" s="22"/>
+      <c r="S77" s="22"/>
+      <c r="T77" s="22"/>
+      <c r="U77" s="22"/>
+      <c r="V77" s="22"/>
+      <c r="W77" s="22"/>
+      <c r="X77" s="22"/>
+      <c r="Y77" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z77" s="22"/>
+      <c r="AA77" s="22"/>
+      <c r="AB77" s="22"/>
+      <c r="AC77" s="22"/>
+      <c r="AD77" s="22"/>
+      <c r="AE77" s="22"/>
+      <c r="AF77" s="22"/>
+      <c r="AG77" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH77" s="22"/>
+      <c r="AI77" s="22"/>
+      <c r="AJ77" s="22"/>
+      <c r="AK77" s="22"/>
+      <c r="AL77" s="22"/>
+      <c r="AM77" s="22"/>
+      <c r="AN77" s="22"/>
+    </row>
+    <row r="78" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="8"/>
+      <c r="B78" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="E78" s="40"/>
+      <c r="F78" s="40"/>
+      <c r="G78" s="40"/>
+      <c r="H78" s="40"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="K78" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="L78" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="M78" s="40"/>
+      <c r="N78" s="40"/>
+      <c r="O78" s="40"/>
+      <c r="P78" s="40"/>
+      <c r="Q78" s="8"/>
+      <c r="R78" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="S78" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="T78" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="U78" s="40"/>
+      <c r="V78" s="40"/>
+      <c r="W78" s="40"/>
+      <c r="X78" s="40"/>
+      <c r="Y78" s="8"/>
+      <c r="Z78" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA78" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB78" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC78" s="40"/>
+      <c r="AD78" s="40"/>
+      <c r="AE78" s="40"/>
+      <c r="AF78" s="40"/>
+      <c r="AG78" s="8"/>
+      <c r="AH78" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI78" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ78" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK78" s="40"/>
+      <c r="AL78" s="40"/>
+      <c r="AM78" s="40"/>
+      <c r="AN78" s="40"/>
+    </row>
+    <row r="79" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B79" s="5">
+        <v>0</v>
+      </c>
+      <c r="C79" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="D79" s="5">
+        <v>24</v>
+      </c>
+      <c r="I79" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J79" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="K79" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="L79" s="5">
+        <v>36</v>
+      </c>
+      <c r="Q79" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R79" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="S79" s="5">
+        <v>0.26</v>
+      </c>
+      <c r="T79" s="5">
+        <v>37</v>
+      </c>
+      <c r="Y79" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z79" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="AA79" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AB79" s="5">
+        <v>55</v>
+      </c>
+      <c r="AG79" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH79" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="AI79" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="AJ79" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="80" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B80" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C80" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="D80" s="5">
+        <v>96</v>
+      </c>
+      <c r="I80" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="J80" s="5">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="K80" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="L80" s="5">
+        <v>20</v>
+      </c>
+      <c r="Q80" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="R80" s="5">
+        <v>0</v>
+      </c>
+      <c r="S80" s="5">
+        <v>2E-3</v>
+      </c>
+      <c r="T80" s="5">
+        <v>34</v>
+      </c>
+      <c r="Y80" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="Z80" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="AA80" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="AB80" s="5">
+        <v>40</v>
+      </c>
+      <c r="AG80" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="AH80" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="AI80" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="AJ80" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="81" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B81" s="5">
+        <v>0</v>
+      </c>
+      <c r="C81" s="5">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="D81" s="5">
+        <v>264</v>
+      </c>
+      <c r="I81" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J81" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="K81" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L81" s="5">
+        <v>267</v>
+      </c>
+      <c r="Q81" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="R81" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="S81" s="5">
+        <v>0.24</v>
+      </c>
+      <c r="T81" s="5">
+        <v>382</v>
+      </c>
+      <c r="Y81" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z81" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="AA81" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AB81" s="5">
+        <v>570</v>
+      </c>
+      <c r="AG81" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH81" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="AI81" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="AJ81" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="82" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B82" s="22"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="22"/>
+      <c r="F82" s="22"/>
+      <c r="G82" s="22"/>
+      <c r="H82" s="22"/>
+      <c r="I82" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J82" s="22"/>
+      <c r="K82" s="22"/>
+      <c r="L82" s="22"/>
+      <c r="M82" s="22"/>
+      <c r="N82" s="22"/>
+      <c r="O82" s="22"/>
+      <c r="P82" s="22"/>
+      <c r="Q82" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="R82" s="22"/>
+      <c r="S82" s="22"/>
+      <c r="T82" s="22"/>
+      <c r="U82" s="22"/>
+      <c r="V82" s="22"/>
+      <c r="W82" s="22"/>
+      <c r="X82" s="22"/>
+      <c r="Y82" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z82" s="22"/>
+      <c r="AA82" s="22"/>
+      <c r="AB82" s="22"/>
+      <c r="AC82" s="22"/>
+      <c r="AD82" s="22"/>
+      <c r="AE82" s="22"/>
+      <c r="AF82" s="22"/>
+      <c r="AG82" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH82" s="22"/>
+      <c r="AI82" s="22"/>
+      <c r="AJ82" s="22"/>
+      <c r="AK82" s="22"/>
+      <c r="AL82" s="22"/>
+      <c r="AM82" s="22"/>
+      <c r="AN82" s="22"/>
+    </row>
+    <row r="83" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="40"/>
+      <c r="B83" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E83" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F83" s="40" t="s">
+        <v>335</v>
+      </c>
+      <c r="G83" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="H83" s="40" t="s">
+        <v>334</v>
+      </c>
+      <c r="I83" s="40"/>
+      <c r="J83" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="K83" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="L83" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M83" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="N83" s="40" t="s">
+        <v>335</v>
+      </c>
+      <c r="O83" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="P83" s="40" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q83" s="40"/>
+      <c r="R83" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="S83" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="T83" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U83" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="V83" s="40" t="s">
+        <v>335</v>
+      </c>
+      <c r="W83" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="X83" s="40" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y83" s="40"/>
+      <c r="Z83" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA83" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB83" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC83" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD83" s="40" t="s">
+        <v>335</v>
+      </c>
+      <c r="AE83" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF83" s="40" t="s">
+        <v>334</v>
+      </c>
+      <c r="AG83" s="40"/>
+      <c r="AH83" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI83" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ83" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK83" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL83" s="40" t="s">
+        <v>335</v>
+      </c>
+      <c r="AM83" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN83" s="40" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="84" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C84" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="I84" t="s">
+        <v>40</v>
+      </c>
+      <c r="J84" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="K84" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="L84" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="M84" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="N84" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="O84" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="P84" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q84" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="R84" s="18">
+        <v>-0.16</v>
+      </c>
+      <c r="S84" s="39" t="s">
+        <v>607</v>
+      </c>
+      <c r="T84" s="18">
+        <v>-2.21</v>
+      </c>
+      <c r="U84" s="18">
+        <v>0.03</v>
+      </c>
+      <c r="V84" s="4">
+        <v>22</v>
+      </c>
+      <c r="W84" s="4">
+        <v>19</v>
+      </c>
+      <c r="X84" s="4">
+        <v>204</v>
+      </c>
+      <c r="Y84" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z84" s="22">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AA84" s="32" t="s">
+        <v>557</v>
+      </c>
+      <c r="AB84" s="22">
+        <v>0.48</v>
+      </c>
+      <c r="AC84" s="22">
+        <v>0.63</v>
+      </c>
+      <c r="AD84" s="5">
+        <v>14</v>
+      </c>
+      <c r="AE84" s="5">
+        <v>12</v>
+      </c>
+      <c r="AF84" s="5">
+        <v>84</v>
+      </c>
+      <c r="AG84" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH84" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AI84" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ84" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AK84" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AL84" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AM84" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AN84" s="23" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="85" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C85" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="H85" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="I85" t="s">
+        <v>41</v>
+      </c>
+      <c r="J85">
+        <v>-0.11</v>
+      </c>
+      <c r="K85" s="24" t="s">
+        <v>598</v>
+      </c>
+      <c r="L85">
+        <v>-1.58</v>
+      </c>
+      <c r="M85">
+        <v>0.12</v>
+      </c>
+      <c r="N85">
+        <v>93</v>
+      </c>
+      <c r="O85">
+        <v>13</v>
+      </c>
+      <c r="P85">
+        <v>93</v>
+      </c>
+      <c r="Q85" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="R85" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="S85" s="30" t="s">
+        <v>336</v>
+      </c>
+      <c r="T85" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="U85" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="V85" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="W85" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="X85" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y85" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z85" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="AA85" s="30" t="s">
+        <v>558</v>
+      </c>
+      <c r="AB85" s="23">
+        <v>0.73</v>
+      </c>
+      <c r="AC85" s="23">
+        <v>0.46</v>
+      </c>
+      <c r="AD85" s="5">
+        <v>15</v>
+      </c>
+      <c r="AE85" s="5">
+        <v>13</v>
+      </c>
+      <c r="AF85" s="5">
+        <v>85</v>
+      </c>
+      <c r="AG85" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH85" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AI85" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ85" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AK85" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AL85" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AM85" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AN85" s="23" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="86" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C86" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="H86" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="I86" t="s">
+        <v>42</v>
+      </c>
+      <c r="J86">
+        <v>-0.02</v>
+      </c>
+      <c r="K86" s="24" t="s">
+        <v>599</v>
+      </c>
+      <c r="L86">
+        <v>-0.27</v>
+      </c>
+      <c r="M86">
+        <v>0.79</v>
+      </c>
+      <c r="N86">
+        <v>174</v>
+      </c>
+      <c r="O86">
+        <v>12</v>
+      </c>
+      <c r="P86">
+        <v>174</v>
+      </c>
+      <c r="Q86" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="R86" s="23">
+        <v>0.04</v>
+      </c>
+      <c r="S86" s="30" t="s">
+        <v>608</v>
+      </c>
+      <c r="T86" s="23">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="U86" s="23">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="V86" s="5">
+        <v>27</v>
+      </c>
+      <c r="W86" s="5">
+        <v>26</v>
+      </c>
+      <c r="X86" s="5">
+        <v>178</v>
+      </c>
+      <c r="Y86" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z86" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="AA86" s="30" t="s">
+        <v>559</v>
+      </c>
+      <c r="AB86" s="23">
+        <v>0.35</v>
+      </c>
+      <c r="AC86" s="23">
+        <v>0.72</v>
+      </c>
+      <c r="AD86" s="5">
+        <v>26</v>
+      </c>
+      <c r="AE86" s="5">
+        <v>26</v>
+      </c>
+      <c r="AF86" s="5">
+        <v>178</v>
+      </c>
+      <c r="AG86" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH86" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AI86" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ86" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AK86" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AL86" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AM86" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AN86" s="23" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="87" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C87" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="H87" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="I87" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J87" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="K87" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="L87" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="M87" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="N87" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="O87" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="P87" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q87" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="R87" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="S87" s="30" t="s">
+        <v>336</v>
+      </c>
+      <c r="T87" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="U87" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="V87" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="W87" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="X87" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y87" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z87" s="23">
+        <v>0.03</v>
+      </c>
+      <c r="AA87" s="30" t="s">
+        <v>560</v>
+      </c>
+      <c r="AB87" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="AC87" s="23">
+        <v>0.8</v>
+      </c>
+      <c r="AD87" s="5">
+        <v>19</v>
+      </c>
+      <c r="AE87" s="5">
+        <v>16</v>
+      </c>
+      <c r="AF87" s="5">
+        <v>223</v>
+      </c>
+      <c r="AG87" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH87" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AI87" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ87" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AK87" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AL87" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AM87" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AN87" s="23" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="88" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C88" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="I88" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J88" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="K88" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="L88" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="M88" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="N88" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="O88" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="P88" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q88" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="R88" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="S88" s="30" t="s">
+        <v>336</v>
+      </c>
+      <c r="T88" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="U88" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="V88" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="W88" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="X88" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y88" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z88" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AA88" s="37" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB88" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="AC88" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="AD88" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="AE88" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="AF88" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="AG88" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH88" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AI88" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ88" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AK88" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AL88" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AM88" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AN88" s="23" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="89" spans="1:40" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="20" t="s">
+        <v>623</v>
+      </c>
+      <c r="B89" s="20">
+        <v>0.06</v>
+      </c>
+      <c r="C89" s="31" t="s">
+        <v>622</v>
+      </c>
+      <c r="D89" s="20">
+        <v>1.8</v>
+      </c>
+      <c r="E89" s="20">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F89" s="20">
+        <v>21</v>
+      </c>
+      <c r="G89" s="20">
+        <v>76</v>
+      </c>
+      <c r="H89" s="20">
+        <v>234</v>
+      </c>
+      <c r="I89" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="J89" s="23">
+        <v>-0.19</v>
+      </c>
+      <c r="K89" s="30" t="s">
+        <v>600</v>
+      </c>
+      <c r="L89" s="23">
+        <v>-0.52</v>
+      </c>
+      <c r="M89" s="23">
+        <v>0.6</v>
+      </c>
+      <c r="N89" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="O89" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="P89" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q89" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="R89" s="23">
+        <v>0.03</v>
+      </c>
+      <c r="S89" s="30" t="s">
+        <v>609</v>
+      </c>
+      <c r="T89" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="U89" s="23">
+        <v>0.92</v>
+      </c>
+      <c r="V89" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="W89" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="X89" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y89" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z89" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="AA89" s="30" t="s">
+        <v>561</v>
+      </c>
+      <c r="AB89" s="23">
+        <v>0.76</v>
+      </c>
+      <c r="AC89" s="23">
+        <v>0.45</v>
+      </c>
+      <c r="AD89" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AE89" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AF89" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AG89" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH89" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AI89" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ89" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AK89" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AL89" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AM89" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AN89" s="23" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="90" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="B90" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="C90" s="37" t="s">
+        <v>336</v>
+      </c>
+      <c r="D90" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="E90" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="F90" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="G90" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="H90" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="I90" s="13" t="s">
+        <v>583</v>
+      </c>
+      <c r="J90" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="K90" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="L90" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="M90" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="N90" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="O90" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="P90" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q90" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="R90" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="S90" s="37" t="s">
+        <v>336</v>
+      </c>
+      <c r="T90" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="U90" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="V90" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="W90" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="X90" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y90" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="Z90" s="5">
+        <v>-0.12</v>
+      </c>
+      <c r="AA90" s="25" t="s">
+        <v>562</v>
+      </c>
+      <c r="AB90" s="5">
+        <v>-0.23</v>
+      </c>
+      <c r="AC90" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="AD90" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AE90" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AF90" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AG90" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="AH90" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AI90" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ90" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AK90" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AL90" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AM90" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AN90" s="23" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="91" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="13" t="s">
+        <v>583</v>
+      </c>
+      <c r="B91" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="C91" s="37" t="s">
+        <v>336</v>
+      </c>
+      <c r="D91" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="E91" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="F91" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="G91" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="H91" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="I91" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="J91" s="13">
+        <v>0.09</v>
+      </c>
+      <c r="K91" s="37" t="s">
+        <v>601</v>
+      </c>
+      <c r="L91" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="M91" s="13">
+        <v>0.84</v>
+      </c>
+      <c r="N91" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="O91" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="P91" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q91" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="R91" s="13">
+        <v>0.18</v>
+      </c>
+      <c r="S91" s="37" t="s">
+        <v>610</v>
+      </c>
+      <c r="T91" s="13">
+        <v>0.53</v>
+      </c>
+      <c r="U91" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="V91" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="W91" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="X91" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y91" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="Z91" s="5">
+        <v>-0.2</v>
+      </c>
+      <c r="AA91" s="37" t="s">
+        <v>563</v>
+      </c>
+      <c r="AB91" s="5">
+        <v>-0.53</v>
+      </c>
+      <c r="AC91" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="AD91" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AE91" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AF91" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AG91" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="AH91" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AI91" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ91" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AK91" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AL91" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AM91" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AN91" s="23" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="92" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="B92" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="C92" s="37" t="s">
+        <v>336</v>
+      </c>
+      <c r="D92" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="E92" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="F92" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="G92" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="H92" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="I92" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="J92" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="K92" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="L92" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="M92" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="N92" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="O92" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="P92" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q92" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="R92" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="S92" s="37" t="s">
+        <v>336</v>
+      </c>
+      <c r="T92" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="U92" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="V92" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="W92" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="X92" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y92" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="Z92" s="5">
+        <v>-0.03</v>
+      </c>
+      <c r="AA92" s="37" t="s">
+        <v>564</v>
+      </c>
+      <c r="AB92" s="5">
+        <v>-0.08</v>
+      </c>
+      <c r="AC92" s="5">
+        <v>0.93</v>
+      </c>
+      <c r="AD92" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AE92" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AF92" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AG92" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="AH92" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AI92" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ92" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AK92" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AL92" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AM92" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AN92" s="23" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="93" spans="1:40" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="B93" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="C93" s="26" t="s">
+        <v>336</v>
+      </c>
+      <c r="D93" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="E93" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="F93" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="G93" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="H93" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="I93" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="J93" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="K93" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="L93" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="M93" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="N93" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="O93" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="P93" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q93" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="R93" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="S93" s="26" t="s">
+        <v>336</v>
+      </c>
+      <c r="T93" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="U93" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="V93" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="W93" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="X93" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y93" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="Z93" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="AA93" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB93" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="AC93" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="AD93" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="AE93" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="AF93" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="AG93" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="AH93" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="AI93" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ93" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="AK93" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="AL93" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="AM93" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="AN93" s="15" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="94" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="95" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="96" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>338</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ms/Updated model output 17-4-20.xlsx
+++ b/ms/Updated model output 17-4-20.xlsx
@@ -8,19 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenharrison/Documents/GitHub/sex_meta/ms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA3E8D6-B5A3-8444-9E83-828FC8FF7AE4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9EF524B-CDE1-6F4A-A86E-34CBF6168135}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19060" yWindow="1000" windowWidth="38200" windowHeight="19700" activeTab="4" xr2:uid="{5BDBDF95-A114-D34B-9842-3CB243171EE0}"/>
+    <workbookView xWindow="0" yWindow="640" windowWidth="38200" windowHeight="19700" activeTab="3" xr2:uid="{5BDBDF95-A114-D34B-9842-3CB243171EE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Intercept models" sheetId="1" r:id="rId1"/>
     <sheet name="MLMR mod 1 - Personality" sheetId="2" r:id="rId2"/>
     <sheet name="MLMR mod 2a - SSD factor only" sheetId="3" r:id="rId3"/>
     <sheet name="MLMR mod 2b - SSD interactions" sheetId="4" r:id="rId4"/>
-    <sheet name="MLMR mod 2c - SSD subset" sheetId="5" r:id="rId5"/>
+    <sheet name="MLMR mod 2c - SSD subsets" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1823,9 +1822,6 @@
     <t>p=0.02</t>
   </si>
   <si>
-    <t>p=0.249</t>
-  </si>
-  <si>
     <t>-0.25, 0.03</t>
   </si>
   <si>
@@ -1902,6 +1898,9 @@
   </si>
   <si>
     <t xml:space="preserve">SSD </t>
+  </si>
+  <si>
+    <t>p=0.25</t>
   </si>
 </sst>
 </file>
@@ -4195,8 +4194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF86D62B-22BF-1846-B677-968C777627E8}">
   <dimension ref="A1:AS39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="AQ39" sqref="AQ39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6472,13 +6471,13 @@
       <c r="AP32" s="20">
         <v>0.06</v>
       </c>
-      <c r="AQ32" s="12">
+      <c r="AQ32" s="38">
         <v>30</v>
       </c>
-      <c r="AR32" s="12">
+      <c r="AR32" s="38">
         <v>2</v>
       </c>
-      <c r="AS32" s="12">
+      <c r="AS32" s="38">
         <v>2</v>
       </c>
     </row>
@@ -6917,8 +6916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{939D7292-2723-1340-8BB4-AEA2E39AEC34}">
   <dimension ref="A1:AN79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="R40" sqref="R40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7084,13 +7083,13 @@
       <c r="K8" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="Q8" s="5" t="s">
+      <c r="Q8" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="R8" s="5">
+      <c r="R8" s="4">
         <v>4.09</v>
       </c>
-      <c r="S8" s="5" t="s">
+      <c r="S8" s="4" t="s">
         <v>230</v>
       </c>
       <c r="Y8" s="5" t="s">
@@ -8403,13 +8402,13 @@
       <c r="K24" t="s">
         <v>258</v>
       </c>
-      <c r="Q24" s="5" t="s">
+      <c r="Q24" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="R24" s="5">
+      <c r="R24" s="4">
         <v>2.19</v>
       </c>
-      <c r="S24" s="5" t="s">
+      <c r="S24" s="4" t="s">
         <v>217</v>
       </c>
       <c r="Y24" s="5" t="s">
@@ -9797,19 +9796,19 @@
       <c r="Q46" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="R46" s="5">
+      <c r="R46" s="4">
         <v>4.09</v>
       </c>
-      <c r="S46" s="5" t="s">
+      <c r="S46" s="4" t="s">
         <v>230</v>
       </c>
       <c r="Y46" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="Z46" s="4">
+      <c r="Z46" s="5">
         <v>1.22</v>
       </c>
-      <c r="AA46" s="4" t="s">
+      <c r="AA46" s="5" t="s">
         <v>237</v>
       </c>
       <c r="AG46" s="5" t="s">
@@ -11119,13 +11118,13 @@
       <c r="K62" t="s">
         <v>258</v>
       </c>
-      <c r="Q62" s="5" t="s">
+      <c r="Q62" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="R62" s="5">
+      <c r="R62" s="4">
         <v>2.19</v>
       </c>
-      <c r="S62" s="5" t="s">
+      <c r="S62" s="4" t="s">
         <v>217</v>
       </c>
       <c r="Y62" s="5" t="s">
@@ -12384,8 +12383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F4A7D2-5CA0-1747-899D-B4E5A2FB552D}">
   <dimension ref="A1:AN96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD96"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AL26" sqref="AL26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12531,22 +12530,22 @@
       </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>1.68</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="4">
         <v>1.77</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="4" t="s">
         <v>357</v>
       </c>
       <c r="Q7" s="4" t="s">
@@ -14356,13 +14355,13 @@
       <c r="K27" t="s">
         <v>411</v>
       </c>
-      <c r="Q27" s="5" t="s">
+      <c r="Q27" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="R27" s="5">
+      <c r="R27" s="4">
         <v>1.8</v>
       </c>
-      <c r="S27" s="5" t="s">
+      <c r="S27" s="4" t="s">
         <v>357</v>
       </c>
       <c r="Y27" s="5" t="s">
@@ -14374,13 +14373,13 @@
       <c r="AA27" t="s">
         <v>428</v>
       </c>
-      <c r="AG27" s="5" t="s">
+      <c r="AG27" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AH27">
+      <c r="AH27" s="4">
         <v>1.71</v>
       </c>
-      <c r="AI27" t="s">
+      <c r="AI27" s="4" t="s">
         <v>439</v>
       </c>
     </row>
@@ -16281,49 +16280,49 @@
       </c>
     </row>
     <row r="56" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B56" s="5">
+      <c r="B56" s="4">
         <v>1.68</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="I56" s="5" t="s">
+      <c r="I56" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="J56" s="5">
+      <c r="J56" s="4">
         <v>1.77</v>
       </c>
-      <c r="K56" s="5" t="s">
+      <c r="K56" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="Q56" s="5" t="s">
+      <c r="Q56" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="R56" s="5">
+      <c r="R56" s="4">
         <v>3.12</v>
       </c>
-      <c r="S56" s="5" t="s">
+      <c r="S56" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="Y56" s="5" t="s">
+      <c r="Y56" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="Z56" s="5">
+      <c r="Z56" s="4">
         <v>2.5299999999999998</v>
       </c>
-      <c r="AA56" s="5" t="s">
+      <c r="AA56" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="AG56" s="5" t="s">
+      <c r="AG56" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AH56" s="5">
+      <c r="AH56" s="4">
         <v>2</v>
       </c>
-      <c r="AI56" s="5" t="s">
+      <c r="AI56" s="4" t="s">
         <v>217</v>
       </c>
     </row>
@@ -18104,13 +18103,13 @@
       <c r="K76" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="Q76" s="5" t="s">
+      <c r="Q76" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="R76" s="5">
+      <c r="R76" s="4">
         <v>1.8</v>
       </c>
-      <c r="S76" s="5" t="s">
+      <c r="S76" s="4" t="s">
         <v>357</v>
       </c>
       <c r="Y76" s="5" t="s">
@@ -18122,13 +18121,13 @@
       <c r="AA76" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="AG76" s="5" t="s">
+      <c r="AG76" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AH76" s="5">
+      <c r="AH76" s="4">
         <v>1.71</v>
       </c>
-      <c r="AI76" s="5" t="s">
+      <c r="AI76" s="4" t="s">
         <v>439</v>
       </c>
     </row>
@@ -19850,8 +19849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52E1601E-514F-6C4E-8014-9481A0BF4F36}">
   <dimension ref="A1:AN96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19949,13 +19948,13 @@
       </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
         <v>1594.61</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="I6" s="5" t="s">
@@ -20002,7 +20001,7 @@
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -20022,7 +20021,7 @@
         <v>3.65</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="Y7" s="4" t="s">
         <v>59</v>
@@ -20592,7 +20591,7 @@
         <v>0.13</v>
       </c>
       <c r="S15" s="25" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="T15" s="5">
         <v>0.71</v>
@@ -20836,7 +20835,7 @@
         <v>0.25</v>
       </c>
       <c r="S17" s="25" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="T17" s="5">
         <v>1.35</v>
@@ -21154,7 +21153,7 @@
         <v>-0.17</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D20" s="23">
         <v>-0.63</v>
@@ -21202,7 +21201,7 @@
         <v>-0.16</v>
       </c>
       <c r="S20" s="30" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="T20" s="23">
         <v>-1.43</v>
@@ -21446,7 +21445,7 @@
         <v>0.21</v>
       </c>
       <c r="S22" s="44" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="T22" s="38">
         <v>2.56</v>
@@ -21781,7 +21780,7 @@
         <v>261.23</v>
       </c>
       <c r="C26" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>35</v>
@@ -21827,7 +21826,7 @@
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -22659,7 +22658,7 @@
         <v>0.01</v>
       </c>
       <c r="S37" s="30" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="T37" s="23">
         <v>0.12</v>
@@ -22977,7 +22976,7 @@
         <v>0.06</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D40" s="20">
         <v>1.8</v>
@@ -23025,7 +23024,7 @@
         <v>0.01</v>
       </c>
       <c r="S40" s="30" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="T40" s="23">
         <v>0.1</v>
@@ -23269,7 +23268,7 @@
         <v>0.04</v>
       </c>
       <c r="S42" s="37" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="T42" s="13">
         <v>0.53</v>
@@ -23734,13 +23733,13 @@
       </c>
     </row>
     <row r="55" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B55" s="5">
+      <c r="B55" s="4">
         <v>1594.62</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="4" t="s">
         <v>9</v>
       </c>
       <c r="I55" s="5" t="s">
@@ -23782,7 +23781,7 @@
     </row>
     <row r="56" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I56" s="5" t="s">
         <v>59</v>
@@ -23793,22 +23792,22 @@
       <c r="K56" s="5" t="s">
         <v>580</v>
       </c>
-      <c r="Q56" s="5" t="s">
+      <c r="Q56" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="R56" s="5">
+      <c r="R56" s="4">
         <v>3.65</v>
       </c>
-      <c r="S56" s="5" t="s">
-        <v>602</v>
-      </c>
-      <c r="Y56" s="5" t="s">
+      <c r="S56" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="Y56" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="Z56" s="5">
+      <c r="Z56" s="4">
         <v>4.6399999999999997</v>
       </c>
-      <c r="AA56" s="5" t="s">
+      <c r="AA56" s="4" t="s">
         <v>9</v>
       </c>
       <c r="AG56" s="5" t="s">
@@ -24351,7 +24350,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="S64" s="25" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="T64" s="5">
         <v>0.02</v>
@@ -24595,7 +24594,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="S66" s="25" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="T66" s="5">
         <v>1.46</v>
@@ -24913,7 +24912,7 @@
         <v>-0.17</v>
       </c>
       <c r="C69" s="30" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D69" s="23">
         <v>-0.63</v>
@@ -24961,7 +24960,7 @@
         <v>-0.85</v>
       </c>
       <c r="S69" s="30" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="T69" s="23">
         <v>-1.43</v>
@@ -25205,7 +25204,7 @@
         <v>1.07</v>
       </c>
       <c r="S71" s="44" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="T71" s="38">
         <v>2.56</v>
@@ -25540,7 +25539,7 @@
         <v>261.23</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="I75" s="5" t="s">
         <v>35</v>
@@ -25581,7 +25580,7 @@
     </row>
     <row r="76" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I76" s="5" t="s">
         <v>59</v>
@@ -25590,15 +25589,15 @@
         <v>0.85</v>
       </c>
       <c r="K76" s="5" t="s">
-        <v>597</v>
-      </c>
-      <c r="Q76" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="Q76" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="R76" s="5">
+      <c r="R76" s="4">
         <v>2.84</v>
       </c>
-      <c r="S76" s="5" t="s">
+      <c r="S76" s="4" t="s">
         <v>596</v>
       </c>
       <c r="Y76" s="5" t="s">
@@ -26150,7 +26149,7 @@
         <v>-0.16</v>
       </c>
       <c r="S84" s="39" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="T84" s="18">
         <v>-2.21</v>
@@ -26248,7 +26247,7 @@
         <v>-0.11</v>
       </c>
       <c r="K85" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="L85">
         <v>-1.58</v>
@@ -26370,7 +26369,7 @@
         <v>-0.02</v>
       </c>
       <c r="K86" s="24" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="L86">
         <v>-0.27</v>
@@ -26394,7 +26393,7 @@
         <v>0.04</v>
       </c>
       <c r="S86" s="30" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="T86" s="23">
         <v>0.57999999999999996</v>
@@ -26706,13 +26705,13 @@
     </row>
     <row r="89" spans="1:40" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="20" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B89" s="20">
         <v>0.06</v>
       </c>
       <c r="C89" s="31" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D89" s="20">
         <v>1.8</v>
@@ -26736,7 +26735,7 @@
         <v>-0.19</v>
       </c>
       <c r="K89" s="30" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="L89" s="23">
         <v>-0.52</v>
@@ -26760,7 +26759,7 @@
         <v>0.03</v>
       </c>
       <c r="S89" s="30" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="T89" s="23">
         <v>0.1</v>
@@ -26980,7 +26979,7 @@
         <v>0.09</v>
       </c>
       <c r="K91" s="37" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L91" s="13">
         <v>0.2</v>
@@ -27004,7 +27003,7 @@
         <v>0.18</v>
       </c>
       <c r="S91" s="37" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="T91" s="13">
         <v>0.53</v>

--- a/ms/Updated model output 17-4-20.xlsx
+++ b/ms/Updated model output 17-4-20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenharrison/Documents/GitHub/sex_meta/ms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9EF524B-CDE1-6F4A-A86E-34CBF6168135}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40495D30-A21E-FA4B-BDA5-C6E185853BBA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="640" windowWidth="38200" windowHeight="19700" activeTab="3" xr2:uid="{5BDBDF95-A114-D34B-9842-3CB243171EE0}"/>
+    <workbookView xWindow="140" yWindow="460" windowWidth="38200" windowHeight="19700" xr2:uid="{5BDBDF95-A114-D34B-9842-3CB243171EE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Intercept models" sheetId="1" r:id="rId1"/>
@@ -2386,7 +2386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DAF7C5E-35C2-0343-8AC1-0E9A3B22FC74}">
   <dimension ref="A1:AI60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AG37" sqref="AG37"/>
     </sheetView>
   </sheetViews>
@@ -6916,8 +6916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{939D7292-2723-1340-8BB4-AEA2E39AEC34}">
   <dimension ref="A1:AN79"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="R40" sqref="R40"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12383,7 +12383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F4A7D2-5CA0-1747-899D-B4E5A2FB552D}">
   <dimension ref="A1:AN96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="AL26" sqref="AL26"/>
     </sheetView>
   </sheetViews>

--- a/ms/Updated model output 17-4-20.xlsx
+++ b/ms/Updated model output 17-4-20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenharrison/Documents/GitHub/sex_meta/ms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40495D30-A21E-FA4B-BDA5-C6E185853BBA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FDF978D-B1F6-DF4C-B207-E84AC91FE57A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="460" windowWidth="38200" windowHeight="19700" xr2:uid="{5BDBDF95-A114-D34B-9842-3CB243171EE0}"/>
+    <workbookView xWindow="400" yWindow="560" windowWidth="38200" windowHeight="19700" xr2:uid="{5BDBDF95-A114-D34B-9842-3CB243171EE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Intercept models" sheetId="1" r:id="rId1"/>
@@ -4194,8 +4194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF86D62B-22BF-1846-B677-968C777627E8}">
   <dimension ref="A1:AS39"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="AQ39" sqref="AQ39"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19849,7 +19849,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52E1601E-514F-6C4E-8014-9481A0BF4F36}">
   <dimension ref="A1:AN96"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>

--- a/ms/Updated model output 17-4-20.xlsx
+++ b/ms/Updated model output 17-4-20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenharrison/Documents/GitHub/sex_meta/ms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A8A946-FF02-D248-9EFB-B25AADCAB0C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A586C7A-B276-4E4D-8408-A971A2B00A65}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="560" windowWidth="38200" windowHeight="19700" activeTab="3" xr2:uid="{5BDBDF95-A114-D34B-9842-3CB243171EE0}"/>
+    <workbookView xWindow="200" yWindow="560" windowWidth="38200" windowHeight="19700" xr2:uid="{5BDBDF95-A114-D34B-9842-3CB243171EE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Intercept models" sheetId="1" r:id="rId1"/>
@@ -2389,8 +2389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DAF7C5E-35C2-0343-8AC1-0E9A3B22FC74}">
   <dimension ref="A1:AI60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AG37" sqref="AG37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2670,10 +2670,10 @@
       <c r="C10">
         <v>0.81</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>0.79</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>69</v>
       </c>
       <c r="F10">
@@ -2706,10 +2706,10 @@
       <c r="Q10">
         <v>0.93</v>
       </c>
-      <c r="R10" s="5">
+      <c r="R10" s="4">
         <v>0.84</v>
       </c>
-      <c r="S10" s="5" t="s">
+      <c r="S10" s="4" t="s">
         <v>78</v>
       </c>
       <c r="T10">
@@ -2724,10 +2724,10 @@
       <c r="X10">
         <v>0.31</v>
       </c>
-      <c r="Y10">
+      <c r="Y10" s="4">
         <v>0.24</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="Z10" s="4" t="s">
         <v>81</v>
       </c>
       <c r="AA10">
@@ -2742,10 +2742,10 @@
       <c r="AE10">
         <v>0.2</v>
       </c>
-      <c r="AF10">
+      <c r="AF10" s="4">
         <v>0.23</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AG10" s="4" t="s">
         <v>89</v>
       </c>
       <c r="AH10">
@@ -2919,10 +2919,10 @@
       <c r="H13" t="s">
         <v>20</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="4">
         <v>0.23</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" s="4" t="s">
         <v>74</v>
       </c>
       <c r="O13" t="s">
@@ -2937,10 +2937,10 @@
       <c r="V13" t="s">
         <v>20</v>
       </c>
-      <c r="Y13">
+      <c r="Y13" s="4">
         <v>0.22</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="Z13" s="4" t="s">
         <v>83</v>
       </c>
       <c r="AC13" t="s">
@@ -3471,10 +3471,10 @@
       <c r="Q22">
         <v>0.21</v>
       </c>
-      <c r="R22">
+      <c r="R22" s="4">
         <v>0.28000000000000003</v>
       </c>
-      <c r="S22" t="s">
+      <c r="S22" s="4" t="s">
         <v>79</v>
       </c>
       <c r="T22">
@@ -6920,7 +6920,7 @@
   <dimension ref="A1:AN79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD37"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12386,7 +12386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F4A7D2-5CA0-1747-899D-B4E5A2FB552D}">
   <dimension ref="A1:AT96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -20144,7 +20144,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52E1601E-514F-6C4E-8014-9481A0BF4F36}">
   <dimension ref="A1:AN96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="N53" workbookViewId="0">
       <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>

--- a/ms/Updated model output 17-4-20.xlsx
+++ b/ms/Updated model output 17-4-20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenharrison/Documents/GitHub/sex_meta/ms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A586C7A-B276-4E4D-8408-A971A2B00A65}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE26A40C-ABF5-A24C-95FA-799086488F96}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="560" windowWidth="38200" windowHeight="19700" xr2:uid="{5BDBDF95-A114-D34B-9842-3CB243171EE0}"/>
+    <workbookView xWindow="100" yWindow="560" windowWidth="38200" windowHeight="19700" activeTab="4" xr2:uid="{5BDBDF95-A114-D34B-9842-3CB243171EE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Intercept models" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4285" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4285" uniqueCount="626">
   <si>
     <t xml:space="preserve">Intercept only models are our most simple multilevel mixed models to compare SMD (means) and lnCVR (variance) for males and females, in each taxo group. </t>
   </si>
@@ -1904,6 +1904,9 @@
   </si>
   <si>
     <t>mean SSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Important to note that activity is the intercept for SSD except for fish (intercept is aggression) </t>
   </si>
 </sst>
 </file>
@@ -2389,7 +2392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DAF7C5E-35C2-0343-8AC1-0E9A3B22FC74}">
   <dimension ref="A1:AI60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
@@ -20144,8 +20147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52E1601E-514F-6C4E-8014-9481A0BF4F36}">
   <dimension ref="A1:AN96"/>
   <sheetViews>
-    <sheetView topLeftCell="N53" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23950,7 +23953,7 @@
     </row>
     <row r="52" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="21" t="s">
-        <v>450</v>
+        <v>625</v>
       </c>
       <c r="B52"/>
       <c r="I52" s="23"/>

--- a/ms/Updated model output 17-4-20.xlsx
+++ b/ms/Updated model output 17-4-20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenharrison/Documents/GitHub/sex_meta/ms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE26A40C-ABF5-A24C-95FA-799086488F96}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D42139-F1B1-9B41-B691-A66A92FA5FAF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="560" windowWidth="38200" windowHeight="19700" activeTab="4" xr2:uid="{5BDBDF95-A114-D34B-9842-3CB243171EE0}"/>
+    <workbookView xWindow="140" yWindow="600" windowWidth="38200" windowHeight="19700" activeTab="4" xr2:uid="{5BDBDF95-A114-D34B-9842-3CB243171EE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Intercept models" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4285" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4268" uniqueCount="631">
   <si>
     <t xml:space="preserve">Intercept only models are our most simple multilevel mixed models to compare SMD (means) and lnCVR (variance) for males and females, in each taxo group. </t>
   </si>
@@ -1879,27 +1879,6 @@
     <t>-0.10, 0.17</t>
   </si>
   <si>
-    <t>-0.71, 0.36</t>
-  </si>
-  <si>
-    <t>* because there is only 1 pers level (boldness), this is just SSD moderating boldness dataset</t>
-  </si>
-  <si>
-    <t>p=0.52</t>
-  </si>
-  <si>
-    <t>-0.01, 0.12</t>
-  </si>
-  <si>
-    <t>p&lt;0.52</t>
-  </si>
-  <si>
-    <t>-0.005, 0.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD </t>
-  </si>
-  <si>
     <t>p=0.25</t>
   </si>
   <si>
@@ -1907,6 +1886,42 @@
   </si>
   <si>
     <t xml:space="preserve">Important to note that activity is the intercept for SSD except for fish (intercept is aggression) </t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>-0.83, 0.39</t>
+  </si>
+  <si>
+    <t>-1.32, 1.01</t>
+  </si>
+  <si>
+    <t>*just SSD moderating boldness</t>
+  </si>
+  <si>
+    <t>p=0.80</t>
+  </si>
+  <si>
+    <t>-0.05, 0.12</t>
+  </si>
+  <si>
+    <t>p=0.60</t>
+  </si>
+  <si>
+    <t>-0.83, 0.37</t>
+  </si>
+  <si>
+    <t>-0.21, 0.16</t>
+  </si>
+  <si>
+    <t>p=0.58</t>
+  </si>
+  <si>
+    <t>-0.04, 0.11</t>
+  </si>
+  <si>
+    <t>-0.03, 0.06</t>
   </si>
 </sst>
 </file>
@@ -12990,7 +13005,7 @@
         <v>334</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="J14" s="9"/>
       <c r="K14" s="9" t="s">
@@ -13015,7 +13030,7 @@
         <v>334</v>
       </c>
       <c r="R14" s="9" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="S14" s="9"/>
       <c r="T14" s="9" t="s">
@@ -13040,7 +13055,7 @@
         <v>334</v>
       </c>
       <c r="AA14" s="9" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="AB14" s="9"/>
       <c r="AC14" s="9" t="s">
@@ -13065,7 +13080,7 @@
         <v>334</v>
       </c>
       <c r="AJ14" s="9" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="AK14" s="9"/>
       <c r="AL14" s="9" t="s">
@@ -13090,7 +13105,7 @@
         <v>334</v>
       </c>
       <c r="AS14" s="9" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="AT14" s="19"/>
     </row>
@@ -14862,7 +14877,7 @@
         <v>334</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="J34" s="9"/>
       <c r="K34" s="9" t="s">
@@ -14887,7 +14902,7 @@
         <v>334</v>
       </c>
       <c r="R34" s="9" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="S34" s="9"/>
       <c r="T34" s="9" t="s">
@@ -14912,7 +14927,7 @@
         <v>334</v>
       </c>
       <c r="AA34" s="9" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="AB34" s="9"/>
       <c r="AC34" s="9" t="s">
@@ -14937,7 +14952,7 @@
         <v>334</v>
       </c>
       <c r="AJ34" s="9" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="AK34" s="9"/>
       <c r="AL34" s="9" t="s">
@@ -14962,7 +14977,7 @@
         <v>334</v>
       </c>
       <c r="AS34" s="9" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
     </row>
     <row r="35" spans="1:45" x14ac:dyDescent="0.2">
@@ -20147,8 +20162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52E1601E-514F-6C4E-8014-9481A0BF4F36}">
   <dimension ref="A1:AN96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20246,13 +20261,13 @@
       </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="4">
-        <v>1594.61</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="A6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6">
+        <v>1545.45</v>
+      </c>
+      <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="I6" s="5" t="s">
@@ -20299,10 +20314,17 @@
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>617</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+        <v>59</v>
+      </c>
+      <c r="B7" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>622</v>
+      </c>
       <c r="I7" s="5" t="s">
         <v>59</v>
       </c>
@@ -20474,13 +20496,13 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="C10">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="D10" s="5">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E10" s="4"/>
       <c r="I10" t="s">
@@ -20545,10 +20567,10 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>2.0000000000000001E-4</v>
+        <v>0.01</v>
       </c>
       <c r="D11">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="I11" t="s">
         <v>300</v>
@@ -20608,13 +20630,13 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="C12">
-        <v>0.26</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D12">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="I12" t="s">
         <v>19</v>
@@ -20834,29 +20856,29 @@
       </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" t="s">
-        <v>336</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>336</v>
-      </c>
-      <c r="D15" t="s">
-        <v>336</v>
-      </c>
-      <c r="E15" t="s">
-        <v>336</v>
-      </c>
-      <c r="F15" t="s">
-        <v>336</v>
-      </c>
-      <c r="G15" t="s">
-        <v>336</v>
-      </c>
-      <c r="H15" t="s">
-        <v>336</v>
+      <c r="A15" s="22" t="s">
+        <v>619</v>
+      </c>
+      <c r="B15" s="13">
+        <v>-0.23</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>626</v>
+      </c>
+      <c r="D15" s="13">
+        <v>-0.75</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="F15" s="23">
+        <v>21</v>
+      </c>
+      <c r="G15" s="23">
+        <v>76</v>
+      </c>
+      <c r="H15" s="23">
+        <v>234</v>
       </c>
       <c r="I15" t="s">
         <v>40</v>
@@ -20956,29 +20978,29 @@
       </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>336</v>
+      <c r="A16" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="13">
+        <v>-0.02</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>336</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="G16" t="s">
-        <v>336</v>
-      </c>
-      <c r="H16" t="s">
-        <v>336</v>
+        <v>627</v>
+      </c>
+      <c r="D16" s="13">
+        <v>-0.26</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="F16" s="23">
+        <v>21</v>
+      </c>
+      <c r="G16" s="23">
+        <v>76</v>
+      </c>
+      <c r="H16" s="23">
+        <v>234</v>
       </c>
       <c r="I16" t="s">
         <v>41</v>
@@ -21078,28 +21100,28 @@
       </c>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" t="s">
-        <v>336</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>336</v>
-      </c>
-      <c r="D17" t="s">
-        <v>336</v>
-      </c>
-      <c r="E17" t="s">
-        <v>336</v>
-      </c>
-      <c r="F17" t="s">
-        <v>336</v>
-      </c>
-      <c r="G17" t="s">
-        <v>336</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="A17" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="H17" s="5" t="s">
         <v>336</v>
       </c>
       <c r="I17" t="s">
@@ -21201,7 +21223,7 @@
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>43</v>
+        <v>336</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>336</v>
@@ -21218,10 +21240,10 @@
       <c r="F18" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="G18" t="s">
-        <v>336</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="G18" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="H18" s="5" t="s">
         <v>336</v>
       </c>
       <c r="I18" s="5" t="s">
@@ -21323,7 +21345,7 @@
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>44</v>
+        <v>336</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>336</v>
@@ -21343,7 +21365,7 @@
       <c r="G19" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="5" t="s">
         <v>336</v>
       </c>
       <c r="I19" s="5" t="s">
@@ -21444,29 +21466,29 @@
       </c>
     </row>
     <row r="20" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" s="23">
-        <v>-0.17</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>616</v>
-      </c>
-      <c r="D20" s="23">
-        <v>-0.63</v>
-      </c>
-      <c r="E20" s="23">
-        <v>0.53</v>
-      </c>
-      <c r="F20" s="19">
-        <v>21</v>
-      </c>
-      <c r="G20" s="19">
-        <v>76</v>
-      </c>
-      <c r="H20" s="19">
-        <v>234</v>
+      <c r="A20" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>336</v>
       </c>
       <c r="I20" s="23" t="s">
         <v>61</v>
@@ -21567,7 +21589,7 @@
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>336</v>
@@ -21581,13 +21603,13 @@
       <c r="E21" s="13" t="s">
         <v>336</v>
       </c>
-      <c r="F21" s="19" t="s">
-        <v>336</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>336</v>
-      </c>
-      <c r="H21" s="19" t="s">
+      <c r="F21" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="H21" s="23" t="s">
         <v>336</v>
       </c>
       <c r="I21" s="13" t="s">
@@ -21689,7 +21711,7 @@
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
-        <v>583</v>
+        <v>336</v>
       </c>
       <c r="B22" s="13" t="s">
         <v>336</v>
@@ -21703,13 +21725,13 @@
       <c r="E22" s="13" t="s">
         <v>336</v>
       </c>
-      <c r="F22" s="19" t="s">
-        <v>336</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>336</v>
-      </c>
-      <c r="H22" s="19" t="s">
+      <c r="F22" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="H22" s="23" t="s">
         <v>336</v>
       </c>
       <c r="I22" s="13" t="s">
@@ -21811,7 +21833,7 @@
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>336</v>
@@ -21825,13 +21847,13 @@
       <c r="E23" s="13" t="s">
         <v>336</v>
       </c>
-      <c r="F23" s="19" t="s">
-        <v>336</v>
-      </c>
-      <c r="G23" s="19" t="s">
-        <v>336</v>
-      </c>
-      <c r="H23" s="19" t="s">
+      <c r="F23" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="H23" s="23" t="s">
         <v>336</v>
       </c>
       <c r="I23" s="13" t="s">
@@ -21933,7 +21955,7 @@
     </row>
     <row r="24" spans="1:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="B24" s="15" t="s">
         <v>336</v>
@@ -21944,16 +21966,16 @@
       <c r="D24" s="15" t="s">
         <v>336</v>
       </c>
-      <c r="E24" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="H24" s="16" t="s">
+      <c r="E24" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="H24" s="15" t="s">
         <v>336</v>
       </c>
       <c r="I24" s="15" t="s">
@@ -22072,13 +22094,13 @@
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B26">
-        <v>261.23</v>
+        <v>227.08</v>
       </c>
       <c r="C26" t="s">
-        <v>618</v>
+        <v>628</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>35</v>
@@ -22124,10 +22146,14 @@
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>617</v>
-      </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
+        <v>59</v>
+      </c>
+      <c r="B27" s="5">
+        <v>0.26</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>175</v>
+      </c>
       <c r="I27" s="5" t="s">
         <v>59</v>
       </c>
@@ -22302,10 +22328,10 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="D30" s="5">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I30" t="s">
         <v>16</v>
@@ -22365,13 +22391,13 @@
         <v>300</v>
       </c>
       <c r="B31">
-        <v>3.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D31">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="I31" t="s">
         <v>300</v>
@@ -22437,7 +22463,7 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="I32" t="s">
         <v>19</v>
@@ -22657,29 +22683,29 @@
       </c>
     </row>
     <row r="35" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A35" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" t="s">
-        <v>336</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>336</v>
-      </c>
-      <c r="D35" t="s">
-        <v>336</v>
-      </c>
-      <c r="E35" t="s">
-        <v>336</v>
-      </c>
-      <c r="F35" t="s">
-        <v>336</v>
-      </c>
-      <c r="G35" t="s">
-        <v>336</v>
-      </c>
-      <c r="H35" t="s">
-        <v>336</v>
+      <c r="A35" s="22" t="s">
+        <v>619</v>
+      </c>
+      <c r="B35" s="13">
+        <v>0.04</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>629</v>
+      </c>
+      <c r="D35" s="13">
+        <v>0.99</v>
+      </c>
+      <c r="E35" s="5">
+        <v>0.32</v>
+      </c>
+      <c r="F35" s="23">
+        <v>21</v>
+      </c>
+      <c r="G35" s="23">
+        <v>76</v>
+      </c>
+      <c r="H35" s="23">
+        <v>234</v>
       </c>
       <c r="I35" s="7" t="s">
         <v>40</v>
@@ -22779,29 +22805,29 @@
       </c>
     </row>
     <row r="36" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A36" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>336</v>
+      <c r="A36" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="13">
+        <v>0.01</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>336</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="G36" t="s">
-        <v>336</v>
-      </c>
-      <c r="H36" t="s">
-        <v>336</v>
+        <v>630</v>
+      </c>
+      <c r="D36" s="13">
+        <v>0.51</v>
+      </c>
+      <c r="E36" s="5">
+        <v>0.61</v>
+      </c>
+      <c r="F36" s="23">
+        <v>21</v>
+      </c>
+      <c r="G36" s="23">
+        <v>76</v>
+      </c>
+      <c r="H36" s="23">
+        <v>234</v>
       </c>
       <c r="I36" s="23" t="s">
         <v>41</v>
@@ -22901,28 +22927,28 @@
       </c>
     </row>
     <row r="37" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A37" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" t="s">
-        <v>336</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>336</v>
-      </c>
-      <c r="D37" t="s">
-        <v>336</v>
-      </c>
-      <c r="E37" t="s">
-        <v>336</v>
-      </c>
-      <c r="F37" t="s">
-        <v>336</v>
-      </c>
-      <c r="G37" t="s">
-        <v>336</v>
-      </c>
-      <c r="H37" t="s">
+      <c r="A37" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="H37" s="5" t="s">
         <v>336</v>
       </c>
       <c r="I37" s="23" t="s">
@@ -23023,8 +23049,8 @@
       </c>
     </row>
     <row r="38" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A38" s="23" t="s">
-        <v>43</v>
+      <c r="A38" s="5" t="s">
+        <v>336</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>336</v>
@@ -23041,10 +23067,10 @@
       <c r="F38" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="G38" t="s">
-        <v>336</v>
-      </c>
-      <c r="H38" t="s">
+      <c r="G38" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="H38" s="5" t="s">
         <v>336</v>
       </c>
       <c r="I38" s="23" t="s">
@@ -23145,8 +23171,8 @@
       </c>
     </row>
     <row r="39" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A39" s="23" t="s">
-        <v>44</v>
+      <c r="A39" s="5" t="s">
+        <v>336</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>336</v>
@@ -23166,7 +23192,7 @@
       <c r="G39" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" s="5" t="s">
         <v>336</v>
       </c>
       <c r="I39" s="23" t="s">
@@ -23267,29 +23293,29 @@
       </c>
     </row>
     <row r="40" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="B40" s="20">
-        <v>0.06</v>
-      </c>
-      <c r="C40" s="31" t="s">
-        <v>619</v>
-      </c>
-      <c r="D40" s="20">
-        <v>1.8</v>
-      </c>
-      <c r="E40" s="20">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F40" s="20">
-        <v>21</v>
-      </c>
-      <c r="G40" s="20">
-        <v>76</v>
-      </c>
-      <c r="H40" s="20">
-        <v>234</v>
+      <c r="A40" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>336</v>
       </c>
       <c r="I40" s="23" t="s">
         <v>61</v>
@@ -23390,7 +23416,7 @@
     </row>
     <row r="41" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B41" s="13" t="s">
         <v>336</v>
@@ -23404,13 +23430,13 @@
       <c r="E41" s="13" t="s">
         <v>336</v>
       </c>
-      <c r="F41" s="19" t="s">
-        <v>336</v>
-      </c>
-      <c r="G41" s="19" t="s">
-        <v>336</v>
-      </c>
-      <c r="H41" s="19" t="s">
+      <c r="F41" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="G41" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="H41" s="23" t="s">
         <v>336</v>
       </c>
       <c r="I41" s="13" t="s">
@@ -23512,7 +23538,7 @@
     </row>
     <row r="42" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
-        <v>583</v>
+        <v>336</v>
       </c>
       <c r="B42" s="13" t="s">
         <v>336</v>
@@ -23526,13 +23552,13 @@
       <c r="E42" s="13" t="s">
         <v>336</v>
       </c>
-      <c r="F42" s="19" t="s">
-        <v>336</v>
-      </c>
-      <c r="G42" s="19" t="s">
-        <v>336</v>
-      </c>
-      <c r="H42" s="19" t="s">
+      <c r="F42" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="G42" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="H42" s="23" t="s">
         <v>336</v>
       </c>
       <c r="I42" s="13" t="s">
@@ -23634,7 +23660,7 @@
     </row>
     <row r="43" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="B43" s="13" t="s">
         <v>336</v>
@@ -23648,13 +23674,13 @@
       <c r="E43" s="13" t="s">
         <v>336</v>
       </c>
-      <c r="F43" s="19" t="s">
-        <v>336</v>
-      </c>
-      <c r="G43" s="19" t="s">
-        <v>336</v>
-      </c>
-      <c r="H43" s="19" t="s">
+      <c r="F43" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="G43" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="H43" s="23" t="s">
         <v>336</v>
       </c>
       <c r="I43" s="13" t="s">
@@ -23756,7 +23782,7 @@
     </row>
     <row r="44" spans="1:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="B44" s="15" t="s">
         <v>336</v>
@@ -23767,16 +23793,16 @@
       <c r="D44" s="15" t="s">
         <v>336</v>
       </c>
-      <c r="E44" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="F44" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="G44" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="H44" s="16" t="s">
+      <c r="E44" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="G44" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="H44" s="15" t="s">
         <v>336</v>
       </c>
       <c r="I44" s="15" t="s">
@@ -23953,7 +23979,7 @@
     </row>
     <row r="52" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="21" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="B52"/>
       <c r="I52" s="23"/>
@@ -24031,13 +24057,13 @@
       </c>
     </row>
     <row r="55" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B55" s="4">
-        <v>1594.62</v>
-      </c>
-      <c r="C55" s="4" t="s">
+      <c r="A55" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B55" s="5">
+        <v>1545.45</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>9</v>
       </c>
       <c r="I55" s="5" t="s">
@@ -24079,7 +24105,16 @@
     </row>
     <row r="56" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>617</v>
+        <v>59</v>
+      </c>
+      <c r="B56" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>622</v>
       </c>
       <c r="I56" s="5" t="s">
         <v>59</v>
@@ -24247,13 +24282,13 @@
         <v>16</v>
       </c>
       <c r="B59" s="5">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="C59" s="5">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="D59" s="5">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I59" s="5" t="s">
         <v>16</v>
@@ -24312,10 +24347,10 @@
         <v>0</v>
       </c>
       <c r="C60" s="5">
-        <v>2.0000000000000001E-4</v>
+        <v>0.01</v>
       </c>
       <c r="D60" s="5">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="I60" s="5" t="s">
         <v>300</v>
@@ -24371,13 +24406,13 @@
         <v>19</v>
       </c>
       <c r="B61" s="5">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="C61" s="5">
-        <v>0.26</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D61" s="5">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="I61" s="5" t="s">
         <v>19</v>
@@ -24594,28 +24629,28 @@
     </row>
     <row r="64" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>336</v>
+        <v>619</v>
+      </c>
+      <c r="B64" s="13">
+        <v>-0.22</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>336</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="G64" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="H64" s="5" t="s">
-        <v>336</v>
+        <v>620</v>
+      </c>
+      <c r="D64" s="13">
+        <v>-0.71</v>
+      </c>
+      <c r="E64" s="5">
+        <v>0.48</v>
+      </c>
+      <c r="F64" s="23">
+        <v>21</v>
+      </c>
+      <c r="G64" s="23">
+        <v>76</v>
+      </c>
+      <c r="H64" s="23">
+        <v>234</v>
       </c>
       <c r="I64" t="s">
         <v>40</v>
@@ -24715,29 +24750,29 @@
       </c>
     </row>
     <row r="65" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>336</v>
+      <c r="A65" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B65" s="13">
+        <v>-0.15</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>336</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="G65" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="H65" s="5" t="s">
-        <v>336</v>
+        <v>621</v>
+      </c>
+      <c r="D65" s="13">
+        <v>-0.26</v>
+      </c>
+      <c r="E65" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="F65" s="23">
+        <v>21</v>
+      </c>
+      <c r="G65" s="23">
+        <v>76</v>
+      </c>
+      <c r="H65" s="23">
+        <v>234</v>
       </c>
       <c r="I65" t="s">
         <v>41</v>
@@ -24837,8 +24872,8 @@
       </c>
     </row>
     <row r="66" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="23" t="s">
-        <v>42</v>
+      <c r="A66" s="5" t="s">
+        <v>336</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>336</v>
@@ -24959,8 +24994,8 @@
       </c>
     </row>
     <row r="67" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="23" t="s">
-        <v>43</v>
+      <c r="A67" s="5" t="s">
+        <v>336</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>336</v>
@@ -25081,8 +25116,8 @@
       </c>
     </row>
     <row r="68" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="23" t="s">
-        <v>44</v>
+      <c r="A68" s="5" t="s">
+        <v>336</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>336</v>
@@ -25203,29 +25238,29 @@
       </c>
     </row>
     <row r="69" spans="1:40" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="B69" s="23">
-        <v>-0.17</v>
-      </c>
-      <c r="C69" s="30" t="s">
-        <v>616</v>
-      </c>
-      <c r="D69" s="23">
-        <v>-0.63</v>
-      </c>
-      <c r="E69" s="23">
-        <v>0.53</v>
-      </c>
-      <c r="F69" s="23">
-        <v>21</v>
-      </c>
-      <c r="G69" s="23">
-        <v>76</v>
-      </c>
-      <c r="H69" s="23">
-        <v>234</v>
+      <c r="A69" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C69" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>336</v>
       </c>
       <c r="I69" s="23" t="s">
         <v>54</v>
@@ -25326,7 +25361,7 @@
     </row>
     <row r="70" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B70" s="13" t="s">
         <v>336</v>
@@ -25448,7 +25483,7 @@
     </row>
     <row r="71" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="13" t="s">
-        <v>583</v>
+        <v>336</v>
       </c>
       <c r="B71" s="13" t="s">
         <v>336</v>
@@ -25570,7 +25605,7 @@
     </row>
     <row r="72" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="13" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="B72" s="13" t="s">
         <v>336</v>
@@ -25692,7 +25727,7 @@
     </row>
     <row r="73" spans="1:40" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="15" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="B73" s="15" t="s">
         <v>336</v>
@@ -25831,13 +25866,13 @@
     </row>
     <row r="75" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B75" s="5">
-        <v>261.23</v>
+        <v>227.08</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="I75" s="5" t="s">
         <v>35</v>
@@ -25878,7 +25913,16 @@
     </row>
     <row r="76" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
-        <v>617</v>
+        <v>59</v>
+      </c>
+      <c r="B76" s="5">
+        <v>0.26</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>622</v>
       </c>
       <c r="I76" s="5" t="s">
         <v>59</v>
@@ -25887,7 +25931,7 @@
         <v>0.85</v>
       </c>
       <c r="K76" s="5" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="Q76" s="4" t="s">
         <v>59</v>
@@ -26049,10 +26093,10 @@
         <v>0</v>
       </c>
       <c r="C79" s="5">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="D79" s="5">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I79" s="5" t="s">
         <v>16</v>
@@ -26108,13 +26152,13 @@
         <v>300</v>
       </c>
       <c r="B80" s="5">
-        <v>3.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="C80" s="5">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D80" s="5">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="I80" s="5" t="s">
         <v>300</v>
@@ -26173,10 +26217,10 @@
         <v>0</v>
       </c>
       <c r="C81" s="5">
-        <v>4.0000000000000002E-4</v>
+        <v>0</v>
       </c>
       <c r="D81" s="5">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="I81" s="5" t="s">
         <v>19</v>
@@ -26393,28 +26437,28 @@
     </row>
     <row r="84" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>336</v>
+        <v>619</v>
+      </c>
+      <c r="B84" s="13">
+        <v>0.03</v>
       </c>
       <c r="C84" s="25" t="s">
-        <v>336</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="G84" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="H84" s="5" t="s">
-        <v>336</v>
+        <v>624</v>
+      </c>
+      <c r="D84" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="E84" s="5">
+        <v>0.43</v>
+      </c>
+      <c r="F84" s="23">
+        <v>21</v>
+      </c>
+      <c r="G84" s="23">
+        <v>76</v>
+      </c>
+      <c r="H84" s="23">
+        <v>234</v>
       </c>
       <c r="I84" t="s">
         <v>40</v>
@@ -26514,29 +26558,29 @@
       </c>
     </row>
     <row r="85" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>336</v>
+      <c r="A85" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B85" s="13">
+        <v>0.08</v>
       </c>
       <c r="C85" s="25" t="s">
-        <v>336</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="G85" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="H85" s="5" t="s">
-        <v>336</v>
+        <v>288</v>
+      </c>
+      <c r="D85" s="13">
+        <v>0.51</v>
+      </c>
+      <c r="E85" s="5">
+        <v>0.61</v>
+      </c>
+      <c r="F85" s="23">
+        <v>21</v>
+      </c>
+      <c r="G85" s="23">
+        <v>76</v>
+      </c>
+      <c r="H85" s="23">
+        <v>234</v>
       </c>
       <c r="I85" t="s">
         <v>41</v>
@@ -26636,8 +26680,8 @@
       </c>
     </row>
     <row r="86" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="23" t="s">
-        <v>42</v>
+      <c r="A86" s="5" t="s">
+        <v>336</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>336</v>
@@ -26758,8 +26802,8 @@
       </c>
     </row>
     <row r="87" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="23" t="s">
-        <v>43</v>
+      <c r="A87" s="5" t="s">
+        <v>336</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>336</v>
@@ -26880,8 +26924,8 @@
       </c>
     </row>
     <row r="88" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="23" t="s">
-        <v>44</v>
+      <c r="A88" s="5" t="s">
+        <v>336</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>336</v>
@@ -27002,29 +27046,29 @@
       </c>
     </row>
     <row r="89" spans="1:40" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="20" t="s">
-        <v>622</v>
-      </c>
-      <c r="B89" s="20">
-        <v>0.06</v>
-      </c>
-      <c r="C89" s="31" t="s">
-        <v>621</v>
-      </c>
-      <c r="D89" s="20">
-        <v>1.8</v>
-      </c>
-      <c r="E89" s="20">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F89" s="20">
-        <v>21</v>
-      </c>
-      <c r="G89" s="20">
-        <v>76</v>
-      </c>
-      <c r="H89" s="20">
-        <v>234</v>
+      <c r="A89" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C89" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="H89" s="5" t="s">
+        <v>336</v>
       </c>
       <c r="I89" s="23" t="s">
         <v>54</v>
@@ -27125,7 +27169,7 @@
     </row>
     <row r="90" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="13" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B90" s="13" t="s">
         <v>336</v>
@@ -27247,7 +27291,7 @@
     </row>
     <row r="91" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="13" t="s">
-        <v>583</v>
+        <v>336</v>
       </c>
       <c r="B91" s="13" t="s">
         <v>336</v>
@@ -27369,7 +27413,7 @@
     </row>
     <row r="92" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="B92" s="13" t="s">
         <v>336</v>
@@ -27491,7 +27535,7 @@
     </row>
     <row r="93" spans="1:40" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="15" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="B93" s="15" t="s">
         <v>336</v>

--- a/ms/Updated model output 17-4-20.xlsx
+++ b/ms/Updated model output 17-4-20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenharrison/Documents/GitHub/sex_meta/ms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1A0C9A-0FC0-494C-8E8B-8890CB9D5A86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3362082-1A04-1C48-915E-82FC6B3B88A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="500" windowWidth="38200" windowHeight="19700" activeTab="4" xr2:uid="{5BDBDF95-A114-D34B-9842-3CB243171EE0}"/>
+    <workbookView xWindow="16220" yWindow="620" windowWidth="38200" windowHeight="19700" activeTab="5" xr2:uid="{5BDBDF95-A114-D34B-9842-3CB243171EE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Intercept models" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="MLMR mod 2a - SSD factor only" sheetId="3" r:id="rId3"/>
     <sheet name="MLMR mod 2b - SSD interactions" sheetId="4" r:id="rId4"/>
     <sheet name="MLMR mod 2c - SSD subsets" sheetId="5" r:id="rId5"/>
+    <sheet name="Intercept mod - D matrices" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4268" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4708" uniqueCount="675">
   <si>
     <t xml:space="preserve">Intercept only models are our most simple multilevel mixed models to compare SMD (means) and lnCVR (variance) for males and females, in each taxo group. </t>
   </si>
@@ -1916,6 +1917,144 @@
   </si>
   <si>
     <t>-0.05, 0.11</t>
+  </si>
+  <si>
+    <t>Intercept Only Models - with D matrix (rho = 0.3)</t>
+  </si>
+  <si>
+    <t>QE</t>
+  </si>
+  <si>
+    <t>p&lt;0.001</t>
+  </si>
+  <si>
+    <t>QM</t>
+  </si>
+  <si>
+    <t>p=0.46</t>
+  </si>
+  <si>
+    <t>Slope (beta)</t>
+  </si>
+  <si>
+    <t>-0.33, 0.15</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>vb</t>
+  </si>
+  <si>
+    <t>p=0.17</t>
+  </si>
+  <si>
+    <t>p=0.5</t>
+  </si>
+  <si>
+    <t>-0.35, 0.36</t>
+  </si>
+  <si>
+    <t>-0.09, 0.48</t>
+  </si>
+  <si>
+    <t>-0.11 0.22</t>
+  </si>
+  <si>
+    <t>-0.26, 0.12</t>
+  </si>
+  <si>
+    <t>-0.13, 0.04</t>
+  </si>
+  <si>
+    <t>-0.15, 0.27</t>
+  </si>
+  <si>
+    <t>-0.07, 0.11</t>
+  </si>
+  <si>
+    <t>p=0</t>
+  </si>
+  <si>
+    <t>p=0.59</t>
+  </si>
+  <si>
+    <t>p=0.3</t>
+  </si>
+  <si>
+    <t>p=0.999</t>
+  </si>
+  <si>
+    <t>Intercept Only Models - with D matrix (rho = 0.5)</t>
+  </si>
+  <si>
+    <t>Intercept Only Models - with D matrix (rho = 0.8)</t>
+  </si>
+  <si>
+    <t>-0.32, 0.15</t>
+  </si>
+  <si>
+    <t>p=0.47</t>
+  </si>
+  <si>
+    <t>p=0.87</t>
+  </si>
+  <si>
+    <t>-0.31, 0.37</t>
+  </si>
+  <si>
+    <t>-0.09, 0.49</t>
+  </si>
+  <si>
+    <t>p=0.64</t>
+  </si>
+  <si>
+    <t>-0.26, 0.41</t>
+  </si>
+  <si>
+    <t>-0.11 0.23</t>
+  </si>
+  <si>
+    <t>-0.27, 0.12</t>
+  </si>
+  <si>
+    <t>-0.08, 0.05</t>
+  </si>
+  <si>
+    <t>-0.13, 0.23</t>
+  </si>
+  <si>
+    <t>p=0.62</t>
+  </si>
+  <si>
+    <t>p=0.58</t>
+  </si>
+  <si>
+    <t>-0.09, 0.50</t>
+  </si>
+  <si>
+    <t>-0.23, 0.39</t>
+  </si>
+  <si>
+    <t>p=0.65</t>
+  </si>
+  <si>
+    <t>-0.23, 0.12</t>
+  </si>
+  <si>
+    <t>-0.09, 0.05</t>
+  </si>
+  <si>
+    <t>-0.11, 0.20</t>
+  </si>
+  <si>
+    <t>p=0.52</t>
+  </si>
+  <si>
+    <t>p=0.57</t>
   </si>
 </sst>
 </file>
@@ -1988,7 +2127,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -2034,11 +2173,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2085,6 +2235,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2402,7 +2558,7 @@
   <dimension ref="A1:AI60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20156,7 +20312,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52E1601E-514F-6C4E-8014-9481A0BF4F36}">
   <dimension ref="A1:AN96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
@@ -27667,4 +27823,2723 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD410016-5453-B440-8D87-EB82EDF8C5D9}">
+  <dimension ref="A1:AJ47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AE46" sqref="AE46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC6" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A7" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="W7" s="19"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="19"/>
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD7" s="19"/>
+      <c r="AE7" s="19"/>
+      <c r="AF7" s="19"/>
+      <c r="AG7" s="19"/>
+      <c r="AH7" s="19"/>
+      <c r="AI7" s="19"/>
+      <c r="AJ7" s="19"/>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A8" s="23" t="s">
+        <v>630</v>
+      </c>
+      <c r="B8" s="19">
+        <v>2765.94</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>631</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="23" t="s">
+        <v>630</v>
+      </c>
+      <c r="I8" s="19">
+        <v>1825.48</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>631</v>
+      </c>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="23" t="s">
+        <v>630</v>
+      </c>
+      <c r="P8" s="19">
+        <v>2055.31</v>
+      </c>
+      <c r="Q8" s="19" t="s">
+        <v>631</v>
+      </c>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="23" t="s">
+        <v>630</v>
+      </c>
+      <c r="W8" s="19">
+        <v>2275.7399999999998</v>
+      </c>
+      <c r="X8" s="19" t="s">
+        <v>631</v>
+      </c>
+      <c r="Y8" s="19"/>
+      <c r="Z8" s="19"/>
+      <c r="AA8" s="19"/>
+      <c r="AB8" s="19"/>
+      <c r="AC8" s="23" t="s">
+        <v>630</v>
+      </c>
+      <c r="AD8" s="19">
+        <v>151.15</v>
+      </c>
+      <c r="AE8" s="19" t="s">
+        <v>631</v>
+      </c>
+      <c r="AF8" s="19"/>
+      <c r="AG8" s="19"/>
+      <c r="AH8" s="19"/>
+      <c r="AI8" s="19"/>
+      <c r="AJ8" s="19"/>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A9" s="23" t="s">
+        <v>632</v>
+      </c>
+      <c r="B9" s="19">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>633</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="23" t="s">
+        <v>632</v>
+      </c>
+      <c r="I9" s="19">
+        <v>0</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="23" t="s">
+        <v>632</v>
+      </c>
+      <c r="P9" s="19">
+        <v>1.88</v>
+      </c>
+      <c r="Q9" s="19" t="s">
+        <v>639</v>
+      </c>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="23" t="s">
+        <v>632</v>
+      </c>
+      <c r="W9" s="19">
+        <v>0.21</v>
+      </c>
+      <c r="X9" s="19" t="s">
+        <v>669</v>
+      </c>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="19"/>
+      <c r="AA9" s="19"/>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="23" t="s">
+        <v>632</v>
+      </c>
+      <c r="AD9" s="19">
+        <v>0.46</v>
+      </c>
+      <c r="AE9" s="19" t="s">
+        <v>640</v>
+      </c>
+      <c r="AF9" s="19"/>
+      <c r="AG9" s="19"/>
+      <c r="AH9" s="19"/>
+      <c r="AI9" s="19"/>
+      <c r="AJ9" s="19"/>
+    </row>
+    <row r="10" spans="1:36" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>634</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>636</v>
+      </c>
+      <c r="E10" s="50" t="s">
+        <v>637</v>
+      </c>
+      <c r="F10" s="50" t="s">
+        <v>638</v>
+      </c>
+      <c r="G10" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="50" t="s">
+        <v>634</v>
+      </c>
+      <c r="J10" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="51" t="s">
+        <v>636</v>
+      </c>
+      <c r="L10" s="50" t="s">
+        <v>637</v>
+      </c>
+      <c r="M10" s="50" t="s">
+        <v>638</v>
+      </c>
+      <c r="N10" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="O10" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="P10" s="50" t="s">
+        <v>634</v>
+      </c>
+      <c r="Q10" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="R10" s="51" t="s">
+        <v>636</v>
+      </c>
+      <c r="S10" s="50" t="s">
+        <v>637</v>
+      </c>
+      <c r="T10" s="50" t="s">
+        <v>638</v>
+      </c>
+      <c r="U10" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="V10" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="W10" s="50" t="s">
+        <v>634</v>
+      </c>
+      <c r="X10" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y10" s="51" t="s">
+        <v>636</v>
+      </c>
+      <c r="Z10" s="50" t="s">
+        <v>637</v>
+      </c>
+      <c r="AA10" s="50" t="s">
+        <v>638</v>
+      </c>
+      <c r="AB10" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC10" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD10" s="50" t="s">
+        <v>634</v>
+      </c>
+      <c r="AE10" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF10" s="51" t="s">
+        <v>636</v>
+      </c>
+      <c r="AG10" s="50" t="s">
+        <v>637</v>
+      </c>
+      <c r="AH10" s="50" t="s">
+        <v>638</v>
+      </c>
+      <c r="AI10" s="50" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" s="16" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="16">
+        <v>-0.09</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>635</v>
+      </c>
+      <c r="D11" s="15">
+        <v>-0.74</v>
+      </c>
+      <c r="E11" s="15">
+        <v>0.46</v>
+      </c>
+      <c r="F11" s="47">
+        <v>0.01</v>
+      </c>
+      <c r="G11" s="48">
+        <v>506</v>
+      </c>
+      <c r="I11" s="16">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J11" s="46" t="s">
+        <v>641</v>
+      </c>
+      <c r="K11" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="L11" s="15">
+        <v>0.98</v>
+      </c>
+      <c r="M11" s="47">
+        <v>0.03</v>
+      </c>
+      <c r="N11" s="48">
+        <v>502</v>
+      </c>
+      <c r="P11" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="Q11" s="46" t="s">
+        <v>642</v>
+      </c>
+      <c r="R11" s="15">
+        <v>1.37</v>
+      </c>
+      <c r="S11" s="15">
+        <v>0.17</v>
+      </c>
+      <c r="T11" s="47">
+        <v>0.02</v>
+      </c>
+      <c r="U11" s="48">
+        <v>468</v>
+      </c>
+      <c r="W11" s="16">
+        <v>0.08</v>
+      </c>
+      <c r="X11" s="46" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y11" s="15">
+        <v>0.46</v>
+      </c>
+      <c r="Z11" s="15">
+        <v>0.65</v>
+      </c>
+      <c r="AA11" s="47">
+        <v>0.03</v>
+      </c>
+      <c r="AB11" s="48">
+        <v>700</v>
+      </c>
+      <c r="AD11" s="16">
+        <v>0.06</v>
+      </c>
+      <c r="AE11" s="46" t="s">
+        <v>643</v>
+      </c>
+      <c r="AF11" s="15">
+        <v>0.68</v>
+      </c>
+      <c r="AG11" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="AH11" s="47">
+        <v>0.01</v>
+      </c>
+      <c r="AI11" s="48">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A12" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="19"/>
+      <c r="AA12" s="19"/>
+      <c r="AB12" s="19"/>
+      <c r="AC12" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD12" s="19"/>
+      <c r="AE12" s="19"/>
+      <c r="AF12" s="19"/>
+      <c r="AG12" s="19"/>
+      <c r="AH12" s="19"/>
+      <c r="AI12" s="19"/>
+      <c r="AJ12" s="19"/>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A13" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="W13" s="19"/>
+      <c r="X13" s="19"/>
+      <c r="Y13" s="19"/>
+      <c r="Z13" s="19"/>
+      <c r="AA13" s="19"/>
+      <c r="AB13" s="19"/>
+      <c r="AC13" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD13" s="19"/>
+      <c r="AE13" s="19"/>
+      <c r="AF13" s="19"/>
+      <c r="AG13" s="19"/>
+      <c r="AH13" s="19"/>
+      <c r="AI13" s="19"/>
+      <c r="AJ13" s="19"/>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A14" s="23" t="s">
+        <v>630</v>
+      </c>
+      <c r="B14" s="19">
+        <v>3772.01</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>648</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="23" t="s">
+        <v>630</v>
+      </c>
+      <c r="I14" s="19">
+        <v>989.77</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>631</v>
+      </c>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="23" t="s">
+        <v>630</v>
+      </c>
+      <c r="P14" s="19">
+        <v>1272.96</v>
+      </c>
+      <c r="Q14" s="19" t="s">
+        <v>631</v>
+      </c>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="23" t="s">
+        <v>630</v>
+      </c>
+      <c r="W14" s="19">
+        <v>1100.6300000000001</v>
+      </c>
+      <c r="X14" s="19" t="s">
+        <v>631</v>
+      </c>
+      <c r="Y14" s="19"/>
+      <c r="Z14" s="19"/>
+      <c r="AA14" s="19"/>
+      <c r="AB14" s="19"/>
+      <c r="AC14" s="23" t="s">
+        <v>630</v>
+      </c>
+      <c r="AD14" s="19">
+        <v>57.03</v>
+      </c>
+      <c r="AE14" s="19" t="s">
+        <v>651</v>
+      </c>
+      <c r="AF14" s="19"/>
+      <c r="AG14" s="19"/>
+      <c r="AH14" s="19"/>
+      <c r="AI14" s="19"/>
+      <c r="AJ14" s="19"/>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A15" s="23" t="s">
+        <v>632</v>
+      </c>
+      <c r="B15" s="19">
+        <v>0.48</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>540</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="23" t="s">
+        <v>632</v>
+      </c>
+      <c r="I15" s="19">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>649</v>
+      </c>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="23" t="s">
+        <v>632</v>
+      </c>
+      <c r="P15" s="19">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="Q15" s="19" t="s">
+        <v>650</v>
+      </c>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="23" t="s">
+        <v>632</v>
+      </c>
+      <c r="W15" s="19">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="X15" s="19" t="s">
+        <v>649</v>
+      </c>
+      <c r="Y15" s="19"/>
+      <c r="Z15" s="19"/>
+      <c r="AA15" s="19"/>
+      <c r="AB15" s="19"/>
+      <c r="AC15" s="23" t="s">
+        <v>632</v>
+      </c>
+      <c r="AD15" s="19">
+        <v>0.26</v>
+      </c>
+      <c r="AE15" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="AF15" s="19"/>
+      <c r="AG15" s="19"/>
+      <c r="AH15" s="19"/>
+      <c r="AI15" s="19"/>
+      <c r="AJ15" s="19"/>
+    </row>
+    <row r="16" spans="1:36" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="50" t="s">
+        <v>634</v>
+      </c>
+      <c r="C16" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="51" t="s">
+        <v>636</v>
+      </c>
+      <c r="E16" s="50" t="s">
+        <v>637</v>
+      </c>
+      <c r="F16" s="50" t="s">
+        <v>638</v>
+      </c>
+      <c r="G16" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="50" t="s">
+        <v>634</v>
+      </c>
+      <c r="J16" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="K16" s="51" t="s">
+        <v>636</v>
+      </c>
+      <c r="L16" s="50" t="s">
+        <v>637</v>
+      </c>
+      <c r="M16" s="50" t="s">
+        <v>638</v>
+      </c>
+      <c r="N16" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="O16" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="P16" s="50" t="s">
+        <v>634</v>
+      </c>
+      <c r="Q16" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="R16" s="51" t="s">
+        <v>636</v>
+      </c>
+      <c r="S16" s="50" t="s">
+        <v>637</v>
+      </c>
+      <c r="T16" s="50" t="s">
+        <v>638</v>
+      </c>
+      <c r="U16" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="V16" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="W16" s="50" t="s">
+        <v>634</v>
+      </c>
+      <c r="X16" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y16" s="51" t="s">
+        <v>636</v>
+      </c>
+      <c r="Z16" s="50" t="s">
+        <v>637</v>
+      </c>
+      <c r="AA16" s="50" t="s">
+        <v>638</v>
+      </c>
+      <c r="AB16" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC16" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD16" s="50" t="s">
+        <v>634</v>
+      </c>
+      <c r="AE16" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF16" s="51" t="s">
+        <v>636</v>
+      </c>
+      <c r="AG16" s="50" t="s">
+        <v>637</v>
+      </c>
+      <c r="AH16" s="50" t="s">
+        <v>638</v>
+      </c>
+      <c r="AI16" s="50" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" s="16" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="16">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="C17" s="46" t="s">
+        <v>644</v>
+      </c>
+      <c r="D17" s="15">
+        <v>-0.7</v>
+      </c>
+      <c r="E17" s="15">
+        <v>0.49</v>
+      </c>
+      <c r="F17" s="47">
+        <v>0.01</v>
+      </c>
+      <c r="G17" s="48">
+        <v>506</v>
+      </c>
+      <c r="I17" s="16">
+        <v>-0.02</v>
+      </c>
+      <c r="J17" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="15">
+        <v>-0.54</v>
+      </c>
+      <c r="L17" s="15">
+        <v>0.59</v>
+      </c>
+      <c r="M17" s="47">
+        <v>1E-3</v>
+      </c>
+      <c r="N17" s="48">
+        <v>502</v>
+      </c>
+      <c r="P17" s="16">
+        <v>-0.04</v>
+      </c>
+      <c r="Q17" s="46" t="s">
+        <v>645</v>
+      </c>
+      <c r="R17" s="15">
+        <v>-1.05</v>
+      </c>
+      <c r="S17" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="T17" s="47">
+        <v>2E-3</v>
+      </c>
+      <c r="U17" s="48">
+        <v>468</v>
+      </c>
+      <c r="W17" s="16">
+        <v>0.06</v>
+      </c>
+      <c r="X17" s="46" t="s">
+        <v>646</v>
+      </c>
+      <c r="Y17" s="15">
+        <v>0.54</v>
+      </c>
+      <c r="Z17" s="15">
+        <v>0.59</v>
+      </c>
+      <c r="AA17" s="47">
+        <v>0.01</v>
+      </c>
+      <c r="AB17" s="48">
+        <v>700</v>
+      </c>
+      <c r="AD17" s="16">
+        <v>0.02</v>
+      </c>
+      <c r="AE17" s="46" t="s">
+        <v>647</v>
+      </c>
+      <c r="AF17" s="15">
+        <v>0.51</v>
+      </c>
+      <c r="AG17" s="15">
+        <v>0.61</v>
+      </c>
+      <c r="AH17" s="47">
+        <v>2E-3</v>
+      </c>
+      <c r="AI17" s="48">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A18" s="23"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="23"/>
+      <c r="W18" s="19"/>
+      <c r="X18" s="19"/>
+      <c r="Y18" s="19"/>
+      <c r="Z18" s="19"/>
+      <c r="AA18" s="19"/>
+      <c r="AB18" s="19"/>
+      <c r="AC18" s="23"/>
+      <c r="AD18" s="19"/>
+      <c r="AE18" s="19"/>
+      <c r="AF18" s="19"/>
+      <c r="AG18" s="19"/>
+      <c r="AH18" s="19"/>
+      <c r="AI18" s="19"/>
+      <c r="AJ18" s="19"/>
+    </row>
+    <row r="19" spans="1:36" ht="19" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:36" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3"/>
+      <c r="AF20" s="3"/>
+      <c r="AG20" s="3"/>
+      <c r="AH20" s="3"/>
+      <c r="AI20" s="3"/>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC21" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A22" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="W22" s="19"/>
+      <c r="X22" s="19"/>
+      <c r="Y22" s="19"/>
+      <c r="Z22" s="19"/>
+      <c r="AA22" s="19"/>
+      <c r="AB22" s="19"/>
+      <c r="AC22" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD22" s="19"/>
+      <c r="AE22" s="19"/>
+      <c r="AF22" s="19"/>
+      <c r="AG22" s="19"/>
+      <c r="AH22" s="19"/>
+      <c r="AI22" s="19"/>
+      <c r="AJ22" s="19"/>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A23" s="23" t="s">
+        <v>630</v>
+      </c>
+      <c r="B23" s="19">
+        <v>2765.94</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>631</v>
+      </c>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="23" t="s">
+        <v>630</v>
+      </c>
+      <c r="I23" s="19">
+        <v>1825.48</v>
+      </c>
+      <c r="J23" s="19" t="s">
+        <v>631</v>
+      </c>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="23" t="s">
+        <v>630</v>
+      </c>
+      <c r="P23" s="19">
+        <v>2055.31</v>
+      </c>
+      <c r="Q23" s="19" t="s">
+        <v>631</v>
+      </c>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="23" t="s">
+        <v>630</v>
+      </c>
+      <c r="W23" s="19">
+        <v>2275.7399999999998</v>
+      </c>
+      <c r="X23" s="19" t="s">
+        <v>631</v>
+      </c>
+      <c r="Y23" s="19"/>
+      <c r="Z23" s="19"/>
+      <c r="AA23" s="19"/>
+      <c r="AB23" s="19"/>
+      <c r="AC23" s="23" t="s">
+        <v>630</v>
+      </c>
+      <c r="AD23" s="19">
+        <v>151.15</v>
+      </c>
+      <c r="AE23" s="19" t="s">
+        <v>631</v>
+      </c>
+      <c r="AF23" s="19"/>
+      <c r="AG23" s="19"/>
+      <c r="AH23" s="19"/>
+      <c r="AI23" s="19"/>
+      <c r="AJ23" s="19"/>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A24" s="23" t="s">
+        <v>632</v>
+      </c>
+      <c r="B24" s="19">
+        <v>0.53</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>655</v>
+      </c>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="23" t="s">
+        <v>632</v>
+      </c>
+      <c r="I24" s="19">
+        <v>0.03</v>
+      </c>
+      <c r="J24" s="19" t="s">
+        <v>656</v>
+      </c>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="23" t="s">
+        <v>632</v>
+      </c>
+      <c r="P24" s="19">
+        <v>1.88</v>
+      </c>
+      <c r="Q24" s="19" t="s">
+        <v>639</v>
+      </c>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="23" t="s">
+        <v>632</v>
+      </c>
+      <c r="W24" s="19">
+        <v>0.22</v>
+      </c>
+      <c r="X24" s="19" t="s">
+        <v>659</v>
+      </c>
+      <c r="Y24" s="19"/>
+      <c r="Z24" s="19"/>
+      <c r="AA24" s="19"/>
+      <c r="AB24" s="19"/>
+      <c r="AC24" s="23" t="s">
+        <v>632</v>
+      </c>
+      <c r="AD24" s="19">
+        <v>0.46</v>
+      </c>
+      <c r="AE24" s="19" t="s">
+        <v>640</v>
+      </c>
+      <c r="AF24" s="19"/>
+      <c r="AG24" s="19"/>
+      <c r="AH24" s="19"/>
+      <c r="AI24" s="19"/>
+      <c r="AJ24" s="19"/>
+    </row>
+    <row r="25" spans="1:36" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="50" t="s">
+        <v>634</v>
+      </c>
+      <c r="C25" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="51" t="s">
+        <v>636</v>
+      </c>
+      <c r="E25" s="50" t="s">
+        <v>637</v>
+      </c>
+      <c r="F25" s="50" t="s">
+        <v>638</v>
+      </c>
+      <c r="G25" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25" s="50" t="s">
+        <v>634</v>
+      </c>
+      <c r="J25" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="K25" s="51" t="s">
+        <v>636</v>
+      </c>
+      <c r="L25" s="50" t="s">
+        <v>637</v>
+      </c>
+      <c r="M25" s="50" t="s">
+        <v>638</v>
+      </c>
+      <c r="N25" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="O25" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="P25" s="50" t="s">
+        <v>634</v>
+      </c>
+      <c r="Q25" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="R25" s="51" t="s">
+        <v>636</v>
+      </c>
+      <c r="S25" s="50" t="s">
+        <v>637</v>
+      </c>
+      <c r="T25" s="50" t="s">
+        <v>638</v>
+      </c>
+      <c r="U25" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="V25" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="W25" s="50" t="s">
+        <v>634</v>
+      </c>
+      <c r="X25" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y25" s="51" t="s">
+        <v>636</v>
+      </c>
+      <c r="Z25" s="50" t="s">
+        <v>637</v>
+      </c>
+      <c r="AA25" s="50" t="s">
+        <v>638</v>
+      </c>
+      <c r="AB25" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC25" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD25" s="50" t="s">
+        <v>634</v>
+      </c>
+      <c r="AE25" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF25" s="51" t="s">
+        <v>636</v>
+      </c>
+      <c r="AG25" s="50" t="s">
+        <v>637</v>
+      </c>
+      <c r="AH25" s="50" t="s">
+        <v>638</v>
+      </c>
+      <c r="AI25" s="50" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" s="16" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="16">
+        <v>-0.09</v>
+      </c>
+      <c r="C26" s="46" t="s">
+        <v>654</v>
+      </c>
+      <c r="D26" s="15">
+        <v>-0.72</v>
+      </c>
+      <c r="E26" s="15">
+        <v>0.47</v>
+      </c>
+      <c r="F26" s="47">
+        <v>0.01</v>
+      </c>
+      <c r="G26" s="48">
+        <v>506</v>
+      </c>
+      <c r="I26" s="16">
+        <v>0.03</v>
+      </c>
+      <c r="J26" s="46" t="s">
+        <v>657</v>
+      </c>
+      <c r="K26" s="15">
+        <v>0.16</v>
+      </c>
+      <c r="L26" s="15">
+        <v>0.87</v>
+      </c>
+      <c r="M26" s="47">
+        <v>0.03</v>
+      </c>
+      <c r="N26" s="48">
+        <v>502</v>
+      </c>
+      <c r="P26" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="Q26" s="46" t="s">
+        <v>658</v>
+      </c>
+      <c r="R26" s="15">
+        <v>1.37</v>
+      </c>
+      <c r="S26" s="15">
+        <v>0.17</v>
+      </c>
+      <c r="T26" s="47">
+        <v>0.02</v>
+      </c>
+      <c r="U26" s="48">
+        <v>468</v>
+      </c>
+      <c r="W26" s="16">
+        <v>0.08</v>
+      </c>
+      <c r="X26" s="46" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y26" s="15">
+        <v>0.46</v>
+      </c>
+      <c r="Z26" s="15">
+        <v>0.64</v>
+      </c>
+      <c r="AA26" s="47">
+        <v>0.03</v>
+      </c>
+      <c r="AB26" s="48">
+        <v>700</v>
+      </c>
+      <c r="AD26" s="16">
+        <v>0.06</v>
+      </c>
+      <c r="AE26" s="46" t="s">
+        <v>661</v>
+      </c>
+      <c r="AF26" s="15">
+        <v>0.68</v>
+      </c>
+      <c r="AG26" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="AH26" s="47">
+        <v>0.01</v>
+      </c>
+      <c r="AI26" s="48">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A27" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="W27" s="19"/>
+      <c r="X27" s="19"/>
+      <c r="Y27" s="19"/>
+      <c r="Z27" s="19"/>
+      <c r="AA27" s="19"/>
+      <c r="AB27" s="19"/>
+      <c r="AC27" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD27" s="19"/>
+      <c r="AE27" s="19"/>
+      <c r="AF27" s="19"/>
+      <c r="AG27" s="19"/>
+      <c r="AH27" s="19"/>
+      <c r="AI27" s="19"/>
+      <c r="AJ27" s="19"/>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A28" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="W28" s="19"/>
+      <c r="X28" s="19"/>
+      <c r="Y28" s="19"/>
+      <c r="Z28" s="19"/>
+      <c r="AA28" s="19"/>
+      <c r="AB28" s="19"/>
+      <c r="AC28" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD28" s="19"/>
+      <c r="AE28" s="19"/>
+      <c r="AF28" s="19"/>
+      <c r="AG28" s="19"/>
+      <c r="AH28" s="19"/>
+      <c r="AI28" s="19"/>
+      <c r="AJ28" s="19"/>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A29" s="23" t="s">
+        <v>630</v>
+      </c>
+      <c r="B29" s="19">
+        <v>3772.01</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>648</v>
+      </c>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="23" t="s">
+        <v>630</v>
+      </c>
+      <c r="I29" s="19">
+        <v>989.77</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>631</v>
+      </c>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="23" t="s">
+        <v>630</v>
+      </c>
+      <c r="P29" s="19">
+        <v>1272.96</v>
+      </c>
+      <c r="Q29" s="19" t="s">
+        <v>631</v>
+      </c>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
+      <c r="V29" s="23" t="s">
+        <v>630</v>
+      </c>
+      <c r="W29" s="19">
+        <v>1100.6300000000001</v>
+      </c>
+      <c r="X29" s="19" t="s">
+        <v>631</v>
+      </c>
+      <c r="Y29" s="19"/>
+      <c r="Z29" s="19"/>
+      <c r="AA29" s="19"/>
+      <c r="AB29" s="19"/>
+      <c r="AC29" s="23" t="s">
+        <v>630</v>
+      </c>
+      <c r="AD29" s="19">
+        <v>57.03</v>
+      </c>
+      <c r="AE29" s="19" t="s">
+        <v>651</v>
+      </c>
+      <c r="AF29" s="19"/>
+      <c r="AG29" s="19"/>
+      <c r="AH29" s="19"/>
+      <c r="AI29" s="19"/>
+      <c r="AJ29" s="19"/>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A30" s="23" t="s">
+        <v>632</v>
+      </c>
+      <c r="B30" s="19">
+        <v>0.53</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>655</v>
+      </c>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="23" t="s">
+        <v>632</v>
+      </c>
+      <c r="I30" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="J30" s="19" t="s">
+        <v>665</v>
+      </c>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="23" t="s">
+        <v>632</v>
+      </c>
+      <c r="P30" s="19">
+        <v>1.17</v>
+      </c>
+      <c r="Q30" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+      <c r="V30" s="23" t="s">
+        <v>632</v>
+      </c>
+      <c r="W30" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="X30" s="19" t="s">
+        <v>666</v>
+      </c>
+      <c r="Y30" s="19"/>
+      <c r="Z30" s="19"/>
+      <c r="AA30" s="19"/>
+      <c r="AB30" s="19"/>
+      <c r="AC30" s="23" t="s">
+        <v>632</v>
+      </c>
+      <c r="AD30" s="19">
+        <v>0.26</v>
+      </c>
+      <c r="AE30" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="AF30" s="19"/>
+      <c r="AG30" s="19"/>
+      <c r="AH30" s="19"/>
+      <c r="AI30" s="19"/>
+      <c r="AJ30" s="19"/>
+    </row>
+    <row r="31" spans="1:36" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="50" t="s">
+        <v>634</v>
+      </c>
+      <c r="C31" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="51" t="s">
+        <v>636</v>
+      </c>
+      <c r="E31" s="50" t="s">
+        <v>637</v>
+      </c>
+      <c r="F31" s="50" t="s">
+        <v>638</v>
+      </c>
+      <c r="G31" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="H31" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="I31" s="50" t="s">
+        <v>634</v>
+      </c>
+      <c r="J31" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="K31" s="51" t="s">
+        <v>636</v>
+      </c>
+      <c r="L31" s="50" t="s">
+        <v>637</v>
+      </c>
+      <c r="M31" s="50" t="s">
+        <v>638</v>
+      </c>
+      <c r="N31" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="O31" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="P31" s="50" t="s">
+        <v>634</v>
+      </c>
+      <c r="Q31" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="R31" s="51" t="s">
+        <v>636</v>
+      </c>
+      <c r="S31" s="50" t="s">
+        <v>637</v>
+      </c>
+      <c r="T31" s="50" t="s">
+        <v>638</v>
+      </c>
+      <c r="U31" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="V31" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="W31" s="50" t="s">
+        <v>634</v>
+      </c>
+      <c r="X31" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y31" s="51" t="s">
+        <v>636</v>
+      </c>
+      <c r="Z31" s="50" t="s">
+        <v>637</v>
+      </c>
+      <c r="AA31" s="50" t="s">
+        <v>638</v>
+      </c>
+      <c r="AB31" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC31" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD31" s="50" t="s">
+        <v>634</v>
+      </c>
+      <c r="AE31" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF31" s="51" t="s">
+        <v>636</v>
+      </c>
+      <c r="AG31" s="50" t="s">
+        <v>637</v>
+      </c>
+      <c r="AH31" s="50" t="s">
+        <v>638</v>
+      </c>
+      <c r="AI31" s="50" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:36" s="16" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="16">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="C32" s="46" t="s">
+        <v>662</v>
+      </c>
+      <c r="D32" s="15">
+        <v>-0.73</v>
+      </c>
+      <c r="E32" s="15">
+        <v>0.47</v>
+      </c>
+      <c r="F32" s="47">
+        <v>0.01</v>
+      </c>
+      <c r="G32" s="48">
+        <v>506</v>
+      </c>
+      <c r="I32" s="16">
+        <v>-0.02</v>
+      </c>
+      <c r="J32" s="46" t="s">
+        <v>663</v>
+      </c>
+      <c r="K32" s="15">
+        <v>-0.5</v>
+      </c>
+      <c r="L32" s="15">
+        <v>0.62</v>
+      </c>
+      <c r="M32" s="47">
+        <v>1E-3</v>
+      </c>
+      <c r="N32" s="48">
+        <v>502</v>
+      </c>
+      <c r="P32" s="16">
+        <v>-0.05</v>
+      </c>
+      <c r="Q32" s="46" t="s">
+        <v>645</v>
+      </c>
+      <c r="R32" s="15">
+        <v>-1.08</v>
+      </c>
+      <c r="S32" s="15">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="T32" s="47">
+        <v>2E-3</v>
+      </c>
+      <c r="U32" s="48">
+        <v>468</v>
+      </c>
+      <c r="W32" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="X32" s="46" t="s">
+        <v>664</v>
+      </c>
+      <c r="Y32" s="15">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Z32" s="15">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AA32" s="47">
+        <v>0.01</v>
+      </c>
+      <c r="AB32" s="48">
+        <v>700</v>
+      </c>
+      <c r="AD32" s="16">
+        <v>0.02</v>
+      </c>
+      <c r="AE32" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF32" s="15">
+        <v>0.51</v>
+      </c>
+      <c r="AG32" s="15">
+        <v>0.61</v>
+      </c>
+      <c r="AH32" s="47">
+        <v>2E-3</v>
+      </c>
+      <c r="AI32" s="48">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:36" ht="19" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:36" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="3"/>
+      <c r="AB35" s="3"/>
+      <c r="AC35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD35" s="3"/>
+      <c r="AE35" s="3"/>
+      <c r="AF35" s="3"/>
+      <c r="AG35" s="3"/>
+      <c r="AH35" s="3"/>
+      <c r="AI35" s="3"/>
+    </row>
+    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC36" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A37" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="19"/>
+      <c r="S37" s="19"/>
+      <c r="T37" s="19"/>
+      <c r="U37" s="19"/>
+      <c r="V37" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="W37" s="19"/>
+      <c r="X37" s="19"/>
+      <c r="Y37" s="19"/>
+      <c r="Z37" s="19"/>
+      <c r="AA37" s="19"/>
+      <c r="AB37" s="19"/>
+      <c r="AC37" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD37" s="19"/>
+      <c r="AE37" s="19"/>
+      <c r="AF37" s="19"/>
+      <c r="AG37" s="19"/>
+      <c r="AH37" s="19"/>
+      <c r="AI37" s="19"/>
+      <c r="AJ37" s="19"/>
+    </row>
+    <row r="38" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A38" s="23" t="s">
+        <v>630</v>
+      </c>
+      <c r="B38" s="19">
+        <v>2765.94</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>631</v>
+      </c>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="23" t="s">
+        <v>630</v>
+      </c>
+      <c r="I38" s="19">
+        <v>1825.48</v>
+      </c>
+      <c r="J38" s="19" t="s">
+        <v>631</v>
+      </c>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="23" t="s">
+        <v>630</v>
+      </c>
+      <c r="P38" s="19">
+        <v>2055.31</v>
+      </c>
+      <c r="Q38" s="19" t="s">
+        <v>631</v>
+      </c>
+      <c r="R38" s="19"/>
+      <c r="S38" s="19"/>
+      <c r="T38" s="19"/>
+      <c r="U38" s="19"/>
+      <c r="V38" s="23" t="s">
+        <v>630</v>
+      </c>
+      <c r="W38" s="19">
+        <v>2275.7399999999998</v>
+      </c>
+      <c r="X38" s="19" t="s">
+        <v>631</v>
+      </c>
+      <c r="Y38" s="19"/>
+      <c r="Z38" s="19"/>
+      <c r="AA38" s="19"/>
+      <c r="AB38" s="19"/>
+      <c r="AC38" s="23" t="s">
+        <v>630</v>
+      </c>
+      <c r="AD38" s="19">
+        <v>151.15</v>
+      </c>
+      <c r="AE38" s="19" t="s">
+        <v>631</v>
+      </c>
+      <c r="AF38" s="19"/>
+      <c r="AG38" s="19"/>
+      <c r="AH38" s="19"/>
+      <c r="AI38" s="19"/>
+      <c r="AJ38" s="19"/>
+    </row>
+    <row r="39" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A39" s="23" t="s">
+        <v>632</v>
+      </c>
+      <c r="B39" s="19">
+        <v>0.48</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>540</v>
+      </c>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="23" t="s">
+        <v>632</v>
+      </c>
+      <c r="I39" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="J39" s="19" t="s">
+        <v>669</v>
+      </c>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="23" t="s">
+        <v>632</v>
+      </c>
+      <c r="P39" s="19">
+        <v>1.89</v>
+      </c>
+      <c r="Q39" s="19" t="s">
+        <v>639</v>
+      </c>
+      <c r="R39" s="19"/>
+      <c r="S39" s="19"/>
+      <c r="T39" s="19"/>
+      <c r="U39" s="19"/>
+      <c r="V39" s="23" t="s">
+        <v>632</v>
+      </c>
+      <c r="W39" s="19">
+        <v>0.24</v>
+      </c>
+      <c r="X39" s="19" t="s">
+        <v>665</v>
+      </c>
+      <c r="Y39" s="19"/>
+      <c r="Z39" s="19"/>
+      <c r="AA39" s="19"/>
+      <c r="AB39" s="19"/>
+      <c r="AC39" s="23" t="s">
+        <v>632</v>
+      </c>
+      <c r="AD39" s="19">
+        <v>0.45</v>
+      </c>
+      <c r="AE39" s="19" t="s">
+        <v>640</v>
+      </c>
+      <c r="AF39" s="19"/>
+      <c r="AG39" s="19"/>
+      <c r="AH39" s="19"/>
+      <c r="AI39" s="19"/>
+      <c r="AJ39" s="19"/>
+    </row>
+    <row r="40" spans="1:36" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="50" t="s">
+        <v>634</v>
+      </c>
+      <c r="C40" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" s="51" t="s">
+        <v>636</v>
+      </c>
+      <c r="E40" s="50" t="s">
+        <v>637</v>
+      </c>
+      <c r="F40" s="50" t="s">
+        <v>638</v>
+      </c>
+      <c r="G40" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="H40" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="I40" s="50" t="s">
+        <v>634</v>
+      </c>
+      <c r="J40" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="K40" s="51" t="s">
+        <v>636</v>
+      </c>
+      <c r="L40" s="50" t="s">
+        <v>637</v>
+      </c>
+      <c r="M40" s="50" t="s">
+        <v>638</v>
+      </c>
+      <c r="N40" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="O40" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="P40" s="50" t="s">
+        <v>634</v>
+      </c>
+      <c r="Q40" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="R40" s="51" t="s">
+        <v>636</v>
+      </c>
+      <c r="S40" s="50" t="s">
+        <v>637</v>
+      </c>
+      <c r="T40" s="50" t="s">
+        <v>638</v>
+      </c>
+      <c r="U40" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="V40" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="W40" s="50" t="s">
+        <v>634</v>
+      </c>
+      <c r="X40" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y40" s="51" t="s">
+        <v>636</v>
+      </c>
+      <c r="Z40" s="50" t="s">
+        <v>637</v>
+      </c>
+      <c r="AA40" s="50" t="s">
+        <v>638</v>
+      </c>
+      <c r="AB40" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC40" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD40" s="50" t="s">
+        <v>634</v>
+      </c>
+      <c r="AE40" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF40" s="51" t="s">
+        <v>636</v>
+      </c>
+      <c r="AG40" s="50" t="s">
+        <v>637</v>
+      </c>
+      <c r="AH40" s="50" t="s">
+        <v>638</v>
+      </c>
+      <c r="AI40" s="50" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:36" s="16" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="16">
+        <v>-0.08</v>
+      </c>
+      <c r="C41" s="46" t="s">
+        <v>654</v>
+      </c>
+      <c r="D41" s="15">
+        <v>-0.69</v>
+      </c>
+      <c r="E41" s="15">
+        <v>0.49</v>
+      </c>
+      <c r="F41" s="47">
+        <v>0.01</v>
+      </c>
+      <c r="G41" s="48">
+        <v>506</v>
+      </c>
+      <c r="I41" s="16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J41" s="46" t="s">
+        <v>232</v>
+      </c>
+      <c r="K41" s="15">
+        <v>0.45</v>
+      </c>
+      <c r="L41" s="15">
+        <v>0.65</v>
+      </c>
+      <c r="M41" s="47">
+        <v>0.02</v>
+      </c>
+      <c r="N41" s="48">
+        <v>502</v>
+      </c>
+      <c r="P41" s="16">
+        <v>0.21</v>
+      </c>
+      <c r="Q41" s="46" t="s">
+        <v>667</v>
+      </c>
+      <c r="R41" s="15">
+        <v>1.38</v>
+      </c>
+      <c r="S41" s="15">
+        <v>0.17</v>
+      </c>
+      <c r="T41" s="47">
+        <v>0.02</v>
+      </c>
+      <c r="U41" s="48">
+        <v>468</v>
+      </c>
+      <c r="W41" s="16">
+        <v>0.08</v>
+      </c>
+      <c r="X41" s="46" t="s">
+        <v>668</v>
+      </c>
+      <c r="Y41" s="15">
+        <v>0.49</v>
+      </c>
+      <c r="Z41" s="15">
+        <v>0.62</v>
+      </c>
+      <c r="AA41" s="47">
+        <v>0.02</v>
+      </c>
+      <c r="AB41" s="48">
+        <v>700</v>
+      </c>
+      <c r="AD41" s="16">
+        <v>0.06</v>
+      </c>
+      <c r="AE41" s="46" t="s">
+        <v>661</v>
+      </c>
+      <c r="AF41" s="15">
+        <v>0.67</v>
+      </c>
+      <c r="AG41" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="AH41" s="47">
+        <v>0.01</v>
+      </c>
+      <c r="AI41" s="48">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A42" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="P42" s="19"/>
+      <c r="Q42" s="19"/>
+      <c r="R42" s="19"/>
+      <c r="S42" s="19"/>
+      <c r="T42" s="19"/>
+      <c r="U42" s="19"/>
+      <c r="V42" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="W42" s="19"/>
+      <c r="X42" s="19"/>
+      <c r="Y42" s="19"/>
+      <c r="Z42" s="19"/>
+      <c r="AA42" s="19"/>
+      <c r="AB42" s="19"/>
+      <c r="AC42" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD42" s="19"/>
+      <c r="AE42" s="19"/>
+      <c r="AF42" s="19"/>
+      <c r="AG42" s="19"/>
+      <c r="AH42" s="19"/>
+      <c r="AI42" s="19"/>
+      <c r="AJ42" s="19"/>
+    </row>
+    <row r="43" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A43" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="P43" s="19"/>
+      <c r="Q43" s="19"/>
+      <c r="R43" s="19"/>
+      <c r="S43" s="19"/>
+      <c r="T43" s="19"/>
+      <c r="U43" s="19"/>
+      <c r="V43" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="W43" s="19"/>
+      <c r="X43" s="19"/>
+      <c r="Y43" s="19"/>
+      <c r="Z43" s="19"/>
+      <c r="AA43" s="19"/>
+      <c r="AB43" s="19"/>
+      <c r="AC43" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD43" s="19"/>
+      <c r="AE43" s="19"/>
+      <c r="AF43" s="19"/>
+      <c r="AG43" s="19"/>
+      <c r="AH43" s="19"/>
+      <c r="AI43" s="19"/>
+      <c r="AJ43" s="19"/>
+    </row>
+    <row r="44" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A44" s="23" t="s">
+        <v>630</v>
+      </c>
+      <c r="B44" s="19">
+        <v>3772.01</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>648</v>
+      </c>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="23" t="s">
+        <v>630</v>
+      </c>
+      <c r="I44" s="19">
+        <v>989.77</v>
+      </c>
+      <c r="J44" s="19" t="s">
+        <v>631</v>
+      </c>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="23" t="s">
+        <v>630</v>
+      </c>
+      <c r="P44" s="19">
+        <v>1272.96</v>
+      </c>
+      <c r="Q44" s="19" t="s">
+        <v>631</v>
+      </c>
+      <c r="R44" s="19"/>
+      <c r="S44" s="19"/>
+      <c r="T44" s="19"/>
+      <c r="U44" s="19"/>
+      <c r="V44" s="23" t="s">
+        <v>630</v>
+      </c>
+      <c r="W44" s="19">
+        <v>1100.6300000000001</v>
+      </c>
+      <c r="X44" s="19" t="s">
+        <v>631</v>
+      </c>
+      <c r="Y44" s="19"/>
+      <c r="Z44" s="19"/>
+      <c r="AA44" s="19"/>
+      <c r="AB44" s="19"/>
+      <c r="AC44" s="23" t="s">
+        <v>630</v>
+      </c>
+      <c r="AD44" s="19">
+        <v>57.03</v>
+      </c>
+      <c r="AE44" s="19" t="s">
+        <v>651</v>
+      </c>
+      <c r="AF44" s="19"/>
+      <c r="AG44" s="19"/>
+      <c r="AH44" s="19"/>
+      <c r="AI44" s="19"/>
+      <c r="AJ44" s="19"/>
+    </row>
+    <row r="45" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A45" s="23" t="s">
+        <v>632</v>
+      </c>
+      <c r="B45" s="19">
+        <v>0.41</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>673</v>
+      </c>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="23" t="s">
+        <v>632</v>
+      </c>
+      <c r="I45" s="19">
+        <v>0.21</v>
+      </c>
+      <c r="J45" s="19" t="s">
+        <v>669</v>
+      </c>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="23" t="s">
+        <v>632</v>
+      </c>
+      <c r="P45" s="19">
+        <v>1.27</v>
+      </c>
+      <c r="Q45" s="19" t="s">
+        <v>379</v>
+      </c>
+      <c r="R45" s="19"/>
+      <c r="S45" s="19"/>
+      <c r="T45" s="19"/>
+      <c r="U45" s="19"/>
+      <c r="V45" s="23" t="s">
+        <v>632</v>
+      </c>
+      <c r="W45" s="19">
+        <v>0.32</v>
+      </c>
+      <c r="X45" s="19" t="s">
+        <v>674</v>
+      </c>
+      <c r="Y45" s="19"/>
+      <c r="Z45" s="19"/>
+      <c r="AA45" s="19"/>
+      <c r="AB45" s="19"/>
+      <c r="AC45" s="23" t="s">
+        <v>632</v>
+      </c>
+      <c r="AD45" s="19">
+        <v>0.26</v>
+      </c>
+      <c r="AE45" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="AF45" s="19"/>
+      <c r="AG45" s="19"/>
+      <c r="AH45" s="19"/>
+      <c r="AI45" s="19"/>
+      <c r="AJ45" s="19"/>
+    </row>
+    <row r="46" spans="1:36" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" s="50" t="s">
+        <v>634</v>
+      </c>
+      <c r="C46" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="D46" s="51" t="s">
+        <v>636</v>
+      </c>
+      <c r="E46" s="50" t="s">
+        <v>637</v>
+      </c>
+      <c r="F46" s="50" t="s">
+        <v>638</v>
+      </c>
+      <c r="G46" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="H46" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="I46" s="50" t="s">
+        <v>634</v>
+      </c>
+      <c r="J46" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="K46" s="51" t="s">
+        <v>636</v>
+      </c>
+      <c r="L46" s="50" t="s">
+        <v>637</v>
+      </c>
+      <c r="M46" s="50" t="s">
+        <v>638</v>
+      </c>
+      <c r="N46" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="O46" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="P46" s="50" t="s">
+        <v>634</v>
+      </c>
+      <c r="Q46" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="R46" s="51" t="s">
+        <v>636</v>
+      </c>
+      <c r="S46" s="50" t="s">
+        <v>637</v>
+      </c>
+      <c r="T46" s="50" t="s">
+        <v>638</v>
+      </c>
+      <c r="U46" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="V46" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="W46" s="50" t="s">
+        <v>634</v>
+      </c>
+      <c r="X46" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y46" s="51" t="s">
+        <v>636</v>
+      </c>
+      <c r="Z46" s="50" t="s">
+        <v>637</v>
+      </c>
+      <c r="AA46" s="50" t="s">
+        <v>638</v>
+      </c>
+      <c r="AB46" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC46" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD46" s="50" t="s">
+        <v>634</v>
+      </c>
+      <c r="AE46" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF46" s="51" t="s">
+        <v>636</v>
+      </c>
+      <c r="AG46" s="50" t="s">
+        <v>637</v>
+      </c>
+      <c r="AH46" s="50" t="s">
+        <v>638</v>
+      </c>
+      <c r="AI46" s="50" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:36" s="16" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="16">
+        <v>-0.06</v>
+      </c>
+      <c r="C47" s="46" t="s">
+        <v>670</v>
+      </c>
+      <c r="D47" s="15">
+        <v>-0.64</v>
+      </c>
+      <c r="E47" s="15">
+        <v>0.52</v>
+      </c>
+      <c r="F47" s="47">
+        <v>0.01</v>
+      </c>
+      <c r="G47" s="48">
+        <v>506</v>
+      </c>
+      <c r="I47" s="16">
+        <v>-0.02</v>
+      </c>
+      <c r="J47" s="46" t="s">
+        <v>671</v>
+      </c>
+      <c r="K47" s="15">
+        <v>-0.46</v>
+      </c>
+      <c r="L47" s="15">
+        <v>0.65</v>
+      </c>
+      <c r="M47" s="47">
+        <v>1E-3</v>
+      </c>
+      <c r="N47" s="48">
+        <v>502</v>
+      </c>
+      <c r="P47" s="16">
+        <v>-0.05</v>
+      </c>
+      <c r="Q47" s="46" t="s">
+        <v>645</v>
+      </c>
+      <c r="R47" s="15">
+        <v>-1.1299999999999999</v>
+      </c>
+      <c r="S47" s="15">
+        <v>0.26</v>
+      </c>
+      <c r="T47" s="47">
+        <v>2E-3</v>
+      </c>
+      <c r="U47" s="48">
+        <v>468</v>
+      </c>
+      <c r="W47" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="X47" s="46" t="s">
+        <v>672</v>
+      </c>
+      <c r="Y47" s="15">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="Z47" s="15">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AA47" s="47">
+        <v>0.01</v>
+      </c>
+      <c r="AB47" s="48">
+        <v>700</v>
+      </c>
+      <c r="AD47" s="16">
+        <v>0.02</v>
+      </c>
+      <c r="AE47" s="46" t="s">
+        <v>647</v>
+      </c>
+      <c r="AF47" s="15">
+        <v>0.51</v>
+      </c>
+      <c r="AG47" s="15">
+        <v>0.61</v>
+      </c>
+      <c r="AH47" s="47">
+        <v>2E-3</v>
+      </c>
+      <c r="AI47" s="48">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ms/Updated model output 17-4-20.xlsx
+++ b/ms/Updated model output 17-4-20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenharrison/Documents/GitHub/sex_meta/ms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3362082-1A04-1C48-915E-82FC6B3B88A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388B46A6-4641-4D4A-933A-268FECDFA6A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16220" yWindow="620" windowWidth="38200" windowHeight="19700" activeTab="5" xr2:uid="{5BDBDF95-A114-D34B-9842-3CB243171EE0}"/>
+    <workbookView xWindow="0" yWindow="540" windowWidth="38200" windowHeight="19700" activeTab="6" xr2:uid="{5BDBDF95-A114-D34B-9842-3CB243171EE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Intercept models" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="MLMR mod 2b - SSD interactions" sheetId="4" r:id="rId4"/>
     <sheet name="MLMR mod 2c - SSD subsets" sheetId="5" r:id="rId5"/>
     <sheet name="Intercept mod - D matrices" sheetId="6" r:id="rId6"/>
+    <sheet name="Pers mod - D matrices" sheetId="7" r:id="rId7"/>
+    <sheet name="SSD mod - D matrices" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4708" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5076" uniqueCount="677">
   <si>
     <t xml:space="preserve">Intercept only models are our most simple multilevel mixed models to compare SMD (means) and lnCVR (variance) for males and females, in each taxo group. </t>
   </si>
@@ -2055,6 +2057,12 @@
   </si>
   <si>
     <t>p=0.57</t>
+  </si>
+  <si>
+    <t>Random Effects Multilevel Models - Personality traits and taxonomic group + D matrices</t>
+  </si>
+  <si>
+    <t>D matrix model - rho=0.8</t>
   </si>
 </sst>
 </file>
@@ -4366,7 +4374,7 @@
   <dimension ref="A1:AS39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+      <selection activeCell="A5" sqref="A5:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27829,8 +27837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD410016-5453-B440-8D87-EB82EDF8C5D9}">
   <dimension ref="A1:AJ47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE46" sqref="AE46"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30542,4 +30550,2832 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6883732-3BB9-264E-82EA-376E03E81719}">
+  <dimension ref="A1:AS33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:45" s="11" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="10"/>
+      <c r="AJ3" s="10"/>
+      <c r="AK3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL3" s="10"/>
+      <c r="AM3" s="10"/>
+      <c r="AN3" s="10"/>
+      <c r="AO3" s="10"/>
+      <c r="AP3" s="10"/>
+      <c r="AQ3" s="10"/>
+      <c r="AR3" s="10"/>
+      <c r="AS3" s="10"/>
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK4" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="5">
+        <v>2645.28</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="5">
+        <v>1787.2</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="T5" s="5">
+        <v>2019.12</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC5" s="5">
+        <v>2219.16</v>
+      </c>
+      <c r="AD5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL5" s="5">
+        <v>138.69999999999999</v>
+      </c>
+      <c r="AM5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN5" s="5"/>
+      <c r="AO5" s="5"/>
+      <c r="AP5" s="5"/>
+      <c r="AQ5" s="5"/>
+      <c r="AR5" s="5"/>
+      <c r="AS5" s="5"/>
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="5">
+        <v>2.79</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0.71</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="T6" s="5">
+        <v>3.53</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC6" s="5">
+        <v>1.41</v>
+      </c>
+      <c r="AD6" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL6" s="5">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="AM6" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AN6" s="5"/>
+      <c r="AO6" s="5"/>
+      <c r="AP6" s="5"/>
+      <c r="AQ6" s="5"/>
+      <c r="AR6" s="5"/>
+      <c r="AS6" s="5"/>
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="22"/>
+      <c r="Y7" s="22"/>
+      <c r="Z7" s="22"/>
+      <c r="AA7" s="22"/>
+      <c r="AB7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC7" s="22"/>
+      <c r="AD7" s="22"/>
+      <c r="AE7" s="22"/>
+      <c r="AF7" s="22"/>
+      <c r="AG7" s="22"/>
+      <c r="AH7" s="22"/>
+      <c r="AI7" s="22"/>
+      <c r="AJ7" s="22"/>
+      <c r="AK7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL7" s="22"/>
+      <c r="AM7" s="22"/>
+      <c r="AN7" s="22"/>
+      <c r="AO7" s="22"/>
+      <c r="AP7" s="22"/>
+      <c r="AQ7" s="22"/>
+      <c r="AR7" s="22"/>
+      <c r="AS7" s="22"/>
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A8" s="8"/>
+      <c r="B8" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="U8" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="V8" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="W8" s="40"/>
+      <c r="X8" s="40"/>
+      <c r="Y8" s="40"/>
+      <c r="Z8" s="40"/>
+      <c r="AA8" s="40"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD8" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE8" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF8" s="40"/>
+      <c r="AG8" s="40"/>
+      <c r="AH8" s="40"/>
+      <c r="AI8" s="40"/>
+      <c r="AJ8" s="40"/>
+      <c r="AK8" s="8"/>
+      <c r="AL8" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM8" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN8" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO8" s="40"/>
+      <c r="AP8" s="40"/>
+      <c r="AQ8" s="40"/>
+      <c r="AR8" s="40"/>
+      <c r="AS8" s="40"/>
+    </row>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0.72</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="D9" s="5">
+        <v>51</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="M9" s="5">
+        <v>44</v>
+      </c>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="T9" s="5">
+        <v>0.93</v>
+      </c>
+      <c r="U9" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="V9" s="5">
+        <v>44</v>
+      </c>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC9" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="AD9" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="AE9" s="5">
+        <v>61</v>
+      </c>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL9" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="AM9" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="AN9" s="5">
+        <v>11</v>
+      </c>
+      <c r="AO9" s="5"/>
+      <c r="AP9" s="5"/>
+      <c r="AQ9" s="5"/>
+      <c r="AR9" s="5"/>
+      <c r="AS9" s="5"/>
+    </row>
+    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>107</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="M10" s="5">
+        <v>22</v>
+      </c>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="T10" s="5">
+        <v>0</v>
+      </c>
+      <c r="U10" s="5">
+        <v>1E-4</v>
+      </c>
+      <c r="V10" s="5">
+        <v>41</v>
+      </c>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC10" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="AD10" s="5">
+        <v>0.24</v>
+      </c>
+      <c r="AE10" s="5">
+        <v>45</v>
+      </c>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="5"/>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="5"/>
+      <c r="AK10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="5">
+        <v>10</v>
+      </c>
+      <c r="AO10" s="5"/>
+      <c r="AP10" s="5"/>
+      <c r="AQ10" s="5"/>
+      <c r="AR10" s="5"/>
+      <c r="AS10" s="5"/>
+    </row>
+    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="D11" s="5">
+        <v>506</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="L11" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="M11" s="5">
+        <v>502</v>
+      </c>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="T11" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="U11" s="5">
+        <v>0.32</v>
+      </c>
+      <c r="V11" s="5">
+        <v>468</v>
+      </c>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC11" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="AD11" s="5">
+        <v>0.39</v>
+      </c>
+      <c r="AE11" s="5">
+        <v>700</v>
+      </c>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="5"/>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL11" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="AM11" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AN11" s="5">
+        <v>95</v>
+      </c>
+      <c r="AO11" s="5"/>
+      <c r="AP11" s="5"/>
+      <c r="AQ11" s="5"/>
+      <c r="AR11" s="5"/>
+      <c r="AS11" s="5"/>
+    </row>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="22"/>
+      <c r="X12" s="22"/>
+      <c r="Y12" s="22"/>
+      <c r="Z12" s="22"/>
+      <c r="AA12" s="22"/>
+      <c r="AB12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC12" s="22"/>
+      <c r="AD12" s="22"/>
+      <c r="AE12" s="22"/>
+      <c r="AF12" s="22"/>
+      <c r="AG12" s="22"/>
+      <c r="AH12" s="22"/>
+      <c r="AI12" s="22"/>
+      <c r="AJ12" s="22"/>
+      <c r="AK12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL12" s="22"/>
+      <c r="AM12" s="22"/>
+      <c r="AN12" s="22"/>
+      <c r="AO12" s="22"/>
+      <c r="AP12" s="22"/>
+      <c r="AQ12" s="22"/>
+      <c r="AR12" s="22"/>
+      <c r="AS12" s="22"/>
+    </row>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A13" s="40"/>
+      <c r="B13" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="I13" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="M13" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O13" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="P13" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q13" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="R13" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="S13" s="40"/>
+      <c r="T13" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="U13" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="V13" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="W13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="X13" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y13" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z13" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA13" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB13" s="40"/>
+      <c r="AC13" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD13" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE13" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG13" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH13" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI13" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ13" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK13" s="40"/>
+      <c r="AL13" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM13" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN13" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP13" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="AQ13" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR13" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS13" s="40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="5">
+        <v>-0.08</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14" s="5">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G14" s="13">
+        <v>74</v>
+      </c>
+      <c r="H14" s="13">
+        <v>9</v>
+      </c>
+      <c r="I14" s="13">
+        <v>14</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" s="5">
+        <v>-0.12</v>
+      </c>
+      <c r="L14" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="M14" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="N14" s="5">
+        <v>-0.5</v>
+      </c>
+      <c r="O14" s="5">
+        <v>0.62</v>
+      </c>
+      <c r="P14" s="13">
+        <v>92</v>
+      </c>
+      <c r="Q14" s="13">
+        <v>5</v>
+      </c>
+      <c r="R14" s="13">
+        <v>9</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T14" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="U14" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="V14" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="W14" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="X14" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="Y14" s="13">
+        <v>205</v>
+      </c>
+      <c r="Z14" s="13">
+        <v>20</v>
+      </c>
+      <c r="AA14" s="13">
+        <v>22</v>
+      </c>
+      <c r="AB14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC14" s="5">
+        <v>-0.16</v>
+      </c>
+      <c r="AD14" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE14" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="AF14" s="5">
+        <v>-0.82</v>
+      </c>
+      <c r="AG14" s="5">
+        <v>0.41</v>
+      </c>
+      <c r="AH14" s="13">
+        <v>84</v>
+      </c>
+      <c r="AI14" s="13">
+        <v>12</v>
+      </c>
+      <c r="AJ14" s="13">
+        <v>14</v>
+      </c>
+      <c r="AK14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL14" s="5">
+        <v>-0.04</v>
+      </c>
+      <c r="AM14" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="AN14" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO14" s="5">
+        <v>-0.22</v>
+      </c>
+      <c r="AP14" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="AQ14" s="13">
+        <v>5</v>
+      </c>
+      <c r="AR14" s="13">
+        <v>3</v>
+      </c>
+      <c r="AS14" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="5">
+        <v>-0.12</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" s="5">
+        <v>-0.85</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0.36</v>
+      </c>
+      <c r="G15" s="13">
+        <v>50</v>
+      </c>
+      <c r="H15" s="13">
+        <v>10</v>
+      </c>
+      <c r="I15" s="13">
+        <v>11</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K15" s="5">
+        <v>-0.04</v>
+      </c>
+      <c r="L15" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="M15" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="N15" s="5">
+        <v>-0.16</v>
+      </c>
+      <c r="O15" s="5">
+        <v>0.88</v>
+      </c>
+      <c r="P15" s="13">
+        <v>95</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>14</v>
+      </c>
+      <c r="R15" s="13">
+        <v>17</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="T15" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="U15" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="V15" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="W15" s="5">
+        <v>2.31</v>
+      </c>
+      <c r="X15" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="Y15" s="5">
+        <v>45</v>
+      </c>
+      <c r="Z15" s="5">
+        <v>10</v>
+      </c>
+      <c r="AA15" s="5">
+        <v>9</v>
+      </c>
+      <c r="AB15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC15" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="AD15" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE15" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF15" s="5">
+        <v>0.59</v>
+      </c>
+      <c r="AG15" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AH15" s="13">
+        <v>87</v>
+      </c>
+      <c r="AI15" s="13">
+        <v>14</v>
+      </c>
+      <c r="AJ15" s="13">
+        <v>16</v>
+      </c>
+      <c r="AK15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL15" s="5">
+        <v>-0.12</v>
+      </c>
+      <c r="AM15" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="AN15" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="AO15" s="5">
+        <v>-0.76</v>
+      </c>
+      <c r="AP15" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="AQ15" s="13">
+        <v>30</v>
+      </c>
+      <c r="AR15" s="13">
+        <v>2</v>
+      </c>
+      <c r="AS15" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="5">
+        <v>-0.12</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" s="5">
+        <v>-0.92</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0.36</v>
+      </c>
+      <c r="G16" s="13">
+        <v>264</v>
+      </c>
+      <c r="H16" s="13">
+        <v>96</v>
+      </c>
+      <c r="I16" s="13">
+        <v>24</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K16" s="5">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="L16" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="M16" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="N16" s="5">
+        <v>-0.32</v>
+      </c>
+      <c r="O16" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="P16" s="13">
+        <v>176</v>
+      </c>
+      <c r="Q16" s="13">
+        <v>13</v>
+      </c>
+      <c r="R16" s="13">
+        <v>24</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="T16" s="5">
+        <v>0.23</v>
+      </c>
+      <c r="U16" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="V16" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="W16" s="5">
+        <v>1.48</v>
+      </c>
+      <c r="X16" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Y16" s="13">
+        <v>178</v>
+      </c>
+      <c r="Z16" s="13">
+        <v>26</v>
+      </c>
+      <c r="AA16" s="13">
+        <v>27</v>
+      </c>
+      <c r="AB16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC16" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="AD16" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE16" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF16" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="AG16" s="5">
+        <v>0.34</v>
+      </c>
+      <c r="AH16" s="13">
+        <v>208</v>
+      </c>
+      <c r="AI16" s="13">
+        <v>27</v>
+      </c>
+      <c r="AJ16" s="13">
+        <v>27</v>
+      </c>
+      <c r="AK16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL16" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="AM16" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="AN16" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO16" s="5">
+        <v>0.68</v>
+      </c>
+      <c r="AP16" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AQ16" s="13">
+        <v>25</v>
+      </c>
+      <c r="AR16" s="13">
+        <v>3</v>
+      </c>
+      <c r="AS16" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0.73</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="G17" s="13">
+        <v>84</v>
+      </c>
+      <c r="H17" s="13">
+        <v>9</v>
+      </c>
+      <c r="I17" s="13">
+        <v>16</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K17" s="5">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="L17" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="M17" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="N17" s="5">
+        <v>-0.03</v>
+      </c>
+      <c r="O17" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="P17" s="13">
+        <v>105</v>
+      </c>
+      <c r="Q17" s="13">
+        <v>8</v>
+      </c>
+      <c r="R17" s="13">
+        <v>11</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="T17" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="U17" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="V17" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="W17" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="X17" s="5">
+        <v>0.65</v>
+      </c>
+      <c r="Y17" s="13">
+        <v>31</v>
+      </c>
+      <c r="Z17" s="13">
+        <v>8</v>
+      </c>
+      <c r="AA17" s="13">
+        <v>9</v>
+      </c>
+      <c r="AB17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC17" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="AD17" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE17" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF17" s="5">
+        <v>0.26</v>
+      </c>
+      <c r="AG17" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="AH17" s="13">
+        <v>223</v>
+      </c>
+      <c r="AI17" s="13">
+        <v>16</v>
+      </c>
+      <c r="AJ17" s="13">
+        <v>19</v>
+      </c>
+      <c r="AK17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL17" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="AM17" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="AN17" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO17" s="5">
+        <v>2.21</v>
+      </c>
+      <c r="AP17" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="AQ17" s="13">
+        <v>32</v>
+      </c>
+      <c r="AR17" s="13">
+        <v>4</v>
+      </c>
+      <c r="AS17" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:45" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="15">
+        <v>-0.48</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="E18" s="15">
+        <v>-2.0699999999999998</v>
+      </c>
+      <c r="F18" s="15">
+        <v>0.04</v>
+      </c>
+      <c r="G18" s="15">
+        <v>34</v>
+      </c>
+      <c r="H18" s="15">
+        <v>3</v>
+      </c>
+      <c r="I18" s="15">
+        <v>4</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="K18" s="15">
+        <v>-0.25</v>
+      </c>
+      <c r="L18" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="M18" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="N18" s="15">
+        <v>-1.01</v>
+      </c>
+      <c r="O18" s="15">
+        <v>0.31</v>
+      </c>
+      <c r="P18" s="15">
+        <v>34</v>
+      </c>
+      <c r="Q18" s="15">
+        <v>6</v>
+      </c>
+      <c r="R18" s="15">
+        <v>7</v>
+      </c>
+      <c r="S18" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="T18" s="15">
+        <v>0.27</v>
+      </c>
+      <c r="U18" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="V18" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="W18" s="15">
+        <v>1.22</v>
+      </c>
+      <c r="X18" s="15">
+        <v>0.22</v>
+      </c>
+      <c r="Y18" s="15">
+        <v>9</v>
+      </c>
+      <c r="Z18" s="15">
+        <v>2</v>
+      </c>
+      <c r="AA18" s="15">
+        <v>2</v>
+      </c>
+      <c r="AB18" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC18" s="15">
+        <v>0.09</v>
+      </c>
+      <c r="AD18" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE18" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="AF18" s="15">
+        <v>0.46</v>
+      </c>
+      <c r="AG18" s="15">
+        <v>0.64</v>
+      </c>
+      <c r="AH18" s="15">
+        <v>98</v>
+      </c>
+      <c r="AI18" s="15">
+        <v>10</v>
+      </c>
+      <c r="AJ18" s="15">
+        <v>12</v>
+      </c>
+      <c r="AK18" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL18" s="15">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="AM18" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="AN18" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO18" s="15">
+        <v>-0.03</v>
+      </c>
+      <c r="AP18" s="15">
+        <v>0.98</v>
+      </c>
+      <c r="AQ18" s="15">
+        <v>3</v>
+      </c>
+      <c r="AR18" s="15">
+        <v>2</v>
+      </c>
+      <c r="AS18" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK19" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="5">
+        <v>3662.93</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K20" s="5">
+        <v>966.49</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="T20" s="5">
+        <v>1272.45</v>
+      </c>
+      <c r="U20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB20" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC20" s="5">
+        <v>1077.55</v>
+      </c>
+      <c r="AD20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK20" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL20" s="5">
+        <v>49.94</v>
+      </c>
+      <c r="AM20" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="5">
+        <v>1.79</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K21" s="5">
+        <v>1.73</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="S21" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="T21" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="U21" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB21" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC21" s="5">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AD21" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="AK21" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL21" s="5">
+        <v>1.48</v>
+      </c>
+      <c r="AM21" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="T22" s="22"/>
+      <c r="U22" s="22"/>
+      <c r="V22" s="22"/>
+      <c r="W22" s="22"/>
+      <c r="X22" s="22"/>
+      <c r="Y22" s="22"/>
+      <c r="Z22" s="22"/>
+      <c r="AA22" s="22"/>
+      <c r="AB22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC22" s="22"/>
+      <c r="AD22" s="22"/>
+      <c r="AE22" s="22"/>
+      <c r="AF22" s="22"/>
+      <c r="AG22" s="22"/>
+      <c r="AH22" s="22"/>
+      <c r="AI22" s="22"/>
+      <c r="AJ22" s="22"/>
+      <c r="AK22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL22" s="22"/>
+      <c r="AM22" s="22"/>
+      <c r="AN22" s="22"/>
+      <c r="AO22" s="22"/>
+      <c r="AP22" s="22"/>
+      <c r="AQ22" s="22"/>
+      <c r="AR22" s="22"/>
+      <c r="AS22" s="22"/>
+    </row>
+    <row r="23" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="8"/>
+      <c r="B23" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="L23" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="M23" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="U23" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="V23" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="W23" s="40"/>
+      <c r="X23" s="40"/>
+      <c r="Y23" s="40"/>
+      <c r="Z23" s="40"/>
+      <c r="AA23" s="40"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD23" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE23" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF23" s="40"/>
+      <c r="AG23" s="40"/>
+      <c r="AH23" s="40"/>
+      <c r="AI23" s="40"/>
+      <c r="AJ23" s="40"/>
+      <c r="AK23" s="8"/>
+      <c r="AL23" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM23" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN23" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO23" s="40"/>
+      <c r="AP23" s="40"/>
+      <c r="AQ23" s="40"/>
+      <c r="AR23" s="40"/>
+      <c r="AS23" s="40"/>
+    </row>
+    <row r="24" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="5">
+        <v>0.31</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D24" s="5">
+        <v>51</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="L24" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="M24" s="5">
+        <v>44</v>
+      </c>
+      <c r="S24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="T24" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="U24" s="5">
+        <v>0.23</v>
+      </c>
+      <c r="V24" s="5">
+        <v>44</v>
+      </c>
+      <c r="AB24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC24" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="AD24" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="AE24" s="5">
+        <v>61</v>
+      </c>
+      <c r="AK24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN24" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="5">
+        <v>0</v>
+      </c>
+      <c r="C25" s="5">
+        <v>1E-4</v>
+      </c>
+      <c r="D25" s="5">
+        <v>107</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K25" s="5">
+        <v>0</v>
+      </c>
+      <c r="L25" s="5">
+        <v>0</v>
+      </c>
+      <c r="M25" s="5">
+        <v>22</v>
+      </c>
+      <c r="S25" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="T25" s="5">
+        <v>0</v>
+      </c>
+      <c r="U25" s="5">
+        <v>0</v>
+      </c>
+      <c r="V25" s="5">
+        <v>41</v>
+      </c>
+      <c r="AB25" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC25" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="AD25" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="AE25" s="5">
+        <v>45</v>
+      </c>
+      <c r="AK25" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN25" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="5">
+        <v>0.38</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0.62</v>
+      </c>
+      <c r="D26" s="5">
+        <v>506</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K26" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="L26" s="5">
+        <v>0.32</v>
+      </c>
+      <c r="M26" s="5">
+        <v>502</v>
+      </c>
+      <c r="S26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="T26" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="U26" s="5">
+        <v>0.26</v>
+      </c>
+      <c r="V26" s="5">
+        <v>468</v>
+      </c>
+      <c r="AB26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC26" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="AD26" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="AE26" s="5">
+        <v>700</v>
+      </c>
+      <c r="AK26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN26" s="5">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="T27" s="22"/>
+      <c r="U27" s="22"/>
+      <c r="V27" s="22"/>
+      <c r="W27" s="22"/>
+      <c r="X27" s="22"/>
+      <c r="Y27" s="22"/>
+      <c r="Z27" s="22"/>
+      <c r="AA27" s="22"/>
+      <c r="AB27" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC27" s="22"/>
+      <c r="AD27" s="22"/>
+      <c r="AE27" s="22"/>
+      <c r="AF27" s="22"/>
+      <c r="AG27" s="22"/>
+      <c r="AH27" s="22"/>
+      <c r="AI27" s="22"/>
+      <c r="AJ27" s="22"/>
+      <c r="AK27" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL27" s="22"/>
+      <c r="AM27" s="22"/>
+      <c r="AN27" s="22"/>
+      <c r="AO27" s="22"/>
+      <c r="AP27" s="22"/>
+      <c r="AQ27" s="22"/>
+      <c r="AR27" s="22"/>
+      <c r="AS27" s="22"/>
+    </row>
+    <row r="28" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="I28" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="M28" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="N28" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="O28" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P28" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q28" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="R28" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="T28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="U28" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="V28" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="W28" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="X28" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y28" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z28" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA28" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD28" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE28" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF28" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG28" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH28" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI28" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ28" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM28" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN28" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO28" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP28" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AQ28" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR28" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS28" s="40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="22">
+        <v>0.02</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="E29" s="22">
+        <v>0.17</v>
+      </c>
+      <c r="F29" s="22">
+        <v>0.87</v>
+      </c>
+      <c r="G29" s="13">
+        <v>74</v>
+      </c>
+      <c r="H29" s="13">
+        <v>9</v>
+      </c>
+      <c r="I29" s="13">
+        <v>14</v>
+      </c>
+      <c r="J29" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="K29" s="22">
+        <v>-0.02</v>
+      </c>
+      <c r="L29" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="M29" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="N29" s="22">
+        <v>-0.34</v>
+      </c>
+      <c r="O29" s="22">
+        <v>0.73</v>
+      </c>
+      <c r="P29" s="13">
+        <v>92</v>
+      </c>
+      <c r="Q29" s="13">
+        <v>5</v>
+      </c>
+      <c r="R29" s="13">
+        <v>9</v>
+      </c>
+      <c r="S29" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="T29" s="22">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="U29" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="V29" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="W29" s="22">
+        <v>-2.44</v>
+      </c>
+      <c r="X29" s="22">
+        <v>0.01</v>
+      </c>
+      <c r="Y29" s="13">
+        <v>205</v>
+      </c>
+      <c r="Z29" s="13">
+        <v>20</v>
+      </c>
+      <c r="AA29" s="13">
+        <v>22</v>
+      </c>
+      <c r="AB29" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC29" s="22">
+        <v>0.12</v>
+      </c>
+      <c r="AD29" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE29" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="AF29" s="22">
+        <v>0.76</v>
+      </c>
+      <c r="AG29" s="22">
+        <v>0.45</v>
+      </c>
+      <c r="AH29" s="13">
+        <v>84</v>
+      </c>
+      <c r="AI29" s="13">
+        <v>12</v>
+      </c>
+      <c r="AJ29" s="13">
+        <v>14</v>
+      </c>
+      <c r="AK29" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL29" s="22">
+        <v>-0.1</v>
+      </c>
+      <c r="AM29" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="AN29" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="AO29" s="22">
+        <v>-0.69</v>
+      </c>
+      <c r="AP29" s="22">
+        <v>0.49</v>
+      </c>
+      <c r="AQ29" s="13">
+        <v>5</v>
+      </c>
+      <c r="AR29" s="13">
+        <v>3</v>
+      </c>
+      <c r="AS29" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="23">
+        <v>-0.09</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="E30" s="23">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="F30" s="23">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G30" s="13">
+        <v>50</v>
+      </c>
+      <c r="H30" s="13">
+        <v>10</v>
+      </c>
+      <c r="I30" s="13">
+        <v>11</v>
+      </c>
+      <c r="J30" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="K30" s="23">
+        <v>-0.13</v>
+      </c>
+      <c r="L30" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="M30" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="N30" s="23">
+        <v>-2.08</v>
+      </c>
+      <c r="O30" s="23">
+        <v>0.04</v>
+      </c>
+      <c r="P30" s="13">
+        <v>95</v>
+      </c>
+      <c r="Q30" s="13">
+        <v>14</v>
+      </c>
+      <c r="R30" s="13">
+        <v>17</v>
+      </c>
+      <c r="S30" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="T30" s="23">
+        <v>-0.05</v>
+      </c>
+      <c r="U30" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="V30" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="W30" s="23">
+        <v>-0.5</v>
+      </c>
+      <c r="X30" s="23">
+        <v>0.62</v>
+      </c>
+      <c r="Y30" s="5">
+        <v>45</v>
+      </c>
+      <c r="Z30" s="5">
+        <v>10</v>
+      </c>
+      <c r="AA30" s="5">
+        <v>9</v>
+      </c>
+      <c r="AB30" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC30" s="23">
+        <v>0.11</v>
+      </c>
+      <c r="AD30" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="AE30" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="AF30" s="23">
+        <v>0.73</v>
+      </c>
+      <c r="AG30" s="23">
+        <v>0.46</v>
+      </c>
+      <c r="AH30" s="13">
+        <v>87</v>
+      </c>
+      <c r="AI30" s="13">
+        <v>14</v>
+      </c>
+      <c r="AJ30" s="13">
+        <v>16</v>
+      </c>
+      <c r="AK30" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL30" s="23">
+        <v>0.16</v>
+      </c>
+      <c r="AM30" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="AN30" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="AO30" s="23">
+        <v>1.89</v>
+      </c>
+      <c r="AP30" s="23">
+        <v>0.06</v>
+      </c>
+      <c r="AQ30" s="13">
+        <v>30</v>
+      </c>
+      <c r="AR30" s="13">
+        <v>2</v>
+      </c>
+      <c r="AS30" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="D31" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="E31" s="23">
+        <v>0.21</v>
+      </c>
+      <c r="F31" s="23">
+        <v>0.83</v>
+      </c>
+      <c r="G31" s="13">
+        <v>264</v>
+      </c>
+      <c r="H31" s="13">
+        <v>96</v>
+      </c>
+      <c r="I31" s="13">
+        <v>24</v>
+      </c>
+      <c r="J31" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="K31" s="23">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="L31" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="M31" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="N31" s="23">
+        <v>-0.09</v>
+      </c>
+      <c r="O31" s="23">
+        <v>0.93</v>
+      </c>
+      <c r="P31" s="13">
+        <v>176</v>
+      </c>
+      <c r="Q31" s="13">
+        <v>13</v>
+      </c>
+      <c r="R31" s="13">
+        <v>24</v>
+      </c>
+      <c r="S31" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="T31" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="U31" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="V31" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="W31" s="23">
+        <v>0.23</v>
+      </c>
+      <c r="X31" s="23">
+        <v>0.82</v>
+      </c>
+      <c r="Y31" s="13">
+        <v>178</v>
+      </c>
+      <c r="Z31" s="13">
+        <v>26</v>
+      </c>
+      <c r="AA31" s="13">
+        <v>27</v>
+      </c>
+      <c r="AB31" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC31" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="AD31" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE31" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="AF31" s="23">
+        <v>0.34</v>
+      </c>
+      <c r="AG31" s="23">
+        <v>0.74</v>
+      </c>
+      <c r="AH31" s="13">
+        <v>208</v>
+      </c>
+      <c r="AI31" s="13">
+        <v>27</v>
+      </c>
+      <c r="AJ31" s="13">
+        <v>27</v>
+      </c>
+      <c r="AK31" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL31" s="23">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AM31" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="AN31" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="AO31" s="23">
+        <v>1</v>
+      </c>
+      <c r="AP31" s="23">
+        <v>0.32</v>
+      </c>
+      <c r="AQ31" s="13">
+        <v>25</v>
+      </c>
+      <c r="AR31" s="13">
+        <v>3</v>
+      </c>
+      <c r="AS31" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="23">
+        <v>-0.31</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="E32" s="23">
+        <v>-2.38</v>
+      </c>
+      <c r="F32" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="G32" s="13">
+        <v>84</v>
+      </c>
+      <c r="H32" s="13">
+        <v>9</v>
+      </c>
+      <c r="I32" s="13">
+        <v>16</v>
+      </c>
+      <c r="J32" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="K32" s="23">
+        <v>-0.03</v>
+      </c>
+      <c r="L32" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="M32" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="N32" s="23">
+        <v>-0.5</v>
+      </c>
+      <c r="O32" s="23">
+        <v>0.62</v>
+      </c>
+      <c r="P32" s="13">
+        <v>105</v>
+      </c>
+      <c r="Q32" s="13">
+        <v>8</v>
+      </c>
+      <c r="R32" s="13">
+        <v>11</v>
+      </c>
+      <c r="S32" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="T32" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="U32" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="V32" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="W32" s="23">
+        <v>1.17</v>
+      </c>
+      <c r="X32" s="23">
+        <v>0.24</v>
+      </c>
+      <c r="Y32" s="13">
+        <v>31</v>
+      </c>
+      <c r="Z32" s="13">
+        <v>8</v>
+      </c>
+      <c r="AA32" s="13">
+        <v>9</v>
+      </c>
+      <c r="AB32" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC32" s="23">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AD32" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="AE32" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="AF32" s="23">
+        <v>0.47</v>
+      </c>
+      <c r="AG32" s="23">
+        <v>0.64</v>
+      </c>
+      <c r="AH32" s="13">
+        <v>223</v>
+      </c>
+      <c r="AI32" s="13">
+        <v>16</v>
+      </c>
+      <c r="AJ32" s="13">
+        <v>19</v>
+      </c>
+      <c r="AK32" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL32" s="23">
+        <v>-0.12</v>
+      </c>
+      <c r="AM32" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN32" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO32" s="23">
+        <v>-1.52</v>
+      </c>
+      <c r="AP32" s="23">
+        <v>0.13</v>
+      </c>
+      <c r="AQ32" s="13">
+        <v>32</v>
+      </c>
+      <c r="AR32" s="13">
+        <v>4</v>
+      </c>
+      <c r="AS32" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:45" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="E33" s="15">
+        <v>0.39</v>
+      </c>
+      <c r="F33" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="G33" s="15">
+        <v>34</v>
+      </c>
+      <c r="H33" s="15">
+        <v>3</v>
+      </c>
+      <c r="I33" s="15">
+        <v>4</v>
+      </c>
+      <c r="J33" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="K33" s="15">
+        <v>0.17</v>
+      </c>
+      <c r="L33" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="M33" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="N33" s="15">
+        <v>1.91</v>
+      </c>
+      <c r="O33" s="15">
+        <v>0.06</v>
+      </c>
+      <c r="P33" s="15">
+        <v>34</v>
+      </c>
+      <c r="Q33" s="15">
+        <v>6</v>
+      </c>
+      <c r="R33" s="15">
+        <v>7</v>
+      </c>
+      <c r="S33" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="T33" s="15">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="U33" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="V33" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="W33" s="15">
+        <v>0.89</v>
+      </c>
+      <c r="X33" s="15">
+        <v>0.37</v>
+      </c>
+      <c r="Y33" s="15">
+        <v>9</v>
+      </c>
+      <c r="Z33" s="15">
+        <v>2</v>
+      </c>
+      <c r="AA33" s="15">
+        <v>2</v>
+      </c>
+      <c r="AB33" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC33" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="AD33" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE33" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="AF33" s="15">
+        <v>0.33</v>
+      </c>
+      <c r="AG33" s="15">
+        <v>0.74</v>
+      </c>
+      <c r="AH33" s="15">
+        <v>98</v>
+      </c>
+      <c r="AI33" s="15">
+        <v>10</v>
+      </c>
+      <c r="AJ33" s="15">
+        <v>12</v>
+      </c>
+      <c r="AK33" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL33" s="15">
+        <v>0.03</v>
+      </c>
+      <c r="AM33" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="AN33" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="AO33" s="15">
+        <v>0.11</v>
+      </c>
+      <c r="AP33" s="15">
+        <v>0.91</v>
+      </c>
+      <c r="AQ33" s="15">
+        <v>3</v>
+      </c>
+      <c r="AR33" s="15">
+        <v>2</v>
+      </c>
+      <c r="AS33" s="15">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{874C765E-59DE-F948-9551-81BCA563B9B5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ms/Updated model output 17-4-20.xlsx
+++ b/ms/Updated model output 17-4-20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenharrison/Documents/GitHub/sex_meta/ms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388B46A6-4641-4D4A-933A-268FECDFA6A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3202D9-2719-034E-B96D-71B11E94621D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="540" windowWidth="38200" windowHeight="19700" activeTab="6" xr2:uid="{5BDBDF95-A114-D34B-9842-3CB243171EE0}"/>
+    <workbookView xWindow="420" yWindow="460" windowWidth="38200" windowHeight="19700" xr2:uid="{5BDBDF95-A114-D34B-9842-3CB243171EE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Intercept models" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,6 @@
     <sheet name="MLMR mod 2a - SSD factor only" sheetId="3" r:id="rId3"/>
     <sheet name="MLMR mod 2b - SSD interactions" sheetId="4" r:id="rId4"/>
     <sheet name="MLMR mod 2c - SSD subsets" sheetId="5" r:id="rId5"/>
-    <sheet name="Intercept mod - D matrices" sheetId="6" r:id="rId6"/>
-    <sheet name="Pers mod - D matrices" sheetId="7" r:id="rId7"/>
-    <sheet name="SSD mod - D matrices" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5076" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4268" uniqueCount="629">
   <si>
     <t xml:space="preserve">Intercept only models are our most simple multilevel mixed models to compare SMD (means) and lnCVR (variance) for males and females, in each taxo group. </t>
   </si>
@@ -1919,150 +1916,6 @@
   </si>
   <si>
     <t>-0.05, 0.11</t>
-  </si>
-  <si>
-    <t>Intercept Only Models - with D matrix (rho = 0.3)</t>
-  </si>
-  <si>
-    <t>QE</t>
-  </si>
-  <si>
-    <t>p&lt;0.001</t>
-  </si>
-  <si>
-    <t>QM</t>
-  </si>
-  <si>
-    <t>p=0.46</t>
-  </si>
-  <si>
-    <t>Slope (beta)</t>
-  </si>
-  <si>
-    <t>-0.33, 0.15</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>vb</t>
-  </si>
-  <si>
-    <t>p=0.17</t>
-  </si>
-  <si>
-    <t>p=0.5</t>
-  </si>
-  <si>
-    <t>-0.35, 0.36</t>
-  </si>
-  <si>
-    <t>-0.09, 0.48</t>
-  </si>
-  <si>
-    <t>-0.11 0.22</t>
-  </si>
-  <si>
-    <t>-0.26, 0.12</t>
-  </si>
-  <si>
-    <t>-0.13, 0.04</t>
-  </si>
-  <si>
-    <t>-0.15, 0.27</t>
-  </si>
-  <si>
-    <t>-0.07, 0.11</t>
-  </si>
-  <si>
-    <t>p=0</t>
-  </si>
-  <si>
-    <t>p=0.59</t>
-  </si>
-  <si>
-    <t>p=0.3</t>
-  </si>
-  <si>
-    <t>p=0.999</t>
-  </si>
-  <si>
-    <t>Intercept Only Models - with D matrix (rho = 0.5)</t>
-  </si>
-  <si>
-    <t>Intercept Only Models - with D matrix (rho = 0.8)</t>
-  </si>
-  <si>
-    <t>-0.32, 0.15</t>
-  </si>
-  <si>
-    <t>p=0.47</t>
-  </si>
-  <si>
-    <t>p=0.87</t>
-  </si>
-  <si>
-    <t>-0.31, 0.37</t>
-  </si>
-  <si>
-    <t>-0.09, 0.49</t>
-  </si>
-  <si>
-    <t>p=0.64</t>
-  </si>
-  <si>
-    <t>-0.26, 0.41</t>
-  </si>
-  <si>
-    <t>-0.11 0.23</t>
-  </si>
-  <si>
-    <t>-0.27, 0.12</t>
-  </si>
-  <si>
-    <t>-0.08, 0.05</t>
-  </si>
-  <si>
-    <t>-0.13, 0.23</t>
-  </si>
-  <si>
-    <t>p=0.62</t>
-  </si>
-  <si>
-    <t>p=0.58</t>
-  </si>
-  <si>
-    <t>-0.09, 0.50</t>
-  </si>
-  <si>
-    <t>-0.23, 0.39</t>
-  </si>
-  <si>
-    <t>p=0.65</t>
-  </si>
-  <si>
-    <t>-0.23, 0.12</t>
-  </si>
-  <si>
-    <t>-0.09, 0.05</t>
-  </si>
-  <si>
-    <t>-0.11, 0.20</t>
-  </si>
-  <si>
-    <t>p=0.52</t>
-  </si>
-  <si>
-    <t>p=0.57</t>
-  </si>
-  <si>
-    <t>Random Effects Multilevel Models - Personality traits and taxonomic group + D matrices</t>
-  </si>
-  <si>
-    <t>D matrix model - rho=0.8</t>
   </si>
 </sst>
 </file>
@@ -2135,7 +1988,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2181,22 +2034,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2243,12 +2085,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2565,8 +2401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DAF7C5E-35C2-0343-8AC1-0E9A3B22FC74}">
   <dimension ref="A1:AI60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27831,5551 +27667,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD410016-5453-B440-8D87-EB82EDF8C5D9}">
-  <dimension ref="A1:AJ47"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:36" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD5" s="3"/>
-      <c r="AE5" s="3"/>
-      <c r="AF5" s="3"/>
-      <c r="AG5" s="3"/>
-      <c r="AH5" s="3"/>
-      <c r="AI5" s="3"/>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC6" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A7" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="W7" s="19"/>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="19"/>
-      <c r="Z7" s="19"/>
-      <c r="AA7" s="19"/>
-      <c r="AB7" s="19"/>
-      <c r="AC7" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD7" s="19"/>
-      <c r="AE7" s="19"/>
-      <c r="AF7" s="19"/>
-      <c r="AG7" s="19"/>
-      <c r="AH7" s="19"/>
-      <c r="AI7" s="19"/>
-      <c r="AJ7" s="19"/>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A8" s="23" t="s">
-        <v>630</v>
-      </c>
-      <c r="B8" s="19">
-        <v>2765.94</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>631</v>
-      </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="23" t="s">
-        <v>630</v>
-      </c>
-      <c r="I8" s="19">
-        <v>1825.48</v>
-      </c>
-      <c r="J8" s="19" t="s">
-        <v>631</v>
-      </c>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="23" t="s">
-        <v>630</v>
-      </c>
-      <c r="P8" s="19">
-        <v>2055.31</v>
-      </c>
-      <c r="Q8" s="19" t="s">
-        <v>631</v>
-      </c>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
-      <c r="V8" s="23" t="s">
-        <v>630</v>
-      </c>
-      <c r="W8" s="19">
-        <v>2275.7399999999998</v>
-      </c>
-      <c r="X8" s="19" t="s">
-        <v>631</v>
-      </c>
-      <c r="Y8" s="19"/>
-      <c r="Z8" s="19"/>
-      <c r="AA8" s="19"/>
-      <c r="AB8" s="19"/>
-      <c r="AC8" s="23" t="s">
-        <v>630</v>
-      </c>
-      <c r="AD8" s="19">
-        <v>151.15</v>
-      </c>
-      <c r="AE8" s="19" t="s">
-        <v>631</v>
-      </c>
-      <c r="AF8" s="19"/>
-      <c r="AG8" s="19"/>
-      <c r="AH8" s="19"/>
-      <c r="AI8" s="19"/>
-      <c r="AJ8" s="19"/>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
-        <v>632</v>
-      </c>
-      <c r="B9" s="19">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>633</v>
-      </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="23" t="s">
-        <v>632</v>
-      </c>
-      <c r="I9" s="19">
-        <v>0</v>
-      </c>
-      <c r="J9" s="19" t="s">
-        <v>299</v>
-      </c>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="23" t="s">
-        <v>632</v>
-      </c>
-      <c r="P9" s="19">
-        <v>1.88</v>
-      </c>
-      <c r="Q9" s="19" t="s">
-        <v>639</v>
-      </c>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="23" t="s">
-        <v>632</v>
-      </c>
-      <c r="W9" s="19">
-        <v>0.21</v>
-      </c>
-      <c r="X9" s="19" t="s">
-        <v>669</v>
-      </c>
-      <c r="Y9" s="19"/>
-      <c r="Z9" s="19"/>
-      <c r="AA9" s="19"/>
-      <c r="AB9" s="19"/>
-      <c r="AC9" s="23" t="s">
-        <v>632</v>
-      </c>
-      <c r="AD9" s="19">
-        <v>0.46</v>
-      </c>
-      <c r="AE9" s="19" t="s">
-        <v>640</v>
-      </c>
-      <c r="AF9" s="19"/>
-      <c r="AG9" s="19"/>
-      <c r="AH9" s="19"/>
-      <c r="AI9" s="19"/>
-      <c r="AJ9" s="19"/>
-    </row>
-    <row r="10" spans="1:36" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="50" t="s">
-        <v>634</v>
-      </c>
-      <c r="C10" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="51" t="s">
-        <v>636</v>
-      </c>
-      <c r="E10" s="50" t="s">
-        <v>637</v>
-      </c>
-      <c r="F10" s="50" t="s">
-        <v>638</v>
-      </c>
-      <c r="G10" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="50" t="s">
-        <v>634</v>
-      </c>
-      <c r="J10" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="K10" s="51" t="s">
-        <v>636</v>
-      </c>
-      <c r="L10" s="50" t="s">
-        <v>637</v>
-      </c>
-      <c r="M10" s="50" t="s">
-        <v>638</v>
-      </c>
-      <c r="N10" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="O10" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="P10" s="50" t="s">
-        <v>634</v>
-      </c>
-      <c r="Q10" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="R10" s="51" t="s">
-        <v>636</v>
-      </c>
-      <c r="S10" s="50" t="s">
-        <v>637</v>
-      </c>
-      <c r="T10" s="50" t="s">
-        <v>638</v>
-      </c>
-      <c r="U10" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="V10" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="W10" s="50" t="s">
-        <v>634</v>
-      </c>
-      <c r="X10" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y10" s="51" t="s">
-        <v>636</v>
-      </c>
-      <c r="Z10" s="50" t="s">
-        <v>637</v>
-      </c>
-      <c r="AA10" s="50" t="s">
-        <v>638</v>
-      </c>
-      <c r="AB10" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC10" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD10" s="50" t="s">
-        <v>634</v>
-      </c>
-      <c r="AE10" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF10" s="51" t="s">
-        <v>636</v>
-      </c>
-      <c r="AG10" s="50" t="s">
-        <v>637</v>
-      </c>
-      <c r="AH10" s="50" t="s">
-        <v>638</v>
-      </c>
-      <c r="AI10" s="50" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:36" s="16" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="16">
-        <v>-0.09</v>
-      </c>
-      <c r="C11" s="46" t="s">
-        <v>635</v>
-      </c>
-      <c r="D11" s="15">
-        <v>-0.74</v>
-      </c>
-      <c r="E11" s="15">
-        <v>0.46</v>
-      </c>
-      <c r="F11" s="47">
-        <v>0.01</v>
-      </c>
-      <c r="G11" s="48">
-        <v>506</v>
-      </c>
-      <c r="I11" s="16">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="J11" s="46" t="s">
-        <v>641</v>
-      </c>
-      <c r="K11" s="15">
-        <v>0.02</v>
-      </c>
-      <c r="L11" s="15">
-        <v>0.98</v>
-      </c>
-      <c r="M11" s="47">
-        <v>0.03</v>
-      </c>
-      <c r="N11" s="48">
-        <v>502</v>
-      </c>
-      <c r="P11" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="Q11" s="46" t="s">
-        <v>642</v>
-      </c>
-      <c r="R11" s="15">
-        <v>1.37</v>
-      </c>
-      <c r="S11" s="15">
-        <v>0.17</v>
-      </c>
-      <c r="T11" s="47">
-        <v>0.02</v>
-      </c>
-      <c r="U11" s="48">
-        <v>468</v>
-      </c>
-      <c r="W11" s="16">
-        <v>0.08</v>
-      </c>
-      <c r="X11" s="46" t="s">
-        <v>276</v>
-      </c>
-      <c r="Y11" s="15">
-        <v>0.46</v>
-      </c>
-      <c r="Z11" s="15">
-        <v>0.65</v>
-      </c>
-      <c r="AA11" s="47">
-        <v>0.03</v>
-      </c>
-      <c r="AB11" s="48">
-        <v>700</v>
-      </c>
-      <c r="AD11" s="16">
-        <v>0.06</v>
-      </c>
-      <c r="AE11" s="46" t="s">
-        <v>643</v>
-      </c>
-      <c r="AF11" s="15">
-        <v>0.68</v>
-      </c>
-      <c r="AG11" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="AH11" s="47">
-        <v>0.01</v>
-      </c>
-      <c r="AI11" s="48">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A12" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="W12" s="19"/>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="19"/>
-      <c r="Z12" s="19"/>
-      <c r="AA12" s="19"/>
-      <c r="AB12" s="19"/>
-      <c r="AC12" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD12" s="19"/>
-      <c r="AE12" s="19"/>
-      <c r="AF12" s="19"/>
-      <c r="AG12" s="19"/>
-      <c r="AH12" s="19"/>
-      <c r="AI12" s="19"/>
-      <c r="AJ12" s="19"/>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A13" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="W13" s="19"/>
-      <c r="X13" s="19"/>
-      <c r="Y13" s="19"/>
-      <c r="Z13" s="19"/>
-      <c r="AA13" s="19"/>
-      <c r="AB13" s="19"/>
-      <c r="AC13" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD13" s="19"/>
-      <c r="AE13" s="19"/>
-      <c r="AF13" s="19"/>
-      <c r="AG13" s="19"/>
-      <c r="AH13" s="19"/>
-      <c r="AI13" s="19"/>
-      <c r="AJ13" s="19"/>
-    </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A14" s="23" t="s">
-        <v>630</v>
-      </c>
-      <c r="B14" s="19">
-        <v>3772.01</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>648</v>
-      </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="23" t="s">
-        <v>630</v>
-      </c>
-      <c r="I14" s="19">
-        <v>989.77</v>
-      </c>
-      <c r="J14" s="19" t="s">
-        <v>631</v>
-      </c>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="23" t="s">
-        <v>630</v>
-      </c>
-      <c r="P14" s="19">
-        <v>1272.96</v>
-      </c>
-      <c r="Q14" s="19" t="s">
-        <v>631</v>
-      </c>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
-      <c r="V14" s="23" t="s">
-        <v>630</v>
-      </c>
-      <c r="W14" s="19">
-        <v>1100.6300000000001</v>
-      </c>
-      <c r="X14" s="19" t="s">
-        <v>631</v>
-      </c>
-      <c r="Y14" s="19"/>
-      <c r="Z14" s="19"/>
-      <c r="AA14" s="19"/>
-      <c r="AB14" s="19"/>
-      <c r="AC14" s="23" t="s">
-        <v>630</v>
-      </c>
-      <c r="AD14" s="19">
-        <v>57.03</v>
-      </c>
-      <c r="AE14" s="19" t="s">
-        <v>651</v>
-      </c>
-      <c r="AF14" s="19"/>
-      <c r="AG14" s="19"/>
-      <c r="AH14" s="19"/>
-      <c r="AI14" s="19"/>
-      <c r="AJ14" s="19"/>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A15" s="23" t="s">
-        <v>632</v>
-      </c>
-      <c r="B15" s="19">
-        <v>0.48</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>540</v>
-      </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="23" t="s">
-        <v>632</v>
-      </c>
-      <c r="I15" s="19">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="J15" s="19" t="s">
-        <v>649</v>
-      </c>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="23" t="s">
-        <v>632</v>
-      </c>
-      <c r="P15" s="19">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="Q15" s="19" t="s">
-        <v>650</v>
-      </c>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="19"/>
-      <c r="V15" s="23" t="s">
-        <v>632</v>
-      </c>
-      <c r="W15" s="19">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="X15" s="19" t="s">
-        <v>649</v>
-      </c>
-      <c r="Y15" s="19"/>
-      <c r="Z15" s="19"/>
-      <c r="AA15" s="19"/>
-      <c r="AB15" s="19"/>
-      <c r="AC15" s="23" t="s">
-        <v>632</v>
-      </c>
-      <c r="AD15" s="19">
-        <v>0.26</v>
-      </c>
-      <c r="AE15" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="AF15" s="19"/>
-      <c r="AG15" s="19"/>
-      <c r="AH15" s="19"/>
-      <c r="AI15" s="19"/>
-      <c r="AJ15" s="19"/>
-    </row>
-    <row r="16" spans="1:36" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="50" t="s">
-        <v>634</v>
-      </c>
-      <c r="C16" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="51" t="s">
-        <v>636</v>
-      </c>
-      <c r="E16" s="50" t="s">
-        <v>637</v>
-      </c>
-      <c r="F16" s="50" t="s">
-        <v>638</v>
-      </c>
-      <c r="G16" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="I16" s="50" t="s">
-        <v>634</v>
-      </c>
-      <c r="J16" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="K16" s="51" t="s">
-        <v>636</v>
-      </c>
-      <c r="L16" s="50" t="s">
-        <v>637</v>
-      </c>
-      <c r="M16" s="50" t="s">
-        <v>638</v>
-      </c>
-      <c r="N16" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="O16" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="P16" s="50" t="s">
-        <v>634</v>
-      </c>
-      <c r="Q16" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="R16" s="51" t="s">
-        <v>636</v>
-      </c>
-      <c r="S16" s="50" t="s">
-        <v>637</v>
-      </c>
-      <c r="T16" s="50" t="s">
-        <v>638</v>
-      </c>
-      <c r="U16" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="V16" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="W16" s="50" t="s">
-        <v>634</v>
-      </c>
-      <c r="X16" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y16" s="51" t="s">
-        <v>636</v>
-      </c>
-      <c r="Z16" s="50" t="s">
-        <v>637</v>
-      </c>
-      <c r="AA16" s="50" t="s">
-        <v>638</v>
-      </c>
-      <c r="AB16" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC16" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD16" s="50" t="s">
-        <v>634</v>
-      </c>
-      <c r="AE16" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF16" s="51" t="s">
-        <v>636</v>
-      </c>
-      <c r="AG16" s="50" t="s">
-        <v>637</v>
-      </c>
-      <c r="AH16" s="50" t="s">
-        <v>638</v>
-      </c>
-      <c r="AI16" s="50" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:36" s="16" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="16">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="C17" s="46" t="s">
-        <v>644</v>
-      </c>
-      <c r="D17" s="15">
-        <v>-0.7</v>
-      </c>
-      <c r="E17" s="15">
-        <v>0.49</v>
-      </c>
-      <c r="F17" s="47">
-        <v>0.01</v>
-      </c>
-      <c r="G17" s="48">
-        <v>506</v>
-      </c>
-      <c r="I17" s="16">
-        <v>-0.02</v>
-      </c>
-      <c r="J17" s="46" t="s">
-        <v>100</v>
-      </c>
-      <c r="K17" s="15">
-        <v>-0.54</v>
-      </c>
-      <c r="L17" s="15">
-        <v>0.59</v>
-      </c>
-      <c r="M17" s="47">
-        <v>1E-3</v>
-      </c>
-      <c r="N17" s="48">
-        <v>502</v>
-      </c>
-      <c r="P17" s="16">
-        <v>-0.04</v>
-      </c>
-      <c r="Q17" s="46" t="s">
-        <v>645</v>
-      </c>
-      <c r="R17" s="15">
-        <v>-1.05</v>
-      </c>
-      <c r="S17" s="15">
-        <v>0.3</v>
-      </c>
-      <c r="T17" s="47">
-        <v>2E-3</v>
-      </c>
-      <c r="U17" s="48">
-        <v>468</v>
-      </c>
-      <c r="W17" s="16">
-        <v>0.06</v>
-      </c>
-      <c r="X17" s="46" t="s">
-        <v>646</v>
-      </c>
-      <c r="Y17" s="15">
-        <v>0.54</v>
-      </c>
-      <c r="Z17" s="15">
-        <v>0.59</v>
-      </c>
-      <c r="AA17" s="47">
-        <v>0.01</v>
-      </c>
-      <c r="AB17" s="48">
-        <v>700</v>
-      </c>
-      <c r="AD17" s="16">
-        <v>0.02</v>
-      </c>
-      <c r="AE17" s="46" t="s">
-        <v>647</v>
-      </c>
-      <c r="AF17" s="15">
-        <v>0.51</v>
-      </c>
-      <c r="AG17" s="15">
-        <v>0.61</v>
-      </c>
-      <c r="AH17" s="47">
-        <v>2E-3</v>
-      </c>
-      <c r="AI17" s="48">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A18" s="23"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="23"/>
-      <c r="W18" s="19"/>
-      <c r="X18" s="19"/>
-      <c r="Y18" s="19"/>
-      <c r="Z18" s="19"/>
-      <c r="AA18" s="19"/>
-      <c r="AB18" s="19"/>
-      <c r="AC18" s="23"/>
-      <c r="AD18" s="19"/>
-      <c r="AE18" s="19"/>
-      <c r="AF18" s="19"/>
-      <c r="AG18" s="19"/>
-      <c r="AH18" s="19"/>
-      <c r="AI18" s="19"/>
-      <c r="AJ18" s="19"/>
-    </row>
-    <row r="19" spans="1:36" ht="19" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="1:36" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="3"/>
-      <c r="AC20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD20" s="3"/>
-      <c r="AE20" s="3"/>
-      <c r="AF20" s="3"/>
-      <c r="AG20" s="3"/>
-      <c r="AH20" s="3"/>
-      <c r="AI20" s="3"/>
-    </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="O21" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="V21" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC21" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A22" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="19"/>
-      <c r="S22" s="19"/>
-      <c r="T22" s="19"/>
-      <c r="U22" s="19"/>
-      <c r="V22" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="W22" s="19"/>
-      <c r="X22" s="19"/>
-      <c r="Y22" s="19"/>
-      <c r="Z22" s="19"/>
-      <c r="AA22" s="19"/>
-      <c r="AB22" s="19"/>
-      <c r="AC22" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD22" s="19"/>
-      <c r="AE22" s="19"/>
-      <c r="AF22" s="19"/>
-      <c r="AG22" s="19"/>
-      <c r="AH22" s="19"/>
-      <c r="AI22" s="19"/>
-      <c r="AJ22" s="19"/>
-    </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A23" s="23" t="s">
-        <v>630</v>
-      </c>
-      <c r="B23" s="19">
-        <v>2765.94</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>631</v>
-      </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="23" t="s">
-        <v>630</v>
-      </c>
-      <c r="I23" s="19">
-        <v>1825.48</v>
-      </c>
-      <c r="J23" s="19" t="s">
-        <v>631</v>
-      </c>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="23" t="s">
-        <v>630</v>
-      </c>
-      <c r="P23" s="19">
-        <v>2055.31</v>
-      </c>
-      <c r="Q23" s="19" t="s">
-        <v>631</v>
-      </c>
-      <c r="R23" s="19"/>
-      <c r="S23" s="19"/>
-      <c r="T23" s="19"/>
-      <c r="U23" s="19"/>
-      <c r="V23" s="23" t="s">
-        <v>630</v>
-      </c>
-      <c r="W23" s="19">
-        <v>2275.7399999999998</v>
-      </c>
-      <c r="X23" s="19" t="s">
-        <v>631</v>
-      </c>
-      <c r="Y23" s="19"/>
-      <c r="Z23" s="19"/>
-      <c r="AA23" s="19"/>
-      <c r="AB23" s="19"/>
-      <c r="AC23" s="23" t="s">
-        <v>630</v>
-      </c>
-      <c r="AD23" s="19">
-        <v>151.15</v>
-      </c>
-      <c r="AE23" s="19" t="s">
-        <v>631</v>
-      </c>
-      <c r="AF23" s="19"/>
-      <c r="AG23" s="19"/>
-      <c r="AH23" s="19"/>
-      <c r="AI23" s="19"/>
-      <c r="AJ23" s="19"/>
-    </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A24" s="23" t="s">
-        <v>632</v>
-      </c>
-      <c r="B24" s="19">
-        <v>0.53</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>655</v>
-      </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="23" t="s">
-        <v>632</v>
-      </c>
-      <c r="I24" s="19">
-        <v>0.03</v>
-      </c>
-      <c r="J24" s="19" t="s">
-        <v>656</v>
-      </c>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="23" t="s">
-        <v>632</v>
-      </c>
-      <c r="P24" s="19">
-        <v>1.88</v>
-      </c>
-      <c r="Q24" s="19" t="s">
-        <v>639</v>
-      </c>
-      <c r="R24" s="19"/>
-      <c r="S24" s="19"/>
-      <c r="T24" s="19"/>
-      <c r="U24" s="19"/>
-      <c r="V24" s="23" t="s">
-        <v>632</v>
-      </c>
-      <c r="W24" s="19">
-        <v>0.22</v>
-      </c>
-      <c r="X24" s="19" t="s">
-        <v>659</v>
-      </c>
-      <c r="Y24" s="19"/>
-      <c r="Z24" s="19"/>
-      <c r="AA24" s="19"/>
-      <c r="AB24" s="19"/>
-      <c r="AC24" s="23" t="s">
-        <v>632</v>
-      </c>
-      <c r="AD24" s="19">
-        <v>0.46</v>
-      </c>
-      <c r="AE24" s="19" t="s">
-        <v>640</v>
-      </c>
-      <c r="AF24" s="19"/>
-      <c r="AG24" s="19"/>
-      <c r="AH24" s="19"/>
-      <c r="AI24" s="19"/>
-      <c r="AJ24" s="19"/>
-    </row>
-    <row r="25" spans="1:36" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="50" t="s">
-        <v>634</v>
-      </c>
-      <c r="C25" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="51" t="s">
-        <v>636</v>
-      </c>
-      <c r="E25" s="50" t="s">
-        <v>637</v>
-      </c>
-      <c r="F25" s="50" t="s">
-        <v>638</v>
-      </c>
-      <c r="G25" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="H25" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="I25" s="50" t="s">
-        <v>634</v>
-      </c>
-      <c r="J25" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="K25" s="51" t="s">
-        <v>636</v>
-      </c>
-      <c r="L25" s="50" t="s">
-        <v>637</v>
-      </c>
-      <c r="M25" s="50" t="s">
-        <v>638</v>
-      </c>
-      <c r="N25" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="O25" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="P25" s="50" t="s">
-        <v>634</v>
-      </c>
-      <c r="Q25" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="R25" s="51" t="s">
-        <v>636</v>
-      </c>
-      <c r="S25" s="50" t="s">
-        <v>637</v>
-      </c>
-      <c r="T25" s="50" t="s">
-        <v>638</v>
-      </c>
-      <c r="U25" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="V25" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="W25" s="50" t="s">
-        <v>634</v>
-      </c>
-      <c r="X25" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y25" s="51" t="s">
-        <v>636</v>
-      </c>
-      <c r="Z25" s="50" t="s">
-        <v>637</v>
-      </c>
-      <c r="AA25" s="50" t="s">
-        <v>638</v>
-      </c>
-      <c r="AB25" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC25" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD25" s="50" t="s">
-        <v>634</v>
-      </c>
-      <c r="AE25" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF25" s="51" t="s">
-        <v>636</v>
-      </c>
-      <c r="AG25" s="50" t="s">
-        <v>637</v>
-      </c>
-      <c r="AH25" s="50" t="s">
-        <v>638</v>
-      </c>
-      <c r="AI25" s="50" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:36" s="16" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="16">
-        <v>-0.09</v>
-      </c>
-      <c r="C26" s="46" t="s">
-        <v>654</v>
-      </c>
-      <c r="D26" s="15">
-        <v>-0.72</v>
-      </c>
-      <c r="E26" s="15">
-        <v>0.47</v>
-      </c>
-      <c r="F26" s="47">
-        <v>0.01</v>
-      </c>
-      <c r="G26" s="48">
-        <v>506</v>
-      </c>
-      <c r="I26" s="16">
-        <v>0.03</v>
-      </c>
-      <c r="J26" s="46" t="s">
-        <v>657</v>
-      </c>
-      <c r="K26" s="15">
-        <v>0.16</v>
-      </c>
-      <c r="L26" s="15">
-        <v>0.87</v>
-      </c>
-      <c r="M26" s="47">
-        <v>0.03</v>
-      </c>
-      <c r="N26" s="48">
-        <v>502</v>
-      </c>
-      <c r="P26" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="Q26" s="46" t="s">
-        <v>658</v>
-      </c>
-      <c r="R26" s="15">
-        <v>1.37</v>
-      </c>
-      <c r="S26" s="15">
-        <v>0.17</v>
-      </c>
-      <c r="T26" s="47">
-        <v>0.02</v>
-      </c>
-      <c r="U26" s="48">
-        <v>468</v>
-      </c>
-      <c r="W26" s="16">
-        <v>0.08</v>
-      </c>
-      <c r="X26" s="46" t="s">
-        <v>660</v>
-      </c>
-      <c r="Y26" s="15">
-        <v>0.46</v>
-      </c>
-      <c r="Z26" s="15">
-        <v>0.64</v>
-      </c>
-      <c r="AA26" s="47">
-        <v>0.03</v>
-      </c>
-      <c r="AB26" s="48">
-        <v>700</v>
-      </c>
-      <c r="AD26" s="16">
-        <v>0.06</v>
-      </c>
-      <c r="AE26" s="46" t="s">
-        <v>661</v>
-      </c>
-      <c r="AF26" s="15">
-        <v>0.68</v>
-      </c>
-      <c r="AG26" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="AH26" s="47">
-        <v>0.01</v>
-      </c>
-      <c r="AI26" s="48">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A27" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="19"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="19"/>
-      <c r="V27" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="W27" s="19"/>
-      <c r="X27" s="19"/>
-      <c r="Y27" s="19"/>
-      <c r="Z27" s="19"/>
-      <c r="AA27" s="19"/>
-      <c r="AB27" s="19"/>
-      <c r="AC27" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD27" s="19"/>
-      <c r="AE27" s="19"/>
-      <c r="AF27" s="19"/>
-      <c r="AG27" s="19"/>
-      <c r="AH27" s="19"/>
-      <c r="AI27" s="19"/>
-      <c r="AJ27" s="19"/>
-    </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A28" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="19"/>
-      <c r="S28" s="19"/>
-      <c r="T28" s="19"/>
-      <c r="U28" s="19"/>
-      <c r="V28" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="W28" s="19"/>
-      <c r="X28" s="19"/>
-      <c r="Y28" s="19"/>
-      <c r="Z28" s="19"/>
-      <c r="AA28" s="19"/>
-      <c r="AB28" s="19"/>
-      <c r="AC28" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD28" s="19"/>
-      <c r="AE28" s="19"/>
-      <c r="AF28" s="19"/>
-      <c r="AG28" s="19"/>
-      <c r="AH28" s="19"/>
-      <c r="AI28" s="19"/>
-      <c r="AJ28" s="19"/>
-    </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A29" s="23" t="s">
-        <v>630</v>
-      </c>
-      <c r="B29" s="19">
-        <v>3772.01</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>648</v>
-      </c>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="23" t="s">
-        <v>630</v>
-      </c>
-      <c r="I29" s="19">
-        <v>989.77</v>
-      </c>
-      <c r="J29" s="19" t="s">
-        <v>631</v>
-      </c>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="23" t="s">
-        <v>630</v>
-      </c>
-      <c r="P29" s="19">
-        <v>1272.96</v>
-      </c>
-      <c r="Q29" s="19" t="s">
-        <v>631</v>
-      </c>
-      <c r="R29" s="19"/>
-      <c r="S29" s="19"/>
-      <c r="T29" s="19"/>
-      <c r="U29" s="19"/>
-      <c r="V29" s="23" t="s">
-        <v>630</v>
-      </c>
-      <c r="W29" s="19">
-        <v>1100.6300000000001</v>
-      </c>
-      <c r="X29" s="19" t="s">
-        <v>631</v>
-      </c>
-      <c r="Y29" s="19"/>
-      <c r="Z29" s="19"/>
-      <c r="AA29" s="19"/>
-      <c r="AB29" s="19"/>
-      <c r="AC29" s="23" t="s">
-        <v>630</v>
-      </c>
-      <c r="AD29" s="19">
-        <v>57.03</v>
-      </c>
-      <c r="AE29" s="19" t="s">
-        <v>651</v>
-      </c>
-      <c r="AF29" s="19"/>
-      <c r="AG29" s="19"/>
-      <c r="AH29" s="19"/>
-      <c r="AI29" s="19"/>
-      <c r="AJ29" s="19"/>
-    </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A30" s="23" t="s">
-        <v>632</v>
-      </c>
-      <c r="B30" s="19">
-        <v>0.53</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>655</v>
-      </c>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="23" t="s">
-        <v>632</v>
-      </c>
-      <c r="I30" s="19">
-        <v>0.25</v>
-      </c>
-      <c r="J30" s="19" t="s">
-        <v>665</v>
-      </c>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="23" t="s">
-        <v>632</v>
-      </c>
-      <c r="P30" s="19">
-        <v>1.17</v>
-      </c>
-      <c r="Q30" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="R30" s="19"/>
-      <c r="S30" s="19"/>
-      <c r="T30" s="19"/>
-      <c r="U30" s="19"/>
-      <c r="V30" s="23" t="s">
-        <v>632</v>
-      </c>
-      <c r="W30" s="19">
-        <v>0.3</v>
-      </c>
-      <c r="X30" s="19" t="s">
-        <v>666</v>
-      </c>
-      <c r="Y30" s="19"/>
-      <c r="Z30" s="19"/>
-      <c r="AA30" s="19"/>
-      <c r="AB30" s="19"/>
-      <c r="AC30" s="23" t="s">
-        <v>632</v>
-      </c>
-      <c r="AD30" s="19">
-        <v>0.26</v>
-      </c>
-      <c r="AE30" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="AF30" s="19"/>
-      <c r="AG30" s="19"/>
-      <c r="AH30" s="19"/>
-      <c r="AI30" s="19"/>
-      <c r="AJ30" s="19"/>
-    </row>
-    <row r="31" spans="1:36" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="50" t="s">
-        <v>634</v>
-      </c>
-      <c r="C31" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="D31" s="51" t="s">
-        <v>636</v>
-      </c>
-      <c r="E31" s="50" t="s">
-        <v>637</v>
-      </c>
-      <c r="F31" s="50" t="s">
-        <v>638</v>
-      </c>
-      <c r="G31" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="H31" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="I31" s="50" t="s">
-        <v>634</v>
-      </c>
-      <c r="J31" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="K31" s="51" t="s">
-        <v>636</v>
-      </c>
-      <c r="L31" s="50" t="s">
-        <v>637</v>
-      </c>
-      <c r="M31" s="50" t="s">
-        <v>638</v>
-      </c>
-      <c r="N31" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="O31" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="P31" s="50" t="s">
-        <v>634</v>
-      </c>
-      <c r="Q31" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="R31" s="51" t="s">
-        <v>636</v>
-      </c>
-      <c r="S31" s="50" t="s">
-        <v>637</v>
-      </c>
-      <c r="T31" s="50" t="s">
-        <v>638</v>
-      </c>
-      <c r="U31" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="V31" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="W31" s="50" t="s">
-        <v>634</v>
-      </c>
-      <c r="X31" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y31" s="51" t="s">
-        <v>636</v>
-      </c>
-      <c r="Z31" s="50" t="s">
-        <v>637</v>
-      </c>
-      <c r="AA31" s="50" t="s">
-        <v>638</v>
-      </c>
-      <c r="AB31" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC31" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD31" s="50" t="s">
-        <v>634</v>
-      </c>
-      <c r="AE31" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF31" s="51" t="s">
-        <v>636</v>
-      </c>
-      <c r="AG31" s="50" t="s">
-        <v>637</v>
-      </c>
-      <c r="AH31" s="50" t="s">
-        <v>638</v>
-      </c>
-      <c r="AI31" s="50" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:36" s="16" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="16">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="C32" s="46" t="s">
-        <v>662</v>
-      </c>
-      <c r="D32" s="15">
-        <v>-0.73</v>
-      </c>
-      <c r="E32" s="15">
-        <v>0.47</v>
-      </c>
-      <c r="F32" s="47">
-        <v>0.01</v>
-      </c>
-      <c r="G32" s="48">
-        <v>506</v>
-      </c>
-      <c r="I32" s="16">
-        <v>-0.02</v>
-      </c>
-      <c r="J32" s="46" t="s">
-        <v>663</v>
-      </c>
-      <c r="K32" s="15">
-        <v>-0.5</v>
-      </c>
-      <c r="L32" s="15">
-        <v>0.62</v>
-      </c>
-      <c r="M32" s="47">
-        <v>1E-3</v>
-      </c>
-      <c r="N32" s="48">
-        <v>502</v>
-      </c>
-      <c r="P32" s="16">
-        <v>-0.05</v>
-      </c>
-      <c r="Q32" s="46" t="s">
-        <v>645</v>
-      </c>
-      <c r="R32" s="15">
-        <v>-1.08</v>
-      </c>
-      <c r="S32" s="15">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="T32" s="47">
-        <v>2E-3</v>
-      </c>
-      <c r="U32" s="48">
-        <v>468</v>
-      </c>
-      <c r="W32" s="16">
-        <v>0.05</v>
-      </c>
-      <c r="X32" s="46" t="s">
-        <v>664</v>
-      </c>
-      <c r="Y32" s="15">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="Z32" s="15">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="AA32" s="47">
-        <v>0.01</v>
-      </c>
-      <c r="AB32" s="48">
-        <v>700</v>
-      </c>
-      <c r="AD32" s="16">
-        <v>0.02</v>
-      </c>
-      <c r="AE32" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="AF32" s="15">
-        <v>0.51</v>
-      </c>
-      <c r="AG32" s="15">
-        <v>0.61</v>
-      </c>
-      <c r="AH32" s="47">
-        <v>2E-3</v>
-      </c>
-      <c r="AI32" s="48">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="34" spans="1:36" ht="19" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="1:36" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
-      <c r="U35" s="3"/>
-      <c r="V35" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="W35" s="3"/>
-      <c r="X35" s="3"/>
-      <c r="Y35" s="3"/>
-      <c r="Z35" s="3"/>
-      <c r="AA35" s="3"/>
-      <c r="AB35" s="3"/>
-      <c r="AC35" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD35" s="3"/>
-      <c r="AE35" s="3"/>
-      <c r="AF35" s="3"/>
-      <c r="AG35" s="3"/>
-      <c r="AH35" s="3"/>
-      <c r="AI35" s="3"/>
-    </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="O36" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="V36" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC36" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A37" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="19"/>
-      <c r="N37" s="19"/>
-      <c r="O37" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="P37" s="19"/>
-      <c r="Q37" s="19"/>
-      <c r="R37" s="19"/>
-      <c r="S37" s="19"/>
-      <c r="T37" s="19"/>
-      <c r="U37" s="19"/>
-      <c r="V37" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="W37" s="19"/>
-      <c r="X37" s="19"/>
-      <c r="Y37" s="19"/>
-      <c r="Z37" s="19"/>
-      <c r="AA37" s="19"/>
-      <c r="AB37" s="19"/>
-      <c r="AC37" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD37" s="19"/>
-      <c r="AE37" s="19"/>
-      <c r="AF37" s="19"/>
-      <c r="AG37" s="19"/>
-      <c r="AH37" s="19"/>
-      <c r="AI37" s="19"/>
-      <c r="AJ37" s="19"/>
-    </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A38" s="23" t="s">
-        <v>630</v>
-      </c>
-      <c r="B38" s="19">
-        <v>2765.94</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>631</v>
-      </c>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="23" t="s">
-        <v>630</v>
-      </c>
-      <c r="I38" s="19">
-        <v>1825.48</v>
-      </c>
-      <c r="J38" s="19" t="s">
-        <v>631</v>
-      </c>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="19"/>
-      <c r="N38" s="19"/>
-      <c r="O38" s="23" t="s">
-        <v>630</v>
-      </c>
-      <c r="P38" s="19">
-        <v>2055.31</v>
-      </c>
-      <c r="Q38" s="19" t="s">
-        <v>631</v>
-      </c>
-      <c r="R38" s="19"/>
-      <c r="S38" s="19"/>
-      <c r="T38" s="19"/>
-      <c r="U38" s="19"/>
-      <c r="V38" s="23" t="s">
-        <v>630</v>
-      </c>
-      <c r="W38" s="19">
-        <v>2275.7399999999998</v>
-      </c>
-      <c r="X38" s="19" t="s">
-        <v>631</v>
-      </c>
-      <c r="Y38" s="19"/>
-      <c r="Z38" s="19"/>
-      <c r="AA38" s="19"/>
-      <c r="AB38" s="19"/>
-      <c r="AC38" s="23" t="s">
-        <v>630</v>
-      </c>
-      <c r="AD38" s="19">
-        <v>151.15</v>
-      </c>
-      <c r="AE38" s="19" t="s">
-        <v>631</v>
-      </c>
-      <c r="AF38" s="19"/>
-      <c r="AG38" s="19"/>
-      <c r="AH38" s="19"/>
-      <c r="AI38" s="19"/>
-      <c r="AJ38" s="19"/>
-    </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A39" s="23" t="s">
-        <v>632</v>
-      </c>
-      <c r="B39" s="19">
-        <v>0.48</v>
-      </c>
-      <c r="C39" s="19" t="s">
-        <v>540</v>
-      </c>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="23" t="s">
-        <v>632</v>
-      </c>
-      <c r="I39" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="J39" s="19" t="s">
-        <v>669</v>
-      </c>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="19"/>
-      <c r="O39" s="23" t="s">
-        <v>632</v>
-      </c>
-      <c r="P39" s="19">
-        <v>1.89</v>
-      </c>
-      <c r="Q39" s="19" t="s">
-        <v>639</v>
-      </c>
-      <c r="R39" s="19"/>
-      <c r="S39" s="19"/>
-      <c r="T39" s="19"/>
-      <c r="U39" s="19"/>
-      <c r="V39" s="23" t="s">
-        <v>632</v>
-      </c>
-      <c r="W39" s="19">
-        <v>0.24</v>
-      </c>
-      <c r="X39" s="19" t="s">
-        <v>665</v>
-      </c>
-      <c r="Y39" s="19"/>
-      <c r="Z39" s="19"/>
-      <c r="AA39" s="19"/>
-      <c r="AB39" s="19"/>
-      <c r="AC39" s="23" t="s">
-        <v>632</v>
-      </c>
-      <c r="AD39" s="19">
-        <v>0.45</v>
-      </c>
-      <c r="AE39" s="19" t="s">
-        <v>640</v>
-      </c>
-      <c r="AF39" s="19"/>
-      <c r="AG39" s="19"/>
-      <c r="AH39" s="19"/>
-      <c r="AI39" s="19"/>
-      <c r="AJ39" s="19"/>
-    </row>
-    <row r="40" spans="1:36" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="B40" s="50" t="s">
-        <v>634</v>
-      </c>
-      <c r="C40" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="D40" s="51" t="s">
-        <v>636</v>
-      </c>
-      <c r="E40" s="50" t="s">
-        <v>637</v>
-      </c>
-      <c r="F40" s="50" t="s">
-        <v>638</v>
-      </c>
-      <c r="G40" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="H40" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="I40" s="50" t="s">
-        <v>634</v>
-      </c>
-      <c r="J40" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="K40" s="51" t="s">
-        <v>636</v>
-      </c>
-      <c r="L40" s="50" t="s">
-        <v>637</v>
-      </c>
-      <c r="M40" s="50" t="s">
-        <v>638</v>
-      </c>
-      <c r="N40" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="O40" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="P40" s="50" t="s">
-        <v>634</v>
-      </c>
-      <c r="Q40" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="R40" s="51" t="s">
-        <v>636</v>
-      </c>
-      <c r="S40" s="50" t="s">
-        <v>637</v>
-      </c>
-      <c r="T40" s="50" t="s">
-        <v>638</v>
-      </c>
-      <c r="U40" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="V40" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="W40" s="50" t="s">
-        <v>634</v>
-      </c>
-      <c r="X40" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y40" s="51" t="s">
-        <v>636</v>
-      </c>
-      <c r="Z40" s="50" t="s">
-        <v>637</v>
-      </c>
-      <c r="AA40" s="50" t="s">
-        <v>638</v>
-      </c>
-      <c r="AB40" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC40" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD40" s="50" t="s">
-        <v>634</v>
-      </c>
-      <c r="AE40" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF40" s="51" t="s">
-        <v>636</v>
-      </c>
-      <c r="AG40" s="50" t="s">
-        <v>637</v>
-      </c>
-      <c r="AH40" s="50" t="s">
-        <v>638</v>
-      </c>
-      <c r="AI40" s="50" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:36" s="16" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="16">
-        <v>-0.08</v>
-      </c>
-      <c r="C41" s="46" t="s">
-        <v>654</v>
-      </c>
-      <c r="D41" s="15">
-        <v>-0.69</v>
-      </c>
-      <c r="E41" s="15">
-        <v>0.49</v>
-      </c>
-      <c r="F41" s="47">
-        <v>0.01</v>
-      </c>
-      <c r="G41" s="48">
-        <v>506</v>
-      </c>
-      <c r="I41" s="16">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="J41" s="46" t="s">
-        <v>232</v>
-      </c>
-      <c r="K41" s="15">
-        <v>0.45</v>
-      </c>
-      <c r="L41" s="15">
-        <v>0.65</v>
-      </c>
-      <c r="M41" s="47">
-        <v>0.02</v>
-      </c>
-      <c r="N41" s="48">
-        <v>502</v>
-      </c>
-      <c r="P41" s="16">
-        <v>0.21</v>
-      </c>
-      <c r="Q41" s="46" t="s">
-        <v>667</v>
-      </c>
-      <c r="R41" s="15">
-        <v>1.38</v>
-      </c>
-      <c r="S41" s="15">
-        <v>0.17</v>
-      </c>
-      <c r="T41" s="47">
-        <v>0.02</v>
-      </c>
-      <c r="U41" s="48">
-        <v>468</v>
-      </c>
-      <c r="W41" s="16">
-        <v>0.08</v>
-      </c>
-      <c r="X41" s="46" t="s">
-        <v>668</v>
-      </c>
-      <c r="Y41" s="15">
-        <v>0.49</v>
-      </c>
-      <c r="Z41" s="15">
-        <v>0.62</v>
-      </c>
-      <c r="AA41" s="47">
-        <v>0.02</v>
-      </c>
-      <c r="AB41" s="48">
-        <v>700</v>
-      </c>
-      <c r="AD41" s="16">
-        <v>0.06</v>
-      </c>
-      <c r="AE41" s="46" t="s">
-        <v>661</v>
-      </c>
-      <c r="AF41" s="15">
-        <v>0.67</v>
-      </c>
-      <c r="AG41" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="AH41" s="47">
-        <v>0.01</v>
-      </c>
-      <c r="AI41" s="48">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A42" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I42" s="19"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="19"/>
-      <c r="L42" s="19"/>
-      <c r="M42" s="19"/>
-      <c r="N42" s="19"/>
-      <c r="O42" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="P42" s="19"/>
-      <c r="Q42" s="19"/>
-      <c r="R42" s="19"/>
-      <c r="S42" s="19"/>
-      <c r="T42" s="19"/>
-      <c r="U42" s="19"/>
-      <c r="V42" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="W42" s="19"/>
-      <c r="X42" s="19"/>
-      <c r="Y42" s="19"/>
-      <c r="Z42" s="19"/>
-      <c r="AA42" s="19"/>
-      <c r="AB42" s="19"/>
-      <c r="AC42" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD42" s="19"/>
-      <c r="AE42" s="19"/>
-      <c r="AF42" s="19"/>
-      <c r="AG42" s="19"/>
-      <c r="AH42" s="19"/>
-      <c r="AI42" s="19"/>
-      <c r="AJ42" s="19"/>
-    </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A43" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="19"/>
-      <c r="M43" s="19"/>
-      <c r="N43" s="19"/>
-      <c r="O43" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="P43" s="19"/>
-      <c r="Q43" s="19"/>
-      <c r="R43" s="19"/>
-      <c r="S43" s="19"/>
-      <c r="T43" s="19"/>
-      <c r="U43" s="19"/>
-      <c r="V43" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="W43" s="19"/>
-      <c r="X43" s="19"/>
-      <c r="Y43" s="19"/>
-      <c r="Z43" s="19"/>
-      <c r="AA43" s="19"/>
-      <c r="AB43" s="19"/>
-      <c r="AC43" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD43" s="19"/>
-      <c r="AE43" s="19"/>
-      <c r="AF43" s="19"/>
-      <c r="AG43" s="19"/>
-      <c r="AH43" s="19"/>
-      <c r="AI43" s="19"/>
-      <c r="AJ43" s="19"/>
-    </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A44" s="23" t="s">
-        <v>630</v>
-      </c>
-      <c r="B44" s="19">
-        <v>3772.01</v>
-      </c>
-      <c r="C44" s="19" t="s">
-        <v>648</v>
-      </c>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="23" t="s">
-        <v>630</v>
-      </c>
-      <c r="I44" s="19">
-        <v>989.77</v>
-      </c>
-      <c r="J44" s="19" t="s">
-        <v>631</v>
-      </c>
-      <c r="K44" s="19"/>
-      <c r="L44" s="19"/>
-      <c r="M44" s="19"/>
-      <c r="N44" s="19"/>
-      <c r="O44" s="23" t="s">
-        <v>630</v>
-      </c>
-      <c r="P44" s="19">
-        <v>1272.96</v>
-      </c>
-      <c r="Q44" s="19" t="s">
-        <v>631</v>
-      </c>
-      <c r="R44" s="19"/>
-      <c r="S44" s="19"/>
-      <c r="T44" s="19"/>
-      <c r="U44" s="19"/>
-      <c r="V44" s="23" t="s">
-        <v>630</v>
-      </c>
-      <c r="W44" s="19">
-        <v>1100.6300000000001</v>
-      </c>
-      <c r="X44" s="19" t="s">
-        <v>631</v>
-      </c>
-      <c r="Y44" s="19"/>
-      <c r="Z44" s="19"/>
-      <c r="AA44" s="19"/>
-      <c r="AB44" s="19"/>
-      <c r="AC44" s="23" t="s">
-        <v>630</v>
-      </c>
-      <c r="AD44" s="19">
-        <v>57.03</v>
-      </c>
-      <c r="AE44" s="19" t="s">
-        <v>651</v>
-      </c>
-      <c r="AF44" s="19"/>
-      <c r="AG44" s="19"/>
-      <c r="AH44" s="19"/>
-      <c r="AI44" s="19"/>
-      <c r="AJ44" s="19"/>
-    </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A45" s="23" t="s">
-        <v>632</v>
-      </c>
-      <c r="B45" s="19">
-        <v>0.41</v>
-      </c>
-      <c r="C45" s="19" t="s">
-        <v>673</v>
-      </c>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="23" t="s">
-        <v>632</v>
-      </c>
-      <c r="I45" s="19">
-        <v>0.21</v>
-      </c>
-      <c r="J45" s="19" t="s">
-        <v>669</v>
-      </c>
-      <c r="K45" s="19"/>
-      <c r="L45" s="19"/>
-      <c r="M45" s="19"/>
-      <c r="N45" s="19"/>
-      <c r="O45" s="23" t="s">
-        <v>632</v>
-      </c>
-      <c r="P45" s="19">
-        <v>1.27</v>
-      </c>
-      <c r="Q45" s="19" t="s">
-        <v>379</v>
-      </c>
-      <c r="R45" s="19"/>
-      <c r="S45" s="19"/>
-      <c r="T45" s="19"/>
-      <c r="U45" s="19"/>
-      <c r="V45" s="23" t="s">
-        <v>632</v>
-      </c>
-      <c r="W45" s="19">
-        <v>0.32</v>
-      </c>
-      <c r="X45" s="19" t="s">
-        <v>674</v>
-      </c>
-      <c r="Y45" s="19"/>
-      <c r="Z45" s="19"/>
-      <c r="AA45" s="19"/>
-      <c r="AB45" s="19"/>
-      <c r="AC45" s="23" t="s">
-        <v>632</v>
-      </c>
-      <c r="AD45" s="19">
-        <v>0.26</v>
-      </c>
-      <c r="AE45" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="AF45" s="19"/>
-      <c r="AG45" s="19"/>
-      <c r="AH45" s="19"/>
-      <c r="AI45" s="19"/>
-      <c r="AJ45" s="19"/>
-    </row>
-    <row r="46" spans="1:36" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="B46" s="50" t="s">
-        <v>634</v>
-      </c>
-      <c r="C46" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="D46" s="51" t="s">
-        <v>636</v>
-      </c>
-      <c r="E46" s="50" t="s">
-        <v>637</v>
-      </c>
-      <c r="F46" s="50" t="s">
-        <v>638</v>
-      </c>
-      <c r="G46" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="H46" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="I46" s="50" t="s">
-        <v>634</v>
-      </c>
-      <c r="J46" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="K46" s="51" t="s">
-        <v>636</v>
-      </c>
-      <c r="L46" s="50" t="s">
-        <v>637</v>
-      </c>
-      <c r="M46" s="50" t="s">
-        <v>638</v>
-      </c>
-      <c r="N46" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="O46" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="P46" s="50" t="s">
-        <v>634</v>
-      </c>
-      <c r="Q46" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="R46" s="51" t="s">
-        <v>636</v>
-      </c>
-      <c r="S46" s="50" t="s">
-        <v>637</v>
-      </c>
-      <c r="T46" s="50" t="s">
-        <v>638</v>
-      </c>
-      <c r="U46" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="V46" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="W46" s="50" t="s">
-        <v>634</v>
-      </c>
-      <c r="X46" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y46" s="51" t="s">
-        <v>636</v>
-      </c>
-      <c r="Z46" s="50" t="s">
-        <v>637</v>
-      </c>
-      <c r="AA46" s="50" t="s">
-        <v>638</v>
-      </c>
-      <c r="AB46" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC46" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD46" s="50" t="s">
-        <v>634</v>
-      </c>
-      <c r="AE46" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF46" s="51" t="s">
-        <v>636</v>
-      </c>
-      <c r="AG46" s="50" t="s">
-        <v>637</v>
-      </c>
-      <c r="AH46" s="50" t="s">
-        <v>638</v>
-      </c>
-      <c r="AI46" s="50" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="47" spans="1:36" s="16" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="16">
-        <v>-0.06</v>
-      </c>
-      <c r="C47" s="46" t="s">
-        <v>670</v>
-      </c>
-      <c r="D47" s="15">
-        <v>-0.64</v>
-      </c>
-      <c r="E47" s="15">
-        <v>0.52</v>
-      </c>
-      <c r="F47" s="47">
-        <v>0.01</v>
-      </c>
-      <c r="G47" s="48">
-        <v>506</v>
-      </c>
-      <c r="I47" s="16">
-        <v>-0.02</v>
-      </c>
-      <c r="J47" s="46" t="s">
-        <v>671</v>
-      </c>
-      <c r="K47" s="15">
-        <v>-0.46</v>
-      </c>
-      <c r="L47" s="15">
-        <v>0.65</v>
-      </c>
-      <c r="M47" s="47">
-        <v>1E-3</v>
-      </c>
-      <c r="N47" s="48">
-        <v>502</v>
-      </c>
-      <c r="P47" s="16">
-        <v>-0.05</v>
-      </c>
-      <c r="Q47" s="46" t="s">
-        <v>645</v>
-      </c>
-      <c r="R47" s="15">
-        <v>-1.1299999999999999</v>
-      </c>
-      <c r="S47" s="15">
-        <v>0.26</v>
-      </c>
-      <c r="T47" s="47">
-        <v>2E-3</v>
-      </c>
-      <c r="U47" s="48">
-        <v>468</v>
-      </c>
-      <c r="W47" s="16">
-        <v>0.05</v>
-      </c>
-      <c r="X47" s="46" t="s">
-        <v>672</v>
-      </c>
-      <c r="Y47" s="15">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="Z47" s="15">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="AA47" s="47">
-        <v>0.01</v>
-      </c>
-      <c r="AB47" s="48">
-        <v>700</v>
-      </c>
-      <c r="AD47" s="16">
-        <v>0.02</v>
-      </c>
-      <c r="AE47" s="46" t="s">
-        <v>647</v>
-      </c>
-      <c r="AF47" s="15">
-        <v>0.51</v>
-      </c>
-      <c r="AG47" s="15">
-        <v>0.61</v>
-      </c>
-      <c r="AH47" s="47">
-        <v>2E-3</v>
-      </c>
-      <c r="AI47" s="48">
-        <v>95</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6883732-3BB9-264E-82EA-376E03E81719}">
-  <dimension ref="A1:AS33"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:45" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:45" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:45" s="11" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="10"/>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="10"/>
-      <c r="AG3" s="10"/>
-      <c r="AH3" s="10"/>
-      <c r="AI3" s="10"/>
-      <c r="AJ3" s="10"/>
-      <c r="AK3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AL3" s="10"/>
-      <c r="AM3" s="10"/>
-      <c r="AN3" s="10"/>
-      <c r="AO3" s="10"/>
-      <c r="AP3" s="10"/>
-      <c r="AQ3" s="10"/>
-      <c r="AR3" s="10"/>
-      <c r="AS3" s="10"/>
-    </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AK4" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="5">
-        <v>2645.28</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="5">
-        <v>1787.2</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="T5" s="5">
-        <v>2019.12</v>
-      </c>
-      <c r="U5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC5" s="5">
-        <v>2219.16</v>
-      </c>
-      <c r="AD5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE5" s="5"/>
-      <c r="AF5" s="5"/>
-      <c r="AG5" s="5"/>
-      <c r="AH5" s="5"/>
-      <c r="AI5" s="5"/>
-      <c r="AJ5" s="5"/>
-      <c r="AK5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL5" s="5">
-        <v>138.69999999999999</v>
-      </c>
-      <c r="AM5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN5" s="5"/>
-      <c r="AO5" s="5"/>
-      <c r="AP5" s="5"/>
-      <c r="AQ5" s="5"/>
-      <c r="AR5" s="5"/>
-      <c r="AS5" s="5"/>
-    </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="5">
-        <v>2.79</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="K6" s="5">
-        <v>0.71</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="T6" s="5">
-        <v>3.53</v>
-      </c>
-      <c r="U6" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC6" s="5">
-        <v>1.41</v>
-      </c>
-      <c r="AD6" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="AE6" s="5"/>
-      <c r="AF6" s="5"/>
-      <c r="AG6" s="5"/>
-      <c r="AH6" s="5"/>
-      <c r="AI6" s="5"/>
-      <c r="AJ6" s="5"/>
-      <c r="AK6" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL6" s="5">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="AM6" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="AN6" s="5"/>
-      <c r="AO6" s="5"/>
-      <c r="AP6" s="5"/>
-      <c r="AQ6" s="5"/>
-      <c r="AR6" s="5"/>
-      <c r="AS6" s="5"/>
-    </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
-      <c r="X7" s="22"/>
-      <c r="Y7" s="22"/>
-      <c r="Z7" s="22"/>
-      <c r="AA7" s="22"/>
-      <c r="AB7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC7" s="22"/>
-      <c r="AD7" s="22"/>
-      <c r="AE7" s="22"/>
-      <c r="AF7" s="22"/>
-      <c r="AG7" s="22"/>
-      <c r="AH7" s="22"/>
-      <c r="AI7" s="22"/>
-      <c r="AJ7" s="22"/>
-      <c r="AK7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="AL7" s="22"/>
-      <c r="AM7" s="22"/>
-      <c r="AN7" s="22"/>
-      <c r="AO7" s="22"/>
-      <c r="AP7" s="22"/>
-      <c r="AQ7" s="22"/>
-      <c r="AR7" s="22"/>
-      <c r="AS7" s="22"/>
-    </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="U8" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="V8" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="W8" s="40"/>
-      <c r="X8" s="40"/>
-      <c r="Y8" s="40"/>
-      <c r="Z8" s="40"/>
-      <c r="AA8" s="40"/>
-      <c r="AB8" s="8"/>
-      <c r="AC8" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD8" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE8" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF8" s="40"/>
-      <c r="AG8" s="40"/>
-      <c r="AH8" s="40"/>
-      <c r="AI8" s="40"/>
-      <c r="AJ8" s="40"/>
-      <c r="AK8" s="8"/>
-      <c r="AL8" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM8" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN8" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="AO8" s="40"/>
-      <c r="AP8" s="40"/>
-      <c r="AQ8" s="40"/>
-      <c r="AR8" s="40"/>
-      <c r="AS8" s="40"/>
-    </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="5">
-        <v>0.72</v>
-      </c>
-      <c r="C9" s="5">
-        <v>0.85</v>
-      </c>
-      <c r="D9" s="5">
-        <v>51</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" s="5">
-        <v>0.03</v>
-      </c>
-      <c r="L9" s="5">
-        <v>0.17</v>
-      </c>
-      <c r="M9" s="5">
-        <v>44</v>
-      </c>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="T9" s="5">
-        <v>0.93</v>
-      </c>
-      <c r="U9" s="5">
-        <v>0.96</v>
-      </c>
-      <c r="V9" s="5">
-        <v>44</v>
-      </c>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC9" s="5">
-        <v>0.12</v>
-      </c>
-      <c r="AD9" s="5">
-        <v>0.35</v>
-      </c>
-      <c r="AE9" s="5">
-        <v>61</v>
-      </c>
-      <c r="AF9" s="5"/>
-      <c r="AG9" s="5"/>
-      <c r="AH9" s="5"/>
-      <c r="AI9" s="5"/>
-      <c r="AJ9" s="5"/>
-      <c r="AK9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="AL9" s="5">
-        <v>0.03</v>
-      </c>
-      <c r="AM9" s="5">
-        <v>0.17</v>
-      </c>
-      <c r="AN9" s="5">
-        <v>11</v>
-      </c>
-      <c r="AO9" s="5"/>
-      <c r="AP9" s="5"/>
-      <c r="AQ9" s="5"/>
-      <c r="AR9" s="5"/>
-      <c r="AS9" s="5"/>
-    </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="5">
-        <v>0</v>
-      </c>
-      <c r="C10" s="5">
-        <v>0</v>
-      </c>
-      <c r="D10" s="5">
-        <v>107</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" s="5">
-        <v>0.09</v>
-      </c>
-      <c r="L10" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="M10" s="5">
-        <v>22</v>
-      </c>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="T10" s="5">
-        <v>0</v>
-      </c>
-      <c r="U10" s="5">
-        <v>1E-4</v>
-      </c>
-      <c r="V10" s="5">
-        <v>41</v>
-      </c>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC10" s="5">
-        <v>0.06</v>
-      </c>
-      <c r="AD10" s="5">
-        <v>0.24</v>
-      </c>
-      <c r="AE10" s="5">
-        <v>45</v>
-      </c>
-      <c r="AF10" s="5"/>
-      <c r="AG10" s="5"/>
-      <c r="AH10" s="5"/>
-      <c r="AI10" s="5"/>
-      <c r="AJ10" s="5"/>
-      <c r="AK10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="AL10" s="5">
-        <v>0</v>
-      </c>
-      <c r="AM10" s="5">
-        <v>0</v>
-      </c>
-      <c r="AN10" s="5">
-        <v>10</v>
-      </c>
-      <c r="AO10" s="5"/>
-      <c r="AP10" s="5"/>
-      <c r="AQ10" s="5"/>
-      <c r="AR10" s="5"/>
-      <c r="AS10" s="5"/>
-    </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="5">
-        <v>0.11</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0.33</v>
-      </c>
-      <c r="D11" s="5">
-        <v>506</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="5">
-        <v>0.15</v>
-      </c>
-      <c r="L11" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="M11" s="5">
-        <v>502</v>
-      </c>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="T11" s="5">
-        <v>0.11</v>
-      </c>
-      <c r="U11" s="5">
-        <v>0.32</v>
-      </c>
-      <c r="V11" s="5">
-        <v>468</v>
-      </c>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC11" s="5">
-        <v>0.15</v>
-      </c>
-      <c r="AD11" s="5">
-        <v>0.39</v>
-      </c>
-      <c r="AE11" s="5">
-        <v>700</v>
-      </c>
-      <c r="AF11" s="5"/>
-      <c r="AG11" s="5"/>
-      <c r="AH11" s="5"/>
-      <c r="AI11" s="5"/>
-      <c r="AJ11" s="5"/>
-      <c r="AK11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AL11" s="5">
-        <v>0.04</v>
-      </c>
-      <c r="AM11" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="AN11" s="5">
-        <v>95</v>
-      </c>
-      <c r="AO11" s="5"/>
-      <c r="AP11" s="5"/>
-      <c r="AQ11" s="5"/>
-      <c r="AR11" s="5"/>
-      <c r="AS11" s="5"/>
-    </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="T12" s="22"/>
-      <c r="U12" s="22"/>
-      <c r="V12" s="22"/>
-      <c r="W12" s="22"/>
-      <c r="X12" s="22"/>
-      <c r="Y12" s="22"/>
-      <c r="Z12" s="22"/>
-      <c r="AA12" s="22"/>
-      <c r="AB12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC12" s="22"/>
-      <c r="AD12" s="22"/>
-      <c r="AE12" s="22"/>
-      <c r="AF12" s="22"/>
-      <c r="AG12" s="22"/>
-      <c r="AH12" s="22"/>
-      <c r="AI12" s="22"/>
-      <c r="AJ12" s="22"/>
-      <c r="AK12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="AL12" s="22"/>
-      <c r="AM12" s="22"/>
-      <c r="AN12" s="22"/>
-      <c r="AO12" s="22"/>
-      <c r="AP12" s="22"/>
-      <c r="AQ12" s="22"/>
-      <c r="AR12" s="22"/>
-      <c r="AS12" s="22"/>
-    </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A13" s="40"/>
-      <c r="B13" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="I13" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="M13" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="N13" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="O13" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="P13" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q13" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="R13" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="S13" s="40"/>
-      <c r="T13" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="U13" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="V13" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="W13" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="X13" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y13" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z13" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA13" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB13" s="40"/>
-      <c r="AC13" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD13" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE13" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF13" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG13" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH13" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI13" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="AJ13" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK13" s="40"/>
-      <c r="AL13" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM13" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN13" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="AO13" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="AP13" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="AQ13" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="AR13" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="AS13" s="40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="5">
-        <v>-0.08</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="E14" s="5">
-        <v>-0.56000000000000005</v>
-      </c>
-      <c r="F14" s="5">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="G14" s="13">
-        <v>74</v>
-      </c>
-      <c r="H14" s="13">
-        <v>9</v>
-      </c>
-      <c r="I14" s="13">
-        <v>14</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="K14" s="5">
-        <v>-0.12</v>
-      </c>
-      <c r="L14" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="M14" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="N14" s="5">
-        <v>-0.5</v>
-      </c>
-      <c r="O14" s="5">
-        <v>0.62</v>
-      </c>
-      <c r="P14" s="13">
-        <v>92</v>
-      </c>
-      <c r="Q14" s="13">
-        <v>5</v>
-      </c>
-      <c r="R14" s="13">
-        <v>9</v>
-      </c>
-      <c r="S14" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="T14" s="5">
-        <v>0.04</v>
-      </c>
-      <c r="U14" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="V14" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="W14" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="X14" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="Y14" s="13">
-        <v>205</v>
-      </c>
-      <c r="Z14" s="13">
-        <v>20</v>
-      </c>
-      <c r="AA14" s="13">
-        <v>22</v>
-      </c>
-      <c r="AB14" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC14" s="5">
-        <v>-0.16</v>
-      </c>
-      <c r="AD14" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="AE14" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="AF14" s="5">
-        <v>-0.82</v>
-      </c>
-      <c r="AG14" s="5">
-        <v>0.41</v>
-      </c>
-      <c r="AH14" s="13">
-        <v>84</v>
-      </c>
-      <c r="AI14" s="13">
-        <v>12</v>
-      </c>
-      <c r="AJ14" s="13">
-        <v>14</v>
-      </c>
-      <c r="AK14" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="AL14" s="5">
-        <v>-0.04</v>
-      </c>
-      <c r="AM14" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="AN14" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="AO14" s="5">
-        <v>-0.22</v>
-      </c>
-      <c r="AP14" s="5">
-        <v>0.83</v>
-      </c>
-      <c r="AQ14" s="13">
-        <v>5</v>
-      </c>
-      <c r="AR14" s="13">
-        <v>3</v>
-      </c>
-      <c r="AS14" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="5">
-        <v>-0.12</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="E15" s="5">
-        <v>-0.85</v>
-      </c>
-      <c r="F15" s="5">
-        <v>0.36</v>
-      </c>
-      <c r="G15" s="13">
-        <v>50</v>
-      </c>
-      <c r="H15" s="13">
-        <v>10</v>
-      </c>
-      <c r="I15" s="13">
-        <v>11</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K15" s="5">
-        <v>-0.04</v>
-      </c>
-      <c r="L15" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="M15" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="N15" s="5">
-        <v>-0.16</v>
-      </c>
-      <c r="O15" s="5">
-        <v>0.88</v>
-      </c>
-      <c r="P15" s="13">
-        <v>95</v>
-      </c>
-      <c r="Q15" s="13">
-        <v>14</v>
-      </c>
-      <c r="R15" s="13">
-        <v>17</v>
-      </c>
-      <c r="S15" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="T15" s="5">
-        <v>0.46</v>
-      </c>
-      <c r="U15" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="V15" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="W15" s="5">
-        <v>2.31</v>
-      </c>
-      <c r="X15" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="Y15" s="5">
-        <v>45</v>
-      </c>
-      <c r="Z15" s="5">
-        <v>10</v>
-      </c>
-      <c r="AA15" s="5">
-        <v>9</v>
-      </c>
-      <c r="AB15" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC15" s="5">
-        <v>0.11</v>
-      </c>
-      <c r="AD15" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="AE15" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="AF15" s="5">
-        <v>0.59</v>
-      </c>
-      <c r="AG15" s="5">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="AH15" s="13">
-        <v>87</v>
-      </c>
-      <c r="AI15" s="13">
-        <v>14</v>
-      </c>
-      <c r="AJ15" s="13">
-        <v>16</v>
-      </c>
-      <c r="AK15" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL15" s="5">
-        <v>-0.12</v>
-      </c>
-      <c r="AM15" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="AN15" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="AO15" s="5">
-        <v>-0.76</v>
-      </c>
-      <c r="AP15" s="5">
-        <v>0.45</v>
-      </c>
-      <c r="AQ15" s="13">
-        <v>30</v>
-      </c>
-      <c r="AR15" s="13">
-        <v>2</v>
-      </c>
-      <c r="AS15" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="5">
-        <v>-0.12</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>124</v>
-      </c>
-      <c r="E16" s="5">
-        <v>-0.92</v>
-      </c>
-      <c r="F16" s="5">
-        <v>0.36</v>
-      </c>
-      <c r="G16" s="13">
-        <v>264</v>
-      </c>
-      <c r="H16" s="13">
-        <v>96</v>
-      </c>
-      <c r="I16" s="13">
-        <v>24</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="K16" s="5">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="L16" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="M16" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="N16" s="5">
-        <v>-0.32</v>
-      </c>
-      <c r="O16" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="P16" s="13">
-        <v>176</v>
-      </c>
-      <c r="Q16" s="13">
-        <v>13</v>
-      </c>
-      <c r="R16" s="13">
-        <v>24</v>
-      </c>
-      <c r="S16" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="T16" s="5">
-        <v>0.23</v>
-      </c>
-      <c r="U16" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="V16" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="W16" s="5">
-        <v>1.48</v>
-      </c>
-      <c r="X16" s="5">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="Y16" s="13">
-        <v>178</v>
-      </c>
-      <c r="Z16" s="13">
-        <v>26</v>
-      </c>
-      <c r="AA16" s="13">
-        <v>27</v>
-      </c>
-      <c r="AB16" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC16" s="5">
-        <v>0.16</v>
-      </c>
-      <c r="AD16" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="AE16" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="AF16" s="5">
-        <v>0.96</v>
-      </c>
-      <c r="AG16" s="5">
-        <v>0.34</v>
-      </c>
-      <c r="AH16" s="13">
-        <v>208</v>
-      </c>
-      <c r="AI16" s="13">
-        <v>27</v>
-      </c>
-      <c r="AJ16" s="13">
-        <v>27</v>
-      </c>
-      <c r="AK16" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AL16" s="5">
-        <v>0.08</v>
-      </c>
-      <c r="AM16" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="AN16" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="AO16" s="5">
-        <v>0.68</v>
-      </c>
-      <c r="AP16" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="AQ16" s="13">
-        <v>25</v>
-      </c>
-      <c r="AR16" s="13">
-        <v>3</v>
-      </c>
-      <c r="AS16" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="E17" s="5">
-        <v>0.73</v>
-      </c>
-      <c r="F17" s="5">
-        <v>0.46</v>
-      </c>
-      <c r="G17" s="13">
-        <v>84</v>
-      </c>
-      <c r="H17" s="13">
-        <v>9</v>
-      </c>
-      <c r="I17" s="13">
-        <v>16</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="K17" s="5">
-        <v>-6.0000000000000001E-3</v>
-      </c>
-      <c r="L17" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="M17" s="37" t="s">
-        <v>135</v>
-      </c>
-      <c r="N17" s="5">
-        <v>-0.03</v>
-      </c>
-      <c r="O17" s="5">
-        <v>0.98</v>
-      </c>
-      <c r="P17" s="13">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="13">
-        <v>8</v>
-      </c>
-      <c r="R17" s="13">
-        <v>11</v>
-      </c>
-      <c r="S17" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="T17" s="5">
-        <v>0.08</v>
-      </c>
-      <c r="U17" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="V17" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="W17" s="5">
-        <v>0.45</v>
-      </c>
-      <c r="X17" s="5">
-        <v>0.65</v>
-      </c>
-      <c r="Y17" s="13">
-        <v>31</v>
-      </c>
-      <c r="Z17" s="13">
-        <v>8</v>
-      </c>
-      <c r="AA17" s="13">
-        <v>9</v>
-      </c>
-      <c r="AB17" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC17" s="5">
-        <v>0.04</v>
-      </c>
-      <c r="AD17" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="AE17" s="37" t="s">
-        <v>145</v>
-      </c>
-      <c r="AF17" s="5">
-        <v>0.26</v>
-      </c>
-      <c r="AG17" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="AH17" s="13">
-        <v>223</v>
-      </c>
-      <c r="AI17" s="13">
-        <v>16</v>
-      </c>
-      <c r="AJ17" s="13">
-        <v>19</v>
-      </c>
-      <c r="AK17" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AL17" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="AM17" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="AN17" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO17" s="5">
-        <v>2.21</v>
-      </c>
-      <c r="AP17" s="5">
-        <v>0.03</v>
-      </c>
-      <c r="AQ17" s="13">
-        <v>32</v>
-      </c>
-      <c r="AR17" s="13">
-        <v>4</v>
-      </c>
-      <c r="AS17" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:45" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="15">
-        <v>-0.48</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="E18" s="15">
-        <v>-2.0699999999999998</v>
-      </c>
-      <c r="F18" s="15">
-        <v>0.04</v>
-      </c>
-      <c r="G18" s="15">
-        <v>34</v>
-      </c>
-      <c r="H18" s="15">
-        <v>3</v>
-      </c>
-      <c r="I18" s="15">
-        <v>4</v>
-      </c>
-      <c r="J18" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="K18" s="15">
-        <v>-0.25</v>
-      </c>
-      <c r="L18" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="M18" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="N18" s="15">
-        <v>-1.01</v>
-      </c>
-      <c r="O18" s="15">
-        <v>0.31</v>
-      </c>
-      <c r="P18" s="15">
-        <v>34</v>
-      </c>
-      <c r="Q18" s="15">
-        <v>6</v>
-      </c>
-      <c r="R18" s="15">
-        <v>7</v>
-      </c>
-      <c r="S18" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="T18" s="15">
-        <v>0.27</v>
-      </c>
-      <c r="U18" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="V18" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="W18" s="15">
-        <v>1.22</v>
-      </c>
-      <c r="X18" s="15">
-        <v>0.22</v>
-      </c>
-      <c r="Y18" s="15">
-        <v>9</v>
-      </c>
-      <c r="Z18" s="15">
-        <v>2</v>
-      </c>
-      <c r="AA18" s="15">
-        <v>2</v>
-      </c>
-      <c r="AB18" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC18" s="15">
-        <v>0.09</v>
-      </c>
-      <c r="AD18" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="AE18" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="AF18" s="15">
-        <v>0.46</v>
-      </c>
-      <c r="AG18" s="15">
-        <v>0.64</v>
-      </c>
-      <c r="AH18" s="15">
-        <v>98</v>
-      </c>
-      <c r="AI18" s="15">
-        <v>10</v>
-      </c>
-      <c r="AJ18" s="15">
-        <v>12</v>
-      </c>
-      <c r="AK18" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="AL18" s="15">
-        <v>-7.0000000000000001E-3</v>
-      </c>
-      <c r="AM18" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="AN18" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="AO18" s="15">
-        <v>-0.03</v>
-      </c>
-      <c r="AP18" s="15">
-        <v>0.98</v>
-      </c>
-      <c r="AQ18" s="15">
-        <v>3</v>
-      </c>
-      <c r="AR18" s="15">
-        <v>2</v>
-      </c>
-      <c r="AS18" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="S19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="AK19" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="5">
-        <v>3662.93</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="K20" s="5">
-        <v>966.49</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="S20" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="T20" s="5">
-        <v>1272.45</v>
-      </c>
-      <c r="U20" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB20" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC20" s="5">
-        <v>1077.55</v>
-      </c>
-      <c r="AD20" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK20" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL20" s="5">
-        <v>49.94</v>
-      </c>
-      <c r="AM20" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="5">
-        <v>1.79</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="K21" s="5">
-        <v>1.73</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="S21" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="T21" s="5">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="U21" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB21" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC21" s="5">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="AD21" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="AK21" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL21" s="5">
-        <v>1.48</v>
-      </c>
-      <c r="AM21" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="22" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="T22" s="22"/>
-      <c r="U22" s="22"/>
-      <c r="V22" s="22"/>
-      <c r="W22" s="22"/>
-      <c r="X22" s="22"/>
-      <c r="Y22" s="22"/>
-      <c r="Z22" s="22"/>
-      <c r="AA22" s="22"/>
-      <c r="AB22" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC22" s="22"/>
-      <c r="AD22" s="22"/>
-      <c r="AE22" s="22"/>
-      <c r="AF22" s="22"/>
-      <c r="AG22" s="22"/>
-      <c r="AH22" s="22"/>
-      <c r="AI22" s="22"/>
-      <c r="AJ22" s="22"/>
-      <c r="AK22" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="AL22" s="22"/>
-      <c r="AM22" s="22"/>
-      <c r="AN22" s="22"/>
-      <c r="AO22" s="22"/>
-      <c r="AP22" s="22"/>
-      <c r="AQ22" s="22"/>
-      <c r="AR22" s="22"/>
-      <c r="AS22" s="22"/>
-    </row>
-    <row r="23" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="L23" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="M23" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="40"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="U23" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="V23" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="W23" s="40"/>
-      <c r="X23" s="40"/>
-      <c r="Y23" s="40"/>
-      <c r="Z23" s="40"/>
-      <c r="AA23" s="40"/>
-      <c r="AB23" s="8"/>
-      <c r="AC23" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD23" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE23" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF23" s="40"/>
-      <c r="AG23" s="40"/>
-      <c r="AH23" s="40"/>
-      <c r="AI23" s="40"/>
-      <c r="AJ23" s="40"/>
-      <c r="AK23" s="8"/>
-      <c r="AL23" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM23" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN23" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="AO23" s="40"/>
-      <c r="AP23" s="40"/>
-      <c r="AQ23" s="40"/>
-      <c r="AR23" s="40"/>
-      <c r="AS23" s="40"/>
-    </row>
-    <row r="24" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="5">
-        <v>0.31</v>
-      </c>
-      <c r="C24" s="5">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D24" s="5">
-        <v>51</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K24" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="L24" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="M24" s="5">
-        <v>44</v>
-      </c>
-      <c r="S24" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="T24" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="U24" s="5">
-        <v>0.23</v>
-      </c>
-      <c r="V24" s="5">
-        <v>44</v>
-      </c>
-      <c r="AB24" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC24" s="5">
-        <v>0.04</v>
-      </c>
-      <c r="AD24" s="5">
-        <v>0.19</v>
-      </c>
-      <c r="AE24" s="5">
-        <v>61</v>
-      </c>
-      <c r="AK24" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="AL24" s="5">
-        <v>0</v>
-      </c>
-      <c r="AM24" s="5">
-        <v>0</v>
-      </c>
-      <c r="AN24" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="5">
-        <v>0</v>
-      </c>
-      <c r="C25" s="5">
-        <v>1E-4</v>
-      </c>
-      <c r="D25" s="5">
-        <v>107</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K25" s="5">
-        <v>0</v>
-      </c>
-      <c r="L25" s="5">
-        <v>0</v>
-      </c>
-      <c r="M25" s="5">
-        <v>22</v>
-      </c>
-      <c r="S25" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="T25" s="5">
-        <v>0</v>
-      </c>
-      <c r="U25" s="5">
-        <v>0</v>
-      </c>
-      <c r="V25" s="5">
-        <v>41</v>
-      </c>
-      <c r="AB25" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC25" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="AD25" s="5">
-        <v>0.22</v>
-      </c>
-      <c r="AE25" s="5">
-        <v>45</v>
-      </c>
-      <c r="AK25" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="AL25" s="5">
-        <v>0</v>
-      </c>
-      <c r="AM25" s="5">
-        <v>0</v>
-      </c>
-      <c r="AN25" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="5">
-        <v>0.38</v>
-      </c>
-      <c r="C26" s="5">
-        <v>0.62</v>
-      </c>
-      <c r="D26" s="5">
-        <v>506</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K26" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="L26" s="5">
-        <v>0.32</v>
-      </c>
-      <c r="M26" s="5">
-        <v>502</v>
-      </c>
-      <c r="S26" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="T26" s="5">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="U26" s="5">
-        <v>0.26</v>
-      </c>
-      <c r="V26" s="5">
-        <v>468</v>
-      </c>
-      <c r="AB26" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC26" s="5">
-        <v>0.03</v>
-      </c>
-      <c r="AD26" s="5">
-        <v>0.18</v>
-      </c>
-      <c r="AE26" s="5">
-        <v>700</v>
-      </c>
-      <c r="AK26" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AL26" s="5">
-        <v>0</v>
-      </c>
-      <c r="AM26" s="5">
-        <v>0</v>
-      </c>
-      <c r="AN26" s="5">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="22"/>
-      <c r="S27" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="T27" s="22"/>
-      <c r="U27" s="22"/>
-      <c r="V27" s="22"/>
-      <c r="W27" s="22"/>
-      <c r="X27" s="22"/>
-      <c r="Y27" s="22"/>
-      <c r="Z27" s="22"/>
-      <c r="AA27" s="22"/>
-      <c r="AB27" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC27" s="22"/>
-      <c r="AD27" s="22"/>
-      <c r="AE27" s="22"/>
-      <c r="AF27" s="22"/>
-      <c r="AG27" s="22"/>
-      <c r="AH27" s="22"/>
-      <c r="AI27" s="22"/>
-      <c r="AJ27" s="22"/>
-      <c r="AK27" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="AL27" s="22"/>
-      <c r="AM27" s="22"/>
-      <c r="AN27" s="22"/>
-      <c r="AO27" s="22"/>
-      <c r="AP27" s="22"/>
-      <c r="AQ27" s="22"/>
-      <c r="AR27" s="22"/>
-      <c r="AS27" s="22"/>
-    </row>
-    <row r="28" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G28" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="H28" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="I28" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L28" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="M28" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="N28" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="O28" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="P28" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q28" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="R28" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="T28" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="U28" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="V28" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="W28" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="X28" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y28" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z28" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA28" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC28" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD28" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE28" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF28" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG28" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH28" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI28" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="AJ28" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL28" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM28" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN28" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="AO28" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="AP28" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="AQ28" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="AR28" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="AS28" s="40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" s="22">
-        <v>0.02</v>
-      </c>
-      <c r="C29" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="D29" s="32" t="s">
-        <v>211</v>
-      </c>
-      <c r="E29" s="22">
-        <v>0.17</v>
-      </c>
-      <c r="F29" s="22">
-        <v>0.87</v>
-      </c>
-      <c r="G29" s="13">
-        <v>74</v>
-      </c>
-      <c r="H29" s="13">
-        <v>9</v>
-      </c>
-      <c r="I29" s="13">
-        <v>14</v>
-      </c>
-      <c r="J29" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="K29" s="22">
-        <v>-0.02</v>
-      </c>
-      <c r="L29" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="M29" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="N29" s="22">
-        <v>-0.34</v>
-      </c>
-      <c r="O29" s="22">
-        <v>0.73</v>
-      </c>
-      <c r="P29" s="13">
-        <v>92</v>
-      </c>
-      <c r="Q29" s="13">
-        <v>5</v>
-      </c>
-      <c r="R29" s="13">
-        <v>9</v>
-      </c>
-      <c r="S29" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="T29" s="22">
-        <v>-0.14000000000000001</v>
-      </c>
-      <c r="U29" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="V29" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="W29" s="22">
-        <v>-2.44</v>
-      </c>
-      <c r="X29" s="22">
-        <v>0.01</v>
-      </c>
-      <c r="Y29" s="13">
-        <v>205</v>
-      </c>
-      <c r="Z29" s="13">
-        <v>20</v>
-      </c>
-      <c r="AA29" s="13">
-        <v>22</v>
-      </c>
-      <c r="AB29" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC29" s="22">
-        <v>0.12</v>
-      </c>
-      <c r="AD29" s="32" t="s">
-        <v>187</v>
-      </c>
-      <c r="AE29" s="32" t="s">
-        <v>201</v>
-      </c>
-      <c r="AF29" s="22">
-        <v>0.76</v>
-      </c>
-      <c r="AG29" s="22">
-        <v>0.45</v>
-      </c>
-      <c r="AH29" s="13">
-        <v>84</v>
-      </c>
-      <c r="AI29" s="13">
-        <v>12</v>
-      </c>
-      <c r="AJ29" s="13">
-        <v>14</v>
-      </c>
-      <c r="AK29" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="AL29" s="22">
-        <v>-0.1</v>
-      </c>
-      <c r="AM29" s="32" t="s">
-        <v>193</v>
-      </c>
-      <c r="AN29" s="32" t="s">
-        <v>193</v>
-      </c>
-      <c r="AO29" s="22">
-        <v>-0.69</v>
-      </c>
-      <c r="AP29" s="22">
-        <v>0.49</v>
-      </c>
-      <c r="AQ29" s="13">
-        <v>5</v>
-      </c>
-      <c r="AR29" s="13">
-        <v>3</v>
-      </c>
-      <c r="AS29" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" s="23">
-        <v>-0.09</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="D30" s="30" t="s">
-        <v>212</v>
-      </c>
-      <c r="E30" s="23">
-        <v>-0.56999999999999995</v>
-      </c>
-      <c r="F30" s="23">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="G30" s="13">
-        <v>50</v>
-      </c>
-      <c r="H30" s="13">
-        <v>10</v>
-      </c>
-      <c r="I30" s="13">
-        <v>11</v>
-      </c>
-      <c r="J30" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="K30" s="23">
-        <v>-0.13</v>
-      </c>
-      <c r="L30" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="M30" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="N30" s="23">
-        <v>-2.08</v>
-      </c>
-      <c r="O30" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="P30" s="13">
-        <v>95</v>
-      </c>
-      <c r="Q30" s="13">
-        <v>14</v>
-      </c>
-      <c r="R30" s="13">
-        <v>17</v>
-      </c>
-      <c r="S30" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="T30" s="23">
-        <v>-0.05</v>
-      </c>
-      <c r="U30" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="V30" s="30" t="s">
-        <v>203</v>
-      </c>
-      <c r="W30" s="23">
-        <v>-0.5</v>
-      </c>
-      <c r="X30" s="23">
-        <v>0.62</v>
-      </c>
-      <c r="Y30" s="5">
-        <v>45</v>
-      </c>
-      <c r="Z30" s="5">
-        <v>10</v>
-      </c>
-      <c r="AA30" s="5">
-        <v>9</v>
-      </c>
-      <c r="AB30" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC30" s="23">
-        <v>0.11</v>
-      </c>
-      <c r="AD30" s="30" t="s">
-        <v>188</v>
-      </c>
-      <c r="AE30" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="AF30" s="23">
-        <v>0.73</v>
-      </c>
-      <c r="AG30" s="23">
-        <v>0.46</v>
-      </c>
-      <c r="AH30" s="13">
-        <v>87</v>
-      </c>
-      <c r="AI30" s="13">
-        <v>14</v>
-      </c>
-      <c r="AJ30" s="13">
-        <v>16</v>
-      </c>
-      <c r="AK30" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL30" s="23">
-        <v>0.16</v>
-      </c>
-      <c r="AM30" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="AN30" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="AO30" s="23">
-        <v>1.89</v>
-      </c>
-      <c r="AP30" s="23">
-        <v>0.06</v>
-      </c>
-      <c r="AQ30" s="13">
-        <v>30</v>
-      </c>
-      <c r="AR30" s="13">
-        <v>2</v>
-      </c>
-      <c r="AS30" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" s="23">
-        <v>0.02</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="D31" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="E31" s="23">
-        <v>0.21</v>
-      </c>
-      <c r="F31" s="23">
-        <v>0.83</v>
-      </c>
-      <c r="G31" s="13">
-        <v>264</v>
-      </c>
-      <c r="H31" s="13">
-        <v>96</v>
-      </c>
-      <c r="I31" s="13">
-        <v>24</v>
-      </c>
-      <c r="J31" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="K31" s="23">
-        <v>-4.0000000000000001E-3</v>
-      </c>
-      <c r="L31" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="M31" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="N31" s="23">
-        <v>-0.09</v>
-      </c>
-      <c r="O31" s="23">
-        <v>0.93</v>
-      </c>
-      <c r="P31" s="13">
-        <v>176</v>
-      </c>
-      <c r="Q31" s="13">
-        <v>13</v>
-      </c>
-      <c r="R31" s="13">
-        <v>24</v>
-      </c>
-      <c r="S31" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="T31" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="U31" s="30" t="s">
-        <v>182</v>
-      </c>
-      <c r="V31" s="37" t="s">
-        <v>204</v>
-      </c>
-      <c r="W31" s="23">
-        <v>0.23</v>
-      </c>
-      <c r="X31" s="23">
-        <v>0.82</v>
-      </c>
-      <c r="Y31" s="13">
-        <v>178</v>
-      </c>
-      <c r="Z31" s="13">
-        <v>26</v>
-      </c>
-      <c r="AA31" s="13">
-        <v>27</v>
-      </c>
-      <c r="AB31" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC31" s="23">
-        <v>0.05</v>
-      </c>
-      <c r="AD31" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE31" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="AF31" s="23">
-        <v>0.34</v>
-      </c>
-      <c r="AG31" s="23">
-        <v>0.74</v>
-      </c>
-      <c r="AH31" s="13">
-        <v>208</v>
-      </c>
-      <c r="AI31" s="13">
-        <v>27</v>
-      </c>
-      <c r="AJ31" s="13">
-        <v>27</v>
-      </c>
-      <c r="AK31" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="AL31" s="23">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AM31" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="AN31" s="37" t="s">
-        <v>195</v>
-      </c>
-      <c r="AO31" s="23">
-        <v>1</v>
-      </c>
-      <c r="AP31" s="23">
-        <v>0.32</v>
-      </c>
-      <c r="AQ31" s="13">
-        <v>25</v>
-      </c>
-      <c r="AR31" s="13">
-        <v>3</v>
-      </c>
-      <c r="AS31" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" s="23">
-        <v>-0.31</v>
-      </c>
-      <c r="C32" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="D32" s="30" t="s">
-        <v>214</v>
-      </c>
-      <c r="E32" s="23">
-        <v>-2.38</v>
-      </c>
-      <c r="F32" s="23">
-        <v>0.02</v>
-      </c>
-      <c r="G32" s="13">
-        <v>84</v>
-      </c>
-      <c r="H32" s="13">
-        <v>9</v>
-      </c>
-      <c r="I32" s="13">
-        <v>16</v>
-      </c>
-      <c r="J32" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="K32" s="23">
-        <v>-0.03</v>
-      </c>
-      <c r="L32" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="M32" s="30" t="s">
-        <v>209</v>
-      </c>
-      <c r="N32" s="23">
-        <v>-0.5</v>
-      </c>
-      <c r="O32" s="23">
-        <v>0.62</v>
-      </c>
-      <c r="P32" s="13">
-        <v>105</v>
-      </c>
-      <c r="Q32" s="13">
-        <v>8</v>
-      </c>
-      <c r="R32" s="13">
-        <v>11</v>
-      </c>
-      <c r="S32" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="T32" s="23">
-        <v>0.1</v>
-      </c>
-      <c r="U32" s="30" t="s">
-        <v>183</v>
-      </c>
-      <c r="V32" s="30" t="s">
-        <v>205</v>
-      </c>
-      <c r="W32" s="23">
-        <v>1.17</v>
-      </c>
-      <c r="X32" s="23">
-        <v>0.24</v>
-      </c>
-      <c r="Y32" s="13">
-        <v>31</v>
-      </c>
-      <c r="Z32" s="13">
-        <v>8</v>
-      </c>
-      <c r="AA32" s="13">
-        <v>9</v>
-      </c>
-      <c r="AB32" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC32" s="23">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AD32" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="AE32" s="30" t="s">
-        <v>199</v>
-      </c>
-      <c r="AF32" s="23">
-        <v>0.47</v>
-      </c>
-      <c r="AG32" s="23">
-        <v>0.64</v>
-      </c>
-      <c r="AH32" s="13">
-        <v>223</v>
-      </c>
-      <c r="AI32" s="13">
-        <v>16</v>
-      </c>
-      <c r="AJ32" s="13">
-        <v>19</v>
-      </c>
-      <c r="AK32" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="AL32" s="23">
-        <v>-0.12</v>
-      </c>
-      <c r="AM32" s="30" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN32" s="30" t="s">
-        <v>196</v>
-      </c>
-      <c r="AO32" s="23">
-        <v>-1.52</v>
-      </c>
-      <c r="AP32" s="23">
-        <v>0.13</v>
-      </c>
-      <c r="AQ32" s="13">
-        <v>32</v>
-      </c>
-      <c r="AR32" s="13">
-        <v>4</v>
-      </c>
-      <c r="AS32" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:45" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" s="15">
-        <v>0.1</v>
-      </c>
-      <c r="C33" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="D33" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="E33" s="15">
-        <v>0.39</v>
-      </c>
-      <c r="F33" s="15">
-        <v>0.7</v>
-      </c>
-      <c r="G33" s="15">
-        <v>34</v>
-      </c>
-      <c r="H33" s="15">
-        <v>3</v>
-      </c>
-      <c r="I33" s="15">
-        <v>4</v>
-      </c>
-      <c r="J33" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="K33" s="15">
-        <v>0.17</v>
-      </c>
-      <c r="L33" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="M33" s="26" t="s">
-        <v>210</v>
-      </c>
-      <c r="N33" s="15">
-        <v>1.91</v>
-      </c>
-      <c r="O33" s="15">
-        <v>0.06</v>
-      </c>
-      <c r="P33" s="15">
-        <v>34</v>
-      </c>
-      <c r="Q33" s="15">
-        <v>6</v>
-      </c>
-      <c r="R33" s="15">
-        <v>7</v>
-      </c>
-      <c r="S33" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="T33" s="15">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="U33" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="V33" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="W33" s="15">
-        <v>0.89</v>
-      </c>
-      <c r="X33" s="15">
-        <v>0.37</v>
-      </c>
-      <c r="Y33" s="15">
-        <v>9</v>
-      </c>
-      <c r="Z33" s="15">
-        <v>2</v>
-      </c>
-      <c r="AA33" s="15">
-        <v>2</v>
-      </c>
-      <c r="AB33" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC33" s="15">
-        <v>0.05</v>
-      </c>
-      <c r="AD33" s="26" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE33" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="AF33" s="15">
-        <v>0.33</v>
-      </c>
-      <c r="AG33" s="15">
-        <v>0.74</v>
-      </c>
-      <c r="AH33" s="15">
-        <v>98</v>
-      </c>
-      <c r="AI33" s="15">
-        <v>10</v>
-      </c>
-      <c r="AJ33" s="15">
-        <v>12</v>
-      </c>
-      <c r="AK33" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="AL33" s="15">
-        <v>0.03</v>
-      </c>
-      <c r="AM33" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="AN33" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="AO33" s="15">
-        <v>0.11</v>
-      </c>
-      <c r="AP33" s="15">
-        <v>0.91</v>
-      </c>
-      <c r="AQ33" s="15">
-        <v>3</v>
-      </c>
-      <c r="AR33" s="15">
-        <v>2</v>
-      </c>
-      <c r="AS33" s="15">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{874C765E-59DE-F948-9551-81BCA563B9B5}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>